--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.wojciechowski\Desktop\3Dprinter_KIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protoDEV-coreXY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assembly" sheetId="1" r:id="rId1"/>
     <sheet name="plate" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="232">
   <si>
     <t>part name</t>
   </si>
@@ -680,6 +679,48 @@
   </si>
   <si>
     <t>qty.</t>
+  </si>
+  <si>
+    <t>apr_system_assembled.SLDASM</t>
+  </si>
+  <si>
+    <t>back_left_roller_motor_mount.STL</t>
+  </si>
+  <si>
+    <t>back_right_roller_mount.STL</t>
+  </si>
+  <si>
+    <t>front_right_roller_mount.STL</t>
+  </si>
+  <si>
+    <t>front_left_roller_mount.STL</t>
+  </si>
+  <si>
+    <t>apr_shaft_beam.STL</t>
+  </si>
+  <si>
+    <t>apr_gears.STL</t>
+  </si>
+  <si>
+    <t>shaft 8x217mm steel</t>
+  </si>
+  <si>
+    <t>laminator roller</t>
+  </si>
+  <si>
+    <t>XH-25D 6VDC 275RPM geared motor</t>
+  </si>
+  <si>
+    <t>PET sheet belt 242mm wide</t>
+  </si>
+  <si>
+    <t>apr_parts_plate</t>
+  </si>
+  <si>
+    <t>apr_parts_plate.STL</t>
+  </si>
+  <si>
+    <t>12h40m</t>
   </si>
 </sst>
 </file>
@@ -1037,10 +1078,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1869,16 +1910,16 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="6">
-        <v>1</v>
+        <v>218</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G56" s="6">
         <v>1</v>
@@ -1888,11 +1929,14 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E57" s="7" t="s">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G57" s="6">
         <v>1</v>
@@ -1902,11 +1946,14 @@
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D58" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E58" s="7" t="s">
-        <v>48</v>
+        <v>221</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G58" s="6">
         <v>1</v>
@@ -1916,11 +1963,14 @@
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D59" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E59" s="7" t="s">
-        <v>49</v>
+        <v>222</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G59" s="6">
         <v>1</v>
@@ -1930,25 +1980,31 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D60" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E60" s="7" t="s">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="E61" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G61" s="6">
         <v>1</v>
@@ -1958,26 +2014,14 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>7</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="6">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E62" s="7" t="s">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -1985,13 +2029,13 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E63" s="7" t="s">
-        <v>19</v>
+        <v>226</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G63" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
@@ -1999,13 +2043,13 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E64" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G64" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -2013,13 +2057,13 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G65" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
@@ -2027,13 +2071,13 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E66" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G66" s="6">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
@@ -2041,13 +2085,13 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E67" s="7" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G67" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
@@ -2055,13 +2099,13 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E68" s="7" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
@@ -2069,13 +2113,13 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E69" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
@@ -2083,27 +2127,24 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E70" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G70" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D71" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E71" s="7" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G71" s="6">
         <v>1</v>
@@ -2113,14 +2154,20 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D72" s="7" t="s">
-        <v>11</v>
+      <c r="A72" s="6">
+        <v>7</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G72" s="6">
         <v>1</v>
@@ -2131,36 +2178,24 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E73" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G73" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
-        <v>8</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="6">
-        <v>1</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E74" s="7" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G74" s="6">
         <v>1</v>
@@ -2171,13 +2206,13 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E75" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G75" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
@@ -2185,13 +2220,13 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E76" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G76" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
@@ -2199,13 +2234,13 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E77" s="7" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G77" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
@@ -2213,27 +2248,39 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G78" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>8</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E79" s="7" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G79" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -2241,13 +2288,13 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E80" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G80" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -2255,13 +2302,13 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E81" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G81" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -2269,13 +2316,13 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E82" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G82" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
@@ -2283,10 +2330,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E83" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G83" s="6">
         <v>4</v>
@@ -2296,76 +2343,67 @@
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D84" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E84" s="7" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
       <c r="J84" s="6"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D85" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="E85" s="7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G85" s="6">
         <v>1</v>
       </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E86" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G86" s="6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>9</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="6">
-        <v>2</v>
-      </c>
       <c r="E87" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G87" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D88" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E88" s="7" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>69</v>
@@ -2378,11 +2416,14 @@
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D89" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E89" s="7" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G89" s="6">
         <v>1</v>
@@ -2393,24 +2434,36 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E90" s="7" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G90" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>9</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E91" s="7" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G91" s="6">
         <v>1</v>
@@ -2421,13 +2474,13 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E92" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G92" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
@@ -2435,7 +2488,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E93" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>70</v>
@@ -2449,13 +2502,13 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E94" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G94" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
@@ -2463,7 +2516,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E95" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>70</v>
@@ -2476,23 +2529,14 @@
       <c r="J95" s="6"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>10</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C96" s="6">
-        <v>1</v>
-      </c>
       <c r="E96" s="7" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G96" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
@@ -2500,13 +2544,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E97" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G97" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
@@ -2514,10 +2558,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E98" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G98" s="6">
         <v>1</v>
@@ -2528,7 +2572,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E99" s="7" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>68</v>
@@ -2542,30 +2586,24 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E100" s="7" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G100" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="D101" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" s="6">
-        <v>1</v>
-      </c>
       <c r="E101" s="7" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>69</v>
@@ -2578,8 +2616,11 @@
       <c r="J101" s="6"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D102" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="E102" s="7" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>69</v>
@@ -2587,30 +2628,36 @@
       <c r="G102" s="6">
         <v>1</v>
       </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E103" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G103" s="6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>10</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="6">
+        <v>2</v>
+      </c>
       <c r="E104" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G104" s="6">
         <v>1</v>
@@ -2621,10 +2668,10 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E105" s="7" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G105" s="6">
         <v>1</v>
@@ -2663,13 +2710,13 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E108" s="7" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G108" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
@@ -2677,13 +2724,13 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E109" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G109" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
@@ -2691,10 +2738,10 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E110" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G110" s="6">
         <v>4</v>
@@ -2705,13 +2752,13 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E111" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G111" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
@@ -2719,27 +2766,36 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E112" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G112" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
       <c r="J112" s="6"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>11</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
       <c r="E113" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G113" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
@@ -2747,13 +2803,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E114" s="7" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G114" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
@@ -2761,13 +2817,13 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E115" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G115" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
@@ -2775,13 +2831,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E116" s="7" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G116" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
@@ -2789,27 +2845,36 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E117" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G117" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>12</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
       <c r="E118" s="7" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G118" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
@@ -2817,13 +2882,13 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E119" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G119" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
@@ -2831,10 +2896,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E120" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G120" s="6">
         <v>1</v>
@@ -2844,20 +2909,11 @@
       <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
-        <v>12</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C121" s="6">
-        <v>4</v>
-      </c>
       <c r="E121" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G121" s="6">
         <v>1</v>
@@ -2868,36 +2924,27 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E122" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G122" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
-        <v>13</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" s="6">
-        <v>1</v>
-      </c>
       <c r="E123" s="7" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G123" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
@@ -2905,7 +2952,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E124" s="7" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>68</v>
@@ -2919,13 +2966,13 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E125" s="7" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G125" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
@@ -2933,10 +2980,10 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E126" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G126" s="6">
         <v>1</v>
@@ -2947,13 +2994,13 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E127" s="7" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G127" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
@@ -2961,13 +3008,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E128" s="7" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G128" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
@@ -2975,33 +3022,24 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E129" s="7" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G129" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
-        <v>14</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" s="6">
-        <v>1</v>
-      </c>
       <c r="E130" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G130" s="6">
         <v>2</v>
@@ -3012,7 +3050,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E131" s="7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>68</v>
@@ -3020,43 +3058,55 @@
       <c r="G131" s="6">
         <v>1</v>
       </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E132" s="7" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G132" s="6">
         <v>2</v>
       </c>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E133" s="7" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G133" s="6">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E134" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G134" s="6">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E135" s="7" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>70</v>
@@ -3064,123 +3114,129 @@
       <c r="G135" s="6">
         <v>4</v>
       </c>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E136" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G136" s="6">
         <v>4</v>
       </c>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
-        <v>15</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C137" s="6">
-        <v>6</v>
-      </c>
       <c r="E137" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G137" s="6">
         <v>1</v>
       </c>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>13</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C138" s="6">
+        <v>4</v>
+      </c>
       <c r="E138" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G138" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
-        <v>16</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C139" s="6">
-        <v>2</v>
-      </c>
       <c r="E139" s="7" t="s">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G139" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>14</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
       <c r="E140" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G140" s="6">
         <v>2</v>
       </c>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>17</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C141" s="6">
-        <v>2</v>
-      </c>
       <c r="E141" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G141" s="6">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E142" s="7" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G142" s="6">
         <v>2</v>
       </c>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
-        <v>18</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C143" s="6">
-        <v>1</v>
-      </c>
       <c r="E143" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>69</v>
@@ -3188,216 +3244,258 @@
       <c r="G143" s="6">
         <v>1</v>
       </c>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E144" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G144" s="6">
+        <v>6</v>
+      </c>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E145" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G145" s="6">
+        <v>4</v>
+      </c>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E146" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="6">
+        <v>4</v>
+      </c>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>15</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" s="6">
+        <v>2</v>
+      </c>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E148" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G148" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E149" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G149" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E150" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G150" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E151" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G151" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E152" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G152" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E153" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>16</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" s="6">
+        <v>6</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G154" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E155" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G155" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>17</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C156" s="6">
+        <v>2</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G156" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E157" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G157" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>18</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="6">
+        <v>2</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G158" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E159" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G159" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>19</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G160" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E161" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G144" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E145" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G145" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E146" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G146" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E147" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G147" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E148" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F148" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G148" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
-        <v>19</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C149" s="6">
-        <v>1</v>
-      </c>
-      <c r="E149" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G149" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E150" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G150" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E151" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G151" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E152" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G152" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E153" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G153" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E154" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G154" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
-        <v>20</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C155" s="6">
-        <v>1</v>
-      </c>
-      <c r="E155" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G155" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E156" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G156" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E157" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G157" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E158" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G158" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E159" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G159" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E160" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G160" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E161" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F161" s="6" t="s">
         <v>70</v>
       </c>
@@ -3405,7 +3503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E162" s="7" t="s">
         <v>55</v>
       </c>
@@ -3413,54 +3511,54 @@
         <v>71</v>
       </c>
       <c r="G162" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
-        <v>21</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C163" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E163" s="7" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G163" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E164" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G164" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E165" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G165" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>20</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C166" s="6">
+        <v>1</v>
+      </c>
       <c r="E166" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F166" s="6" t="s">
         <v>69</v>
@@ -3469,42 +3567,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E167" s="7" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G167" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E168" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G168" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E169" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="F169" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G169" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E170" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>70</v>
@@ -3513,62 +3611,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E171" s="7" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G171" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>21</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C172" s="6">
+        <v>1</v>
+      </c>
       <c r="E172" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G172" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
-        <v>22</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C173" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E173" s="7" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G173" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E174" s="7" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G174" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E175" s="7" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="F175" s="6" t="s">
         <v>69</v>
@@ -3576,11 +3674,10 @@
       <c r="G175" s="6">
         <v>1</v>
       </c>
-      <c r="H175" s="6"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E176" s="7" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F176" s="6" t="s">
         <v>69</v>
@@ -3588,108 +3685,113 @@
       <c r="G176" s="6">
         <v>1</v>
       </c>
-      <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E177" s="7" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G177" s="6">
-        <v>1</v>
-      </c>
-      <c r="H177" s="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E178" s="7" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G178" s="6">
         <v>2</v>
       </c>
-      <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E179" s="7" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G179" s="6">
-        <v>2</v>
-      </c>
-      <c r="H179" s="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
+        <v>22</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C180" s="6">
+        <v>1</v>
+      </c>
       <c r="E180" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>73</v>
       </c>
       <c r="G180" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E181" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G181" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E182" s="7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G182" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E183" s="7" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G183" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E184" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G184" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E185" s="7" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F185" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G185" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -3704,20 +3806,11 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
-        <v>23</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C187" s="6">
-        <v>1</v>
-      </c>
       <c r="E187" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G187" s="6">
         <v>1</v>
@@ -3725,10 +3818,10 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E188" s="7" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G188" s="6">
         <v>1</v>
@@ -3736,32 +3829,41 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E189" s="7" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G189" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>23</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C190" s="6">
+        <v>1</v>
+      </c>
       <c r="E190" s="7" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G190" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E191" s="7" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G191" s="6">
         <v>1</v>
@@ -3769,625 +3871,612 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E192" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G192" s="6">
+        <v>1</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E193" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G193" s="6">
+        <v>1</v>
+      </c>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E194" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G194" s="6">
+        <v>1</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E195" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G195" s="6">
+        <v>2</v>
+      </c>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E196" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G196" s="6">
+        <v>2</v>
+      </c>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E197" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G197" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E198" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G198" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E199" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G199" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E200" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G200" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E201" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G201" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E202" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G202" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E203" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G203" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="6">
+        <v>24</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C204" s="6">
+        <v>1</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E205" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E206" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G206" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E207" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G207" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E208" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G208" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E209" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F192" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G192" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E193" s="7" t="s">
+      <c r="F209" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G209" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E210" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F193" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G193" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E194" s="7" t="s">
+      <c r="F210" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G210" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E211" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F194" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G194" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E195" s="7" t="s">
+      <c r="F211" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G211" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E212" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F195" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G195" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="6">
-        <v>24</v>
-      </c>
-      <c r="B196" s="7" t="s">
+      <c r="F212" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G212" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="6">
+        <v>25</v>
+      </c>
+      <c r="B213" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C196" s="6">
-        <v>1</v>
-      </c>
-      <c r="E196" s="7" t="s">
+      <c r="C213" s="6">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F196" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G196" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E197" s="7" t="s">
+      <c r="F213" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G213" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E214" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F197" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G197" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E198" s="7" t="s">
+      <c r="F214" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G214" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E215" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F198" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G198" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E199" s="7" t="s">
+      <c r="F215" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G215" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E216" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F199" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G199" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E200" s="7" t="s">
+      <c r="F216" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G216" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E217" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F200" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G200" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="6">
-        <v>25</v>
-      </c>
-      <c r="B201" s="7" t="s">
+      <c r="F217" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G217" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="6">
+        <v>26</v>
+      </c>
+      <c r="B218" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C201" s="6">
-        <v>1</v>
-      </c>
-      <c r="E201" s="7" t="s">
+      <c r="C218" s="6">
+        <v>1</v>
+      </c>
+      <c r="E218" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F201" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G201" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E202" s="7" t="s">
+      <c r="F218" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G218" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E219" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F202" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G202" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E203" s="7" t="s">
+      <c r="F219" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G219" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E220" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F203" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G203" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E204" s="7" t="s">
+      <c r="F220" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G220" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E221" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F204" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G204" s="6">
+      <c r="F221" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G221" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E205" s="7" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E222" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F205" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G205" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="6">
-        <v>26</v>
-      </c>
-      <c r="B206" s="7" t="s">
+      <c r="F222" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G222" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>27</v>
+      </c>
+      <c r="B223" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C206" s="6">
-        <v>1</v>
-      </c>
-      <c r="E206" s="7" t="s">
+      <c r="C223" s="6">
+        <v>1</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F206" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G206" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E207" s="7" t="s">
+      <c r="F223" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G223" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E224" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F207" s="6" t="s">
+      <c r="F224" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G207" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E208" s="7" t="s">
+      <c r="G224" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E225" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F208" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G208" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E209" s="7" t="s">
+      <c r="F225" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G225" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E226" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F209" s="6" t="s">
+      <c r="F226" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G209" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E210" s="7" t="s">
+      <c r="G226" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E227" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F210" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G210" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E211" s="7" t="s">
+      <c r="F227" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G227" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E228" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F211" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G211" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E212" s="7" t="s">
+      <c r="F228" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G228" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E229" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F212" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G212" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E213" s="7" t="s">
+      <c r="F229" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G229" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E230" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F213" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G213" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E214" s="7" t="s">
+      <c r="F230" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G230" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E231" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F214" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G214" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E215" s="7" t="s">
+      <c r="F231" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G231" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E232" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F215" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G215" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E216" s="7" t="s">
+      <c r="F232" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G232" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E233" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F216" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G216" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E217" s="7" t="s">
+      <c r="F233" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G233" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E234" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F217" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G217" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E218" s="7" t="s">
+      <c r="F234" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G234" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E235" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F218" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G218" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E219" s="7" t="s">
+      <c r="F235" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G235" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E236" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F219" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G219" s="6">
+      <c r="F236" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G236" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E220" s="7" t="s">
+    <row r="237" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E237" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F220" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G220" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E221" s="7" t="s">
+      <c r="F237" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G237" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E238" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F221" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G221" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E222" s="7" t="s">
+      <c r="F238" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G238" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E239" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F222" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G222" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E223" s="7" t="s">
+      <c r="F239" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G239" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E240" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F223" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G223" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E224" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G224" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E225" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F225" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G225" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E226" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F226" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G226" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E227" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F227" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G227" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E228" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F228" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G228" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="6">
-        <v>27</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C229" s="6">
-        <v>1</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F229" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G229" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E230" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F230" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G230" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E231" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G231" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E232" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F232" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G232" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E233" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F233" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G233" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E234" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F234" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G234" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E235" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G235" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="6">
-        <v>28</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C236" s="6">
-        <v>1</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F236" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G236" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E237" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F237" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G237" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E238" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F238" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G238" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E239" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F239" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G239" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E240" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="F240" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G240" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E241" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G241" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="6">
-        <v>29</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C242" s="6">
-        <v>1</v>
-      </c>
       <c r="E242" s="7" t="s">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G242" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E243" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G243" s="6">
         <v>1</v>
@@ -4395,10 +4484,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E244" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G244" s="6">
         <v>1</v>
@@ -4406,52 +4495,52 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E245" s="7" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G245" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="6">
+        <v>28</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C246" s="6">
+        <v>1</v>
+      </c>
       <c r="E246" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G246" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E247" s="7" t="s">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G247" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
-        <v>30</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C248" s="6">
-        <v>1</v>
-      </c>
       <c r="E248" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G248" s="6">
         <v>1</v>
@@ -4459,51 +4548,60 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E249" s="7" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G249" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E250" s="7" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>171</v>
+        <v>70</v>
       </c>
       <c r="G250" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E251" s="7" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G251" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E252" s="7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G252" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="6">
+        <v>29</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C253" s="6">
+        <v>1</v>
+      </c>
       <c r="E253" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="F253" s="6" t="s">
         <v>69</v>
@@ -4514,10 +4612,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E254" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G254" s="6">
         <v>1</v>
@@ -4525,10 +4623,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E255" s="7" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G255" s="6">
         <v>4</v>
@@ -4536,65 +4634,74 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E256" s="7" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G256" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E257" s="7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G257" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E258" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G258" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>30</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C259" s="6">
+        <v>1</v>
+      </c>
       <c r="E259" s="7" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G259" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E260" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G260" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E261" s="7" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G261" s="6">
         <v>1</v>
@@ -4602,49 +4709,49 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E262" s="7" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G262" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A263" s="6">
-        <v>31</v>
-      </c>
-      <c r="B263" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C263" s="6">
-        <v>1</v>
-      </c>
       <c r="E263" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G263" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E264" s="7" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G264" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265" s="6">
+        <v>31</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C265" s="6">
+        <v>1</v>
+      </c>
       <c r="E265" s="7" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>69</v>
@@ -4655,7 +4762,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E266" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F266" s="6" t="s">
         <v>68</v>
@@ -4666,10 +4773,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E267" s="7" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="G267" s="6">
         <v>1</v>
@@ -4677,21 +4784,21 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E268" s="7" t="s">
-        <v>21</v>
+        <v>209</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G268" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E269" s="7" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G269" s="6">
         <v>1</v>
@@ -4699,30 +4806,21 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E270" s="7" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G270" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A271" s="6">
-        <v>32</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C271" s="6">
-        <v>1</v>
-      </c>
       <c r="E271" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G271" s="6">
         <v>1</v>
@@ -4730,21 +4828,21 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E272" s="7" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G272" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E273" s="7" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G273" s="6">
         <v>1</v>
@@ -4752,76 +4850,85 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E274" s="7" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G274" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E275" s="7" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G275" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E276" s="7" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G276" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E277" s="7" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="F277" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G277" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E278" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G278" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E279" s="7" t="s">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G279" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" s="6">
+        <v>32</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C280" s="6">
+        <v>1</v>
+      </c>
       <c r="E280" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G280" s="6">
         <v>1</v>
@@ -4829,21 +4936,21 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E281" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G281" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E282" s="7" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G282" s="6">
         <v>1</v>
@@ -4851,52 +4958,43 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E283" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G283" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E284" s="7" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G284" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E285" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G285" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A286" s="6">
+      <c r="E286" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B286" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C286" s="6">
-        <v>1</v>
-      </c>
-      <c r="E286" s="7" t="s">
-        <v>191</v>
-      </c>
       <c r="F286" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G286" s="6">
         <v>1</v>
@@ -4904,51 +5002,60 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E287" s="7" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="F287" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G287" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288" s="6">
+        <v>33</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C288" s="6">
+        <v>1</v>
+      </c>
       <c r="E288" s="7" t="s">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G288" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E289" s="7" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G289" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E290" s="7" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G290" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E291" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F291" s="6" t="s">
         <v>69</v>
@@ -4958,20 +5065,11 @@
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A292" s="6">
-        <v>34</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C292" s="6">
-        <v>1</v>
-      </c>
       <c r="E292" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G292" s="6">
         <v>1</v>
@@ -4979,52 +5077,43 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E293" s="7" t="s">
-        <v>51</v>
+        <v>184</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G293" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E294" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F294" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G294" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E295" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F295" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G294" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A295" s="6">
-        <v>35</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C295" s="6">
-        <v>1</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F295" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="G295" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E296" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G296" s="6">
         <v>1</v>
@@ -5032,21 +5121,21 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E297" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G297" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E298" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G298" s="6">
         <v>2</v>
@@ -5054,10 +5143,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E299" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G299" s="6">
         <v>1</v>
@@ -5065,18 +5154,18 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E300" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G300" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E301" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>70</v>
@@ -5087,67 +5176,281 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E302" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G302" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303" s="6">
+        <v>34</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C303" s="6">
+        <v>1</v>
+      </c>
       <c r="E303" s="7" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G303" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E304" s="7" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G304" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E305" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G305" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E306" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G306" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E307" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G307" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E308" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G308" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309" s="6">
+        <v>35</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C309" s="6">
+        <v>1</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F309" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G309" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E310" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F310" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G310" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E311" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G311" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>36</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C312" s="6">
+        <v>1</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G312" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E313" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F313" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G313" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E314" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F314" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G314" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E315" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F315" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G315" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E316" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F316" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G316" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E317" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F317" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E318" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F318" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G318" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E319" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F319" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G319" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E320" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G320" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E321" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G321" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E322" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G322" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E323" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F306" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G306" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E307" s="7" t="s">
+      <c r="F323" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G323" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E324" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F307" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G307" s="6">
+      <c r="F324" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G324" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5159,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,6 +5511,188 @@
         <v>20.75</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="1">
+        <v>145.28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="231">
   <si>
     <t>part name</t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>PET sheet belt 242mm wide</t>
-  </si>
-  <si>
-    <t>apr_parts_plate</t>
   </si>
   <si>
     <t>apr_parts_plate.STL</t>
@@ -1080,7 +1077,7 @@
   </sheetPr>
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -1913,7 +1910,7 @@
         <v>218</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>219</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D57" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>220</v>
@@ -1947,7 +1944,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D58" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>221</v>
@@ -1964,7 +1961,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D59" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>222</v>
@@ -1981,7 +1978,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D60" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>223</v>
@@ -1998,7 +1995,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D61" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>224</v>
@@ -5465,7 +5462,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,7 +5516,7 @@
         <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D3" s="1">
         <v>145.28</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="assembly" sheetId="1" r:id="rId1"/>
@@ -594,9 +594,6 @@
     <t>2020 T-Slot corner</t>
   </si>
   <si>
-    <t>2020 T-Slot alu-profil 120mm</t>
-  </si>
-  <si>
     <t>psu_12v_assembled.SLDASM</t>
   </si>
   <si>
@@ -718,6 +715,9 @@
   </si>
   <si>
     <t>12h40m</t>
+  </si>
+  <si>
+    <t>2020 T-Slot alu-profil 95mm</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1104,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -1116,7 +1116,7 @@
         <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E3" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>68</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E4" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>68</v>
@@ -1160,13 +1160,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>68</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>68</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>68</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>70</v>
@@ -1907,13 +1907,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>69</v>
@@ -1927,10 +1927,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D57" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>69</v>
@@ -1944,10 +1944,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D58" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>69</v>
@@ -1961,10 +1961,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D59" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>69</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D60" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>69</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D61" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>69</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E62" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>68</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E63" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>68</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>68</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E71" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>68</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E77" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>68</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>73</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="229" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E229" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>68</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="230" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E230" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>68</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E268" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>68</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E272" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F272" s="6" t="s">
         <v>68</v>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E273" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F273" s="6" t="s">
         <v>68</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E299" s="7" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>68</v>
@@ -5187,13 +5187,13 @@
         <v>34</v>
       </c>
       <c r="B303" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C303" s="6">
+        <v>1</v>
+      </c>
+      <c r="E303" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C303" s="6">
-        <v>1</v>
-      </c>
-      <c r="E303" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>68</v>
@@ -5248,7 +5248,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E308" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>69</v>
@@ -5262,13 +5262,13 @@
         <v>35</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C309" s="6">
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>68</v>
@@ -5304,13 +5304,13 @@
         <v>36</v>
       </c>
       <c r="B312" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C312" s="6">
+        <v>1</v>
+      </c>
+      <c r="E312" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="C312" s="6">
-        <v>1</v>
-      </c>
-      <c r="E312" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>69</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E313" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F313" s="6" t="s">
         <v>69</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E314" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F314" s="6" t="s">
         <v>69</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E315" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>69</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E316" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>69</v>
@@ -5365,7 +5365,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E317" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>69</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="323" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E323" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F323" s="6" t="s">
         <v>68</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="324" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E324" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F324" s="6" t="s">
         <v>68</v>
@@ -5461,7 +5461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5513,10 +5513,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D3" s="1">
         <v>145.28</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="225">
   <si>
     <t>part name</t>
   </si>
@@ -252,33 +252,6 @@
     <t>pully</t>
   </si>
   <si>
-    <t>z_motor_holder_top.STL</t>
-  </si>
-  <si>
-    <t>z_axis_tensioner_assembled.SLDASM</t>
-  </si>
-  <si>
-    <t>z_motor_holder.STL</t>
-  </si>
-  <si>
-    <t>z_motor_holder_cover.STL</t>
-  </si>
-  <si>
-    <t>z_tensioner_idler_assembled.SLDASM</t>
-  </si>
-  <si>
-    <t>z_idler.STL</t>
-  </si>
-  <si>
-    <t>M3 brass knob</t>
-  </si>
-  <si>
-    <t>GT2 idler with tooth 5mm</t>
-  </si>
-  <si>
-    <t>GT2 idler without tooth 5mm</t>
-  </si>
-  <si>
     <t>20x20 alu square pipe 373mm</t>
   </si>
   <si>
@@ -297,9 +270,6 @@
     <t>M3x16 socket button head cap screw</t>
   </si>
   <si>
-    <t>M3x10 socket set screw flat point</t>
-  </si>
-  <si>
     <t>openbeam 1515 alu 240mm</t>
   </si>
   <si>
@@ -366,12 +336,6 @@
     <t>MGH 12H carrage</t>
   </si>
   <si>
-    <t>shaft 5x30mm alu</t>
-  </si>
-  <si>
-    <t>shaft 5x20mm alu</t>
-  </si>
-  <si>
     <t>shaft 5x490mm alu</t>
   </si>
   <si>
@@ -669,9 +633,6 @@
     <t>GT2 closed-loop belt 120-130mm</t>
   </si>
   <si>
-    <t>GT2 closed-loop belt 750-760mm</t>
-  </si>
-  <si>
     <t>GT2 open-loop belt &lt;1422mm</t>
   </si>
   <si>
@@ -718,6 +679,27 @@
   </si>
   <si>
     <t>2020 T-Slot alu-profil 95mm</t>
+  </si>
+  <si>
+    <t>z_motor_holder_v2.STL</t>
+  </si>
+  <si>
+    <t>z_motor_holder_cover_v2.STL</t>
+  </si>
+  <si>
+    <t>z_motor_holder_top_v2.STL</t>
+  </si>
+  <si>
+    <t>z_motor_holder_top_cover_v2.STL</t>
+  </si>
+  <si>
+    <t>F623ZZ ball bearing</t>
+  </si>
+  <si>
+    <t>z_axis_tensioner_assembled_v2.SLDASM</t>
+  </si>
+  <si>
+    <t>GT2 closed-loop belt 720mm</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1057,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M324"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1086,7 @@
         <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -1116,7 +1098,7 @@
         <v>67</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1124,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>68</v>
@@ -1135,7 +1117,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E3" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>68</v>
@@ -1146,7 +1128,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>68</v>
@@ -1160,13 +1142,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>68</v>
@@ -1177,7 +1159,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E6" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>68</v>
@@ -1188,7 +1170,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>68</v>
@@ -1221,7 +1203,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>68</v>
@@ -1232,7 +1214,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>70</v>
@@ -1668,7 +1650,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>68</v>
@@ -1907,13 +1889,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>69</v>
@@ -1927,10 +1909,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D57" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>69</v>
@@ -1944,10 +1926,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D58" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>69</v>
@@ -1961,10 +1943,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D59" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>69</v>
@@ -1978,10 +1960,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D60" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>69</v>
@@ -1995,10 +1977,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D61" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>69</v>
@@ -2012,7 +1994,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E62" s="7" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>68</v>
@@ -2026,7 +2008,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E63" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>68</v>
@@ -2054,7 +2036,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>68</v>
@@ -2096,7 +2078,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E68" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>70</v>
@@ -2138,7 +2120,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E71" s="7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>68</v>
@@ -2231,7 +2213,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E77" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>68</v>
@@ -2245,7 +2227,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>73</v>
@@ -2780,13 +2762,13 @@
         <v>11</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="C113" s="6">
         <v>1</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>69</v>
@@ -2800,13 +2782,13 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E114" s="7" t="s">
-        <v>33</v>
+        <v>218</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G114" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
@@ -2814,10 +2796,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E115" s="7" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G115" s="6">
         <v>1</v>
@@ -2828,10 +2810,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E116" s="7" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G116" s="6">
         <v>1</v>
@@ -2842,7 +2824,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E117" s="7" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>68</v>
@@ -2855,20 +2837,11 @@
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>12</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" s="6">
-        <v>1</v>
-      </c>
       <c r="E118" s="7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G118" s="6">
         <v>1</v>
@@ -2879,10 +2852,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E119" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G119" s="6">
         <v>1</v>
@@ -2893,10 +2866,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E120" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G120" s="6">
         <v>1</v>
@@ -2907,10 +2880,10 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E121" s="7" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G121" s="6">
         <v>1</v>
@@ -2921,13 +2894,13 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E122" s="7" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G122" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
@@ -2935,13 +2908,13 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E123" s="7" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G123" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
@@ -2949,41 +2922,35 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E124" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="G124" s="6">
-        <v>1</v>
-      </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E125" s="7" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G125" s="6">
-        <v>4</v>
-      </c>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E126" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G126" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
@@ -2991,10 +2958,10 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E127" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G127" s="6">
         <v>4</v>
@@ -3005,13 +2972,13 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E128" s="7" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G128" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
@@ -3019,13 +2986,13 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E129" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G129" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
@@ -3033,7 +3000,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E130" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>70</v>
@@ -3047,13 +3014,13 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E131" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G131" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
@@ -3061,27 +3028,36 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E132" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G132" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
       <c r="J132" s="6"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>12</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="6">
+        <v>4</v>
+      </c>
       <c r="E133" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G133" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
@@ -3089,27 +3065,36 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E134" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G134" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H134" s="6"/>
       <c r="I134" s="6"/>
       <c r="J134" s="6"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>13</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
       <c r="E135" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G135" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H135" s="6"/>
       <c r="I135" s="6"/>
@@ -3117,13 +3102,13 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E136" s="7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G136" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H136" s="6"/>
       <c r="I136" s="6"/>
@@ -3131,30 +3116,21 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E137" s="7" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G137" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="6"/>
       <c r="J137" s="6"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
-        <v>13</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C138" s="6">
-        <v>4</v>
-      </c>
       <c r="E138" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>69</v>
@@ -3168,36 +3144,27 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E139" s="7" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G139" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="6"/>
       <c r="J139" s="6"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
-        <v>14</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C140" s="6">
-        <v>1</v>
-      </c>
       <c r="E140" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G140" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6"/>
@@ -3205,24 +3172,33 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E141" s="7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G141" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="6"/>
       <c r="J141" s="6"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>14</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
       <c r="E142" s="7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G142" s="6">
         <v>2</v>
@@ -3233,279 +3209,264 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E143" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G143" s="6">
         <v>1</v>
       </c>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E144" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E145" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E146" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F144" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G144" s="6">
+      <c r="F146" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G146" s="6">
         <v>6</v>
       </c>
-      <c r="H144" s="6"/>
-      <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E145" s="7" t="s">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E147" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F145" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G145" s="6">
+      <c r="F147" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G147" s="6">
         <v>4</v>
       </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E146" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F146" s="6" t="s">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E148" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G146" s="6">
+      <c r="G148" s="6">
         <v>4</v>
       </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
         <v>15</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C147" s="6">
-        <v>1</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="B149" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C149" s="6">
+        <v>6</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G149" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E150" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G150" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>16</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="6">
+        <v>2</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E152" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>17</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" s="6">
+        <v>2</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F153" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G147" s="6">
-        <v>2</v>
-      </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E148" s="7" t="s">
+      <c r="G153" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E154" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F148" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G148" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E149" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G149" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E150" s="7" t="s">
+      <c r="F154" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>18</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G155" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E156" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G156" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E157" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G157" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E158" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G158" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E159" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G159" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E160" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G160" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>19</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="E161" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F150" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G150" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E151" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F151" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G151" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E152" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G152" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E153" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G153" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
-        <v>16</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="6">
-        <v>6</v>
-      </c>
-      <c r="E154" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F154" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G154" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E155" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G155" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
-        <v>17</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C156" s="6">
-        <v>2</v>
-      </c>
-      <c r="E156" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F156" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G156" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E157" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F157" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G157" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
-        <v>18</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C158" s="6">
-        <v>2</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F158" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G158" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E159" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F159" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G159" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
-        <v>19</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C160" s="6">
-        <v>1</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G160" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E161" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="F161" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G161" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E162" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G162" s="6">
         <v>2</v>
@@ -3513,18 +3474,18 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E163" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G163" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E164" s="7" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>70</v>
@@ -3535,63 +3496,63 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E165" s="7" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="F165" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G165" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E166" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G165" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+      <c r="G166" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
         <v>20</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C166" s="6">
-        <v>1</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F166" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G166" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
       <c r="E167" s="7" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G167" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E168" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E169" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G169" s="6">
         <v>1</v>
@@ -3599,10 +3560,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E170" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G170" s="6">
         <v>1</v>
@@ -3610,63 +3571,63 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E171" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G171" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
-        <v>21</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C172" s="6">
-        <v>1</v>
-      </c>
       <c r="E172" s="7" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G172" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E173" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G173" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E174" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F174" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G174" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>21</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="G174" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E175" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="G175" s="6">
         <v>1</v>
@@ -3674,10 +3635,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E176" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G176" s="6">
         <v>1</v>
@@ -3685,74 +3646,65 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E177" s="7" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G177" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E178" s="7" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G178" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E179" s="7" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G179" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E180" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G180" s="6">
         <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
-        <v>22</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C180" s="6">
-        <v>1</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F180" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G180" s="6">
-        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E181" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G181" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E182" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G182" s="6">
         <v>1</v>
@@ -3760,10 +3712,10 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E183" s="7" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G183" s="6">
         <v>1</v>
@@ -3771,297 +3723,306 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E184" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G184" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
+        <v>22</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C185" s="6">
+        <v>1</v>
+      </c>
       <c r="E185" s="7" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G185" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E186" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G186" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E187" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G187" s="6">
         <v>1</v>
       </c>
+      <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E188" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G188" s="6">
         <v>1</v>
       </c>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E189" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G189" s="6">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
-        <v>23</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C190" s="6">
-        <v>1</v>
-      </c>
       <c r="E190" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G190" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E191" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G191" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E192" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G192" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E193" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G193" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E194" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G194" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E195" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G195" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E196" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G196" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E197" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G197" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E198" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G198" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>23</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G199" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E200" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G200" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E201" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G201" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E202" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G202" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E203" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G203" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E204" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G204" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E205" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G205" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E206" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G206" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E207" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G207" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>24</v>
+      </c>
+      <c r="B208" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F192" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G192" s="6">
-        <v>1</v>
-      </c>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E193" s="7" t="s">
+      <c r="C208" s="6">
+        <v>1</v>
+      </c>
+      <c r="E208" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F193" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G193" s="6">
-        <v>1</v>
-      </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E194" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G194" s="6">
-        <v>1</v>
-      </c>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E195" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G195" s="6">
-        <v>2</v>
-      </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E196" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F196" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G196" s="6">
-        <v>2</v>
-      </c>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E197" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F197" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G197" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E198" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F198" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G198" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E199" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G199" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E200" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F200" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G200" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E201" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F201" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G201" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E202" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F202" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G202" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E203" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F203" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G203" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A204" s="6">
-        <v>24</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C204" s="6">
-        <v>1</v>
-      </c>
-      <c r="E204" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F204" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G204" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E205" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F205" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G205" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E206" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G206" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E207" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F207" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G207" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E208" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="F208" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G208" s="6">
         <v>1</v>
@@ -4069,7 +4030,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E209" s="7" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>70</v>
@@ -4080,7 +4041,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E210" s="7" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>68</v>
@@ -4091,7 +4052,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E211" s="7" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>68</v>
@@ -4102,13 +4063,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E212" s="7" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G212" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -4116,13 +4077,13 @@
         <v>25</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C213" s="6">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>69</v>
@@ -4133,43 +4094,43 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E214" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G214" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E215" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>68</v>
       </c>
       <c r="G215" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E216" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G216" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E217" s="7" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G217" s="6">
         <v>1</v>
@@ -4180,16 +4141,16 @@
         <v>26</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C218" s="6">
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G218" s="6">
         <v>1</v>
@@ -4197,60 +4158,51 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E219" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G219" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E220" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G220" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E221" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G221" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E222" s="7" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G222" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="6">
-        <v>27</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C223" s="6">
-        <v>1</v>
-      </c>
       <c r="E223" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>68</v>
@@ -4261,10 +4213,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E224" s="7" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G224" s="6">
         <v>1</v>
@@ -4272,10 +4224,10 @@
     </row>
     <row r="225" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E225" s="7" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G225" s="6">
         <v>1</v>
@@ -4283,10 +4235,10 @@
     </row>
     <row r="226" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E226" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G226" s="6">
         <v>1</v>
@@ -4294,7 +4246,7 @@
     </row>
     <row r="227" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E227" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>68</v>
@@ -4305,7 +4257,7 @@
     </row>
     <row r="228" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E228" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>68</v>
@@ -4316,10 +4268,10 @@
     </row>
     <row r="229" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E229" s="7" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G229" s="6">
         <v>1</v>
@@ -4327,10 +4279,10 @@
     </row>
     <row r="230" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E230" s="7" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G230" s="6">
         <v>1</v>
@@ -4338,32 +4290,32 @@
     </row>
     <row r="231" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E231" s="7" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G231" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E232" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G232" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E233" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G233" s="6">
         <v>1</v>
@@ -4371,10 +4323,10 @@
     </row>
     <row r="234" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E234" s="7" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G234" s="6">
         <v>1</v>
@@ -4382,21 +4334,21 @@
     </row>
     <row r="235" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E235" s="7" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G235" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E236" s="7" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="G236" s="6">
         <v>3</v>
@@ -4404,18 +4356,18 @@
     </row>
     <row r="237" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E237" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G237" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E238" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="F238" s="6" t="s">
         <v>70</v>
@@ -4426,10 +4378,10 @@
     </row>
     <row r="239" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E239" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G239" s="6">
         <v>1</v>
@@ -4437,43 +4389,52 @@
     </row>
     <row r="240" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E240" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G240" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="6">
+        <v>27</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C241" s="6">
+        <v>1</v>
+      </c>
       <c r="E241" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="G241" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E242" s="7" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G242" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E243" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G243" s="6">
         <v>1</v>
@@ -4481,63 +4442,63 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E244" s="7" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G244" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E245" s="7" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G245" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="6">
-        <v>28</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C246" s="6">
-        <v>1</v>
-      </c>
       <c r="E246" s="7" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G246" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E247" s="7" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G247" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="6">
+        <v>28</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C248" s="6">
+        <v>1</v>
+      </c>
       <c r="E248" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G248" s="6">
         <v>1</v>
@@ -4545,32 +4506,32 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E249" s="7" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G249" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E250" s="7" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G250" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E251" s="7" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G251" s="6">
         <v>4</v>
@@ -4578,38 +4539,38 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E252" s="7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G252" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A253" s="6">
+      <c r="E253" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G253" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="6">
         <v>29</v>
       </c>
-      <c r="B253" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C253" s="6">
-        <v>1</v>
-      </c>
-      <c r="E253" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G253" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B254" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C254" s="6">
+        <v>1</v>
+      </c>
       <c r="E254" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>69</v>
@@ -4620,32 +4581,32 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E255" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>69</v>
       </c>
       <c r="G255" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E256" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G256" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E257" s="7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G257" s="6">
         <v>1</v>
@@ -4653,38 +4614,38 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E258" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G258" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A259" s="6">
+      <c r="E259" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G259" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260" s="6">
         <v>30</v>
       </c>
-      <c r="B259" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C259" s="6">
-        <v>1</v>
-      </c>
-      <c r="E259" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F259" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G259" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B260" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C260" s="6">
+        <v>1</v>
+      </c>
       <c r="E260" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>69</v>
@@ -4695,10 +4656,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E261" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G261" s="6">
         <v>1</v>
@@ -4706,10 +4667,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E262" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="G262" s="6">
         <v>1</v>
@@ -4717,38 +4678,29 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E263" s="7" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G263" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E264" s="7" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G264" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A265" s="6">
-        <v>31</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C265" s="6">
-        <v>1</v>
-      </c>
       <c r="E265" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F265" s="6" t="s">
         <v>69</v>
@@ -4759,10 +4711,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E266" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G266" s="6">
         <v>1</v>
@@ -4770,18 +4722,18 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E267" s="7" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="G267" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E268" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F268" s="6" t="s">
         <v>68</v>
@@ -4792,54 +4744,54 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E269" s="7" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G269" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E270" s="7" t="s">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G270" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E271" s="7" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G271" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E272" s="7" t="s">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G272" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E273" s="7" t="s">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G273" s="6">
         <v>1</v>
@@ -4847,54 +4799,63 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E274" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G274" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" s="6">
+        <v>31</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C275" s="6">
+        <v>1</v>
+      </c>
       <c r="E275" s="7" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G275" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E276" s="7" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G276" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E277" s="7" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G277" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E278" s="7" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G278" s="6">
         <v>1</v>
@@ -4902,41 +4863,32 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E279" s="7" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G279" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A280" s="6">
-        <v>32</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C280" s="6">
-        <v>1</v>
-      </c>
       <c r="E280" s="7" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G280" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E281" s="7" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G281" s="6">
         <v>1</v>
@@ -4944,21 +4896,30 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E282" s="7" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G282" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283" s="6">
+        <v>32</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C283" s="6">
+        <v>1</v>
+      </c>
       <c r="E283" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G283" s="6">
         <v>1</v>
@@ -4966,10 +4927,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E284" s="7" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G284" s="6">
         <v>1</v>
@@ -4977,21 +4938,21 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E285" s="7" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G285" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E286" s="7" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G286" s="6">
         <v>1</v>
@@ -4999,27 +4960,18 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E287" s="7" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G287" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A288" s="6">
-        <v>33</v>
-      </c>
-      <c r="B288" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C288" s="6">
-        <v>1</v>
-      </c>
       <c r="E288" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F288" s="6" t="s">
         <v>69</v>
@@ -5030,32 +4982,32 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E289" s="7" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G289" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E290" s="7" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G290" s="6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E291" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G291" s="6">
         <v>1</v>
@@ -5063,10 +5015,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E292" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G292" s="6">
         <v>1</v>
@@ -5074,181 +5026,199 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E293" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G293" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E294" s="7" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G294" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E295" s="7" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G295" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E296" s="7" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="F296" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G296" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E297" s="7" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>71</v>
       </c>
       <c r="G297" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
+        <v>33</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C298" s="6">
+        <v>1</v>
+      </c>
       <c r="E298" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G298" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E299" s="7" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G299" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E300" s="7" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G300" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E301" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>70</v>
       </c>
       <c r="G301" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E302" s="7" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G302" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="6">
+      <c r="E303" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G303" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304" s="6">
         <v>34</v>
       </c>
-      <c r="B303" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C303" s="6">
-        <v>1</v>
-      </c>
-      <c r="E303" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F303" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G303" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B304" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C304" s="6">
+        <v>1</v>
+      </c>
       <c r="E304" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G304" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E305" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G305" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E306" s="7" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G306" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307" s="6">
+        <v>35</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C307" s="6">
+        <v>1</v>
+      </c>
       <c r="E307" s="7" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G307" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E308" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F308" s="6" t="s">
         <v>69</v>
@@ -5258,31 +5228,22 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="6">
-        <v>35</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C309" s="6">
-        <v>1</v>
-      </c>
       <c r="E309" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G309" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E310" s="7" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G310" s="6">
         <v>2</v>
@@ -5290,27 +5251,18 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E311" s="7" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G311" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
-        <v>36</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C312" s="6">
-        <v>1</v>
-      </c>
       <c r="E312" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F312" s="6" t="s">
         <v>69</v>
@@ -5321,133 +5273,78 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E313" s="7" t="s">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G313" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E314" s="7" t="s">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G314" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E315" s="7" t="s">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G315" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E316" s="7" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G316" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E317" s="7" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G317" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E318" s="7" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G318" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E319" s="7" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E320" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F320" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G320" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E321" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F321" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G321" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E322" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F322" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G322" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E323" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F323" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G323" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E324" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F324" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G324" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5513,10 +5410,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D3" s="1">
         <v>145.28</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="assembly" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="227">
   <si>
     <t>part name</t>
   </si>
@@ -700,6 +700,12 @@
   </si>
   <si>
     <t>GT2 closed-loop belt 720mm</t>
+  </si>
+  <si>
+    <t>z_axis_tensioner_parts_plate.STL</t>
+  </si>
+  <si>
+    <t>5h40m</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1065,8 @@
   </sheetPr>
   <dimension ref="A1:M319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1074,7 @@
     <col min="1" max="1" width="3.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="6" bestFit="1" customWidth="1"/>
@@ -2767,6 +2773,9 @@
       <c r="C113" s="6">
         <v>1</v>
       </c>
+      <c r="D113" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E113" s="7" t="s">
         <v>220</v>
       </c>
@@ -2781,6 +2790,9 @@
       <c r="J113" s="6"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D114" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E114" s="7" t="s">
         <v>218</v>
       </c>
@@ -2795,6 +2807,9 @@
       <c r="J114" s="6"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D115" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E115" s="7" t="s">
         <v>219</v>
       </c>
@@ -2809,6 +2824,9 @@
       <c r="J115" s="6"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D116" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E116" s="7" t="s">
         <v>221</v>
       </c>
@@ -2943,6 +2961,9 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D126" s="7" t="s">
+        <v>225</v>
+      </c>
       <c r="E126" s="7" t="s">
         <v>77</v>
       </c>
@@ -5358,14 +5379,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -5423,9 +5444,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="1">
+        <v>79.34</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.95</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="272">
   <si>
     <t>part name</t>
   </si>
@@ -262,12 +262,6 @@
     <t>print_cooling_fan_duct.SLDASM</t>
   </si>
   <si>
-    <t>fan_mount_v8.STL</t>
-  </si>
-  <si>
-    <t>30x30_fan_duct.STL</t>
-  </si>
-  <si>
     <t>e3d volcano with heatsink</t>
   </si>
   <si>
@@ -824,6 +818,30 @@
   </si>
   <si>
     <t>fitting</t>
+  </si>
+  <si>
+    <t>fan_mount_v9.STL</t>
+  </si>
+  <si>
+    <t>fan_cover_front.STL</t>
+  </si>
+  <si>
+    <t>fan_cover.STL</t>
+  </si>
+  <si>
+    <t>x_axis_carriage_assembled.SLDASM</t>
+  </si>
+  <si>
+    <t>x_axis_carriage_back.SLDASM</t>
+  </si>
+  <si>
+    <t>extruder_cable_cover.STL</t>
+  </si>
+  <si>
+    <t>x_axis_carriage_plate.STL</t>
+  </si>
+  <si>
+    <t>10h5m</t>
   </si>
 </sst>
 </file>
@@ -1183,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1218,13 +1236,13 @@
         <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
@@ -1232,16 +1250,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1252,16 +1270,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D3" s="6">
         <v>1515</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1272,16 +1290,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D4" s="6">
         <v>2020</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
@@ -1292,16 +1310,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D5" s="6">
         <v>2020</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -1312,16 +1330,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D6" s="6">
         <v>2020</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1332,10 +1350,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="6">
         <v>2020</v>
@@ -1349,10 +1367,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D8" s="6">
         <v>2020</v>
@@ -1370,10 +1388,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F9" s="6">
         <v>10</v>
@@ -1388,10 +1406,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F10" s="6">
         <v>112</v>
@@ -1407,16 +1425,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -1427,13 +1445,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -1463,13 +1481,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -1480,7 +1498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>37</v>
@@ -1494,16 +1512,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -1522,16 +1540,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1550,16 +1568,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1573,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -1590,16 +1608,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
@@ -1618,13 +1636,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F21" s="6">
         <v>2</v>
@@ -1643,7 +1661,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>37</v>
@@ -1662,16 +1680,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -1685,16 +1703,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -1708,16 +1726,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F25" s="6">
         <v>2</v>
@@ -1731,16 +1749,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F26" s="6">
         <v>4</v>
@@ -1754,16 +1772,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F27" s="6">
         <v>2</v>
@@ -1777,16 +1795,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
@@ -1817,7 +1835,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
@@ -1834,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
@@ -1854,13 +1872,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F32" s="6">
         <v>3</v>
@@ -1874,13 +1892,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F33" s="6">
         <v>3</v>
@@ -1894,16 +1912,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
@@ -1917,13 +1935,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F35" s="6">
         <v>1</v>
@@ -1937,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
@@ -1946,7 +1964,7 @@
         <v>3010</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F36" s="6">
         <v>4</v>
@@ -1960,7 +1978,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>37</v>
@@ -1977,13 +1995,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F38" s="6">
         <v>4</v>
@@ -1997,13 +2015,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
@@ -2017,13 +2035,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F40" s="6">
         <v>1</v>
@@ -2037,13 +2055,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F41" s="6">
         <v>1</v>
@@ -2057,16 +2075,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
@@ -2080,16 +2098,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -2103,13 +2121,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F44" s="6">
         <v>4</v>
@@ -2123,16 +2141,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
@@ -2146,16 +2164,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
@@ -2169,16 +2187,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F47" s="6">
         <v>1</v>
@@ -2192,13 +2210,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F48" s="6">
         <v>4</v>
@@ -2217,13 +2235,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F49" s="6">
         <v>4</v>
@@ -2237,13 +2255,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="6">
         <v>4</v>
@@ -2257,13 +2275,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F51" s="6">
         <v>10</v>
@@ -2277,13 +2295,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F52" s="6">
         <v>17</v>
@@ -2297,16 +2315,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F53" s="6">
         <v>1</v>
@@ -2320,16 +2338,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
@@ -2343,16 +2361,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" s="6">
         <v>1</v>
@@ -2366,16 +2384,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F56" s="6">
         <v>2</v>
@@ -2392,13 +2410,13 @@
         <v>43</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
@@ -2415,13 +2433,13 @@
         <v>43</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F58" s="6">
         <v>7</v>
@@ -2435,16 +2453,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F59" s="6">
         <v>3</v>
@@ -2458,13 +2476,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F60" s="6">
         <v>3</v>
@@ -2478,16 +2496,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F61" s="6">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2498,13 +2516,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F62" s="6">
         <v>1</v>
@@ -2518,16 +2536,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="6">
         <v>1</v>
@@ -2541,16 +2559,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F64" s="6">
         <v>4</v>
@@ -2564,16 +2582,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F65" s="6">
         <v>16</v>
@@ -2587,16 +2605,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F66" s="6">
         <v>1</v>
@@ -2610,16 +2628,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F67" s="6">
         <v>5</v>
@@ -2633,16 +2651,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F68" s="6">
         <v>77</v>
@@ -2656,16 +2674,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F69" s="6">
         <v>16</v>
@@ -2679,16 +2697,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F70" s="6">
         <v>2</v>
@@ -2702,16 +2720,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" s="6">
         <v>32</v>
@@ -2725,16 +2743,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F72" s="6">
         <v>23</v>
@@ -2748,16 +2766,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F73" s="6">
         <v>8</v>
@@ -2771,19 +2789,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F74" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -2794,16 +2812,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F75" s="6">
         <v>10</v>
@@ -2817,16 +2835,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F76" s="6">
         <v>8</v>
@@ -2840,16 +2858,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F77" s="6">
         <v>22</v>
@@ -2863,16 +2881,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F78" s="6">
         <v>39</v>
@@ -2886,19 +2904,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F79" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -2909,19 +2927,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F80" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -2932,16 +2950,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F81" s="6">
         <v>4</v>
@@ -2955,19 +2973,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F82" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -2978,19 +2996,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F83" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -3001,19 +3019,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F84" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -3030,13 +3048,13 @@
         <v>39</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F85" s="6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -3047,19 +3065,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="F86" s="6">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -3070,19 +3088,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F87" s="6">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -3093,19 +3111,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="F88" s="6">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -3116,19 +3134,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F89" s="6">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -3145,13 +3163,13 @@
         <v>39</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F90" s="6">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -3162,19 +3180,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F91" s="6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -3185,19 +3203,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="F92" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -3208,16 +3223,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="F93" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -3228,13 +3240,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -3245,7 +3257,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>38</v>
@@ -3262,13 +3274,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -3279,13 +3291,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -3296,7 +3308,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>38</v>
@@ -3313,7 +3325,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>38</v>
@@ -3330,7 +3342,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>38</v>
@@ -3347,7 +3359,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>38</v>
@@ -3355,16 +3367,13 @@
       <c r="F101" s="6">
         <v>1</v>
       </c>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>38</v>
@@ -3372,13 +3381,16 @@
       <c r="F102" s="6">
         <v>1</v>
       </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>38</v>
@@ -3395,7 +3407,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>38</v>
@@ -3412,7 +3424,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>38</v>
@@ -3429,7 +3441,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>38</v>
@@ -3446,7 +3458,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>38</v>
@@ -3463,13 +3475,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -3480,13 +3492,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F109" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -3497,7 +3509,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>38</v>
@@ -3514,7 +3526,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>38</v>
@@ -3531,7 +3543,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>38</v>
@@ -3548,7 +3560,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>38</v>
@@ -3565,7 +3577,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>38</v>
@@ -3582,7 +3594,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>38</v>
@@ -3599,13 +3611,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -3616,7 +3628,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>38</v>
@@ -3633,13 +3645,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F118" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -3650,7 +3662,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>38</v>
@@ -3667,7 +3679,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>38</v>
@@ -3701,13 +3713,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -3718,30 +3730,27 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F123" s="6">
-        <v>2</v>
-      </c>
-      <c r="G123" s="6"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="6"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F124" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -3749,27 +3758,30 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F125" s="6">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F126" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -3780,13 +3792,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F127" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -3797,7 +3809,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>38</v>
@@ -3814,7 +3826,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>38</v>
@@ -3831,7 +3843,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>38</v>
@@ -3848,7 +3860,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>38</v>
@@ -3865,7 +3877,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>38</v>
@@ -3882,7 +3894,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>38</v>
@@ -3899,7 +3911,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>38</v>
@@ -3916,7 +3928,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>38</v>
@@ -3933,7 +3945,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>38</v>
@@ -3950,7 +3962,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>38</v>
@@ -3967,7 +3979,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>38</v>
@@ -3984,7 +3996,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>38</v>
@@ -4001,7 +4013,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>38</v>
@@ -4017,8 +4029,8 @@
       <c r="A141" s="6">
         <v>140</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>78</v>
+      <c r="B141" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>38</v>
@@ -4034,14 +4046,14 @@
       <c r="A142" s="6">
         <v>141</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>79</v>
+      <c r="B142" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F142" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -4052,7 +4064,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>38</v>
@@ -4066,7 +4078,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>38</v>
@@ -4094,7 +4106,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>38</v>
@@ -4108,7 +4120,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>38</v>
@@ -4122,7 +4134,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>38</v>
@@ -4136,7 +4148,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>38</v>
@@ -4150,7 +4162,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>38</v>
@@ -4164,7 +4176,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>38</v>
@@ -4178,7 +4190,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>38</v>
@@ -4192,7 +4204,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>38</v>
@@ -4206,7 +4218,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>38</v>
@@ -4220,7 +4232,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>38</v>
@@ -4234,7 +4246,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>38</v>
@@ -4248,7 +4260,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>38</v>
@@ -4262,7 +4274,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>38</v>
@@ -4276,7 +4288,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>38</v>
@@ -4290,7 +4302,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>38</v>
@@ -4304,7 +4316,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>38</v>
@@ -4318,7 +4330,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>38</v>
@@ -4332,7 +4344,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>38</v>
@@ -4346,7 +4358,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>38</v>
@@ -4360,7 +4372,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>38</v>
@@ -4374,7 +4386,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>38</v>
@@ -4388,7 +4400,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>38</v>
@@ -4402,7 +4414,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>38</v>
@@ -4416,7 +4428,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>38</v>
@@ -4430,7 +4442,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>38</v>
@@ -4444,12 +4456,26 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F171" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>171</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4479,10 +4505,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O319"/>
+  <dimension ref="A1:Q325"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L213" sqref="L213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4492,7 +4518,7 @@
     <col min="3" max="3" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="3.5703125" style="6" bestFit="1" customWidth="1"/>
@@ -4510,7 +4536,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -4522,13 +4548,13 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -4536,16 +4562,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I2" s="6">
         <v>2</v>
@@ -4553,16 +4579,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E3" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -4570,16 +4596,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
@@ -4590,22 +4616,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G5" s="6">
         <v>2020</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I5" s="6">
         <v>15</v>
@@ -4613,16 +4639,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="G6" s="6">
         <v>2020</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I6" s="6">
         <v>4</v>
@@ -4630,10 +4656,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G7" s="6">
         <v>2020</v>
@@ -4644,16 +4670,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I8" s="6">
         <v>64</v>
@@ -4664,10 +4690,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I9" s="6">
         <v>56</v>
@@ -4675,10 +4701,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G10" s="6">
         <v>2020</v>
@@ -4689,16 +4715,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I11" s="6">
         <v>32</v>
@@ -4740,16 +4766,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -4760,16 +4786,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -4806,16 +4832,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -4826,16 +4852,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I18" s="6">
         <v>2</v>
@@ -4846,16 +4872,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I19" s="6">
         <v>2</v>
@@ -4866,16 +4892,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I20" s="6">
         <v>2</v>
@@ -4886,16 +4912,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I21" s="6">
         <v>4</v>
@@ -4906,13 +4932,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" s="6">
         <v>6</v>
@@ -4926,10 +4952,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I23" s="6">
         <v>4</v>
@@ -4940,13 +4966,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -5000,13 +5026,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -5017,16 +5043,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I28" s="6">
         <v>2</v>
@@ -5037,16 +5063,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
@@ -5057,16 +5083,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
@@ -5077,16 +5103,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I31" s="6">
         <v>2</v>
@@ -5097,16 +5123,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I32" s="6">
         <v>4</v>
@@ -5117,13 +5143,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E33" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -5134,16 +5160,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E34" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I34" s="6">
         <v>2</v>
@@ -5154,16 +5180,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -5174,13 +5200,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E36" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I36" s="6">
         <v>9</v>
@@ -5191,16 +5217,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I37" s="6">
         <v>4</v>
@@ -5211,16 +5237,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I38" s="6">
         <v>6</v>
@@ -5231,13 +5257,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E39" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I39" s="6">
         <v>2</v>
@@ -5248,16 +5274,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E40" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G40" s="6">
         <v>1515</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -5378,13 +5404,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E48" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I48" s="6">
         <v>2</v>
@@ -5395,16 +5421,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E49" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I49" s="6">
         <v>2</v>
@@ -5415,16 +5441,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E50" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I50" s="6">
         <v>4</v>
@@ -5435,16 +5461,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I51" s="6">
         <v>4</v>
@@ -5455,13 +5481,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E52" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -5486,13 +5512,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E54" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -5520,13 +5546,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
@@ -5540,10 +5566,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D57" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>38</v>
@@ -5557,10 +5583,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D58" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>38</v>
@@ -5574,10 +5600,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>38</v>
@@ -5591,10 +5617,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>38</v>
@@ -5608,10 +5634,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D61" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>38</v>
@@ -5625,16 +5651,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E62" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I62" s="6">
         <v>2</v>
@@ -5645,7 +5671,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E63" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -5673,16 +5699,16 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
@@ -5693,16 +5719,16 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E66" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I66" s="6">
         <v>14</v>
@@ -5713,16 +5739,16 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E67" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I67" s="6">
         <v>4</v>
@@ -5733,16 +5759,16 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E68" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I68" s="6">
         <v>2</v>
@@ -5753,16 +5779,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E69" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I69" s="6">
         <v>2</v>
@@ -5773,16 +5799,16 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E70" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I70" s="6">
         <v>8</v>
@@ -5793,16 +5819,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E71" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I71" s="6">
         <v>1</v>
@@ -5850,16 +5876,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E74" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I74" s="6">
         <v>1</v>
@@ -5870,16 +5896,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E75" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -5890,16 +5916,16 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E76" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I76" s="6">
         <v>1</v>
@@ -5910,13 +5936,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E77" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -5927,7 +5953,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>42</v>
@@ -5967,16 +5993,16 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E80" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I80" s="6">
         <v>5</v>
@@ -5987,16 +6013,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E81" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I81" s="6">
         <v>4</v>
@@ -6007,16 +6033,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E82" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I82" s="6">
         <v>2</v>
@@ -6027,16 +6053,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E83" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I83" s="6">
         <v>4</v>
@@ -6047,16 +6073,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E84" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I84" s="6">
         <v>2</v>
@@ -6067,13 +6093,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E85" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -6087,13 +6113,13 @@
         <v>43</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -6107,10 +6133,10 @@
         <v>40</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I87" s="6">
         <v>4</v>
@@ -6155,13 +6181,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E90" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I90" s="6">
         <v>11</v>
@@ -6198,16 +6224,16 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E92" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I92" s="6">
         <v>5</v>
@@ -6218,16 +6244,16 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E93" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I93" s="6">
         <v>4</v>
@@ -6238,16 +6264,16 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E94" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I94" s="6">
         <v>2</v>
@@ -6258,16 +6284,16 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E95" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I95" s="6">
         <v>4</v>
@@ -6278,16 +6304,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E96" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I96" s="6">
         <v>2</v>
@@ -6298,13 +6324,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E97" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I97" s="6">
         <v>1</v>
@@ -6318,13 +6344,13 @@
         <v>43</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I98" s="6">
         <v>1</v>
@@ -6352,10 +6378,10 @@
         <v>40</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I100" s="6">
         <v>4</v>
@@ -6397,13 +6423,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E103" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I103" s="6">
         <v>11</v>
@@ -6451,13 +6477,13 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E106" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I106" s="6">
         <v>1</v>
@@ -6468,13 +6494,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E107" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -6488,13 +6514,13 @@
         <v>43</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -6505,16 +6531,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E109" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I109" s="6">
         <v>4</v>
@@ -6525,16 +6551,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E110" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I110" s="6">
         <v>4</v>
@@ -6548,10 +6574,10 @@
         <v>40</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I111" s="6">
         <v>4</v>
@@ -6562,16 +6588,16 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E112" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I112" s="6">
         <v>4</v>
@@ -6585,16 +6611,16 @@
         <v>11</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C113" s="6">
         <v>1</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>38</v>
@@ -6608,10 +6634,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D114" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>38</v>
@@ -6625,10 +6651,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D115" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>38</v>
@@ -6642,10 +6668,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D116" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>38</v>
@@ -6659,13 +6685,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E117" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -6676,13 +6702,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E118" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -6696,13 +6722,13 @@
         <v>43</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -6713,16 +6739,16 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E120" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -6733,16 +6759,16 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E121" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -6753,16 +6779,16 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E122" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I122" s="6">
         <v>5</v>
@@ -6773,13 +6799,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E123" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I123" s="6">
         <v>4</v>
@@ -6790,13 +6816,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E124" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I124" s="6">
         <v>5</v>
@@ -6804,13 +6830,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E125" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I125" s="6">
         <v>3</v>
@@ -6818,7 +6844,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D126" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>44</v>
@@ -6835,16 +6861,16 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E127" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I127" s="6">
         <v>4</v>
@@ -6858,10 +6884,10 @@
         <v>40</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I128" s="6">
         <v>4</v>
@@ -6872,16 +6898,16 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E129" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I129" s="6">
         <v>4</v>
@@ -6892,16 +6918,16 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E130" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I130" s="6">
         <v>2</v>
@@ -6912,16 +6938,16 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E131" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I131" s="6">
         <v>2</v>
@@ -6932,16 +6958,16 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E132" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I132" s="6">
         <v>1</v>
@@ -6975,13 +7001,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E134" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I134" s="6">
         <v>2</v>
@@ -7015,16 +7041,16 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E136" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -7038,13 +7064,13 @@
         <v>43</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I137" s="6">
         <v>2</v>
@@ -7069,16 +7095,16 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E139" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I139" s="6">
         <v>6</v>
@@ -7089,16 +7115,16 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E140" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I140" s="6">
         <v>4</v>
@@ -7112,10 +7138,10 @@
         <v>40</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I141" s="6">
         <v>4</v>
@@ -7149,16 +7175,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E143" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -7169,13 +7195,13 @@
         <v>43</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I144" s="6">
         <v>2</v>
@@ -7194,16 +7220,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E146" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I146" s="6">
         <v>6</v>
@@ -7211,16 +7237,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E147" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I147" s="6">
         <v>4</v>
@@ -7231,10 +7257,10 @@
         <v>40</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I148" s="6">
         <v>4</v>
@@ -7262,13 +7288,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E150" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I150" s="6">
         <v>2</v>
@@ -7296,13 +7322,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E152" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I152" s="6">
         <v>2</v>
@@ -7361,16 +7387,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E156" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I156" s="6">
         <v>2</v>
@@ -7381,10 +7407,10 @@
         <v>40</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I157" s="6">
         <v>2</v>
@@ -7392,16 +7418,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E158" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I158" s="6">
         <v>1</v>
@@ -7409,16 +7435,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E159" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I159" s="6">
         <v>1</v>
@@ -7457,16 +7483,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E162" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I162" s="6">
         <v>2</v>
@@ -7477,10 +7503,10 @@
         <v>40</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I163" s="6">
         <v>2</v>
@@ -7488,16 +7514,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E164" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I164" s="6">
         <v>1</v>
@@ -7505,16 +7531,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E165" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I165" s="6">
         <v>1</v>
@@ -7553,16 +7579,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E168" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -7603,16 +7629,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E172" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I172" s="6">
         <v>4</v>
@@ -7620,16 +7646,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E173" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I173" s="6">
         <v>2</v>
@@ -7640,10 +7666,10 @@
         <v>40</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I174" s="6">
         <v>4</v>
@@ -7671,16 +7697,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E176" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -7721,16 +7747,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E180" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I180" s="6">
         <v>4</v>
@@ -7738,16 +7764,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E181" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I181" s="6">
         <v>2</v>
@@ -7755,16 +7781,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E182" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I182" s="6">
         <v>1</v>
@@ -7786,10 +7812,10 @@
         <v>40</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I184" s="6">
         <v>4</v>
@@ -7852,16 +7878,16 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E189" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I189" s="6">
         <v>1</v>
@@ -7870,13 +7896,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E190" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I190" s="6">
         <v>2</v>
@@ -7885,16 +7911,16 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E191" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I191" s="6">
         <v>2</v>
@@ -7914,16 +7940,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E193" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I193" s="6">
         <v>2</v>
@@ -7931,16 +7957,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E194" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I194" s="6">
         <v>2</v>
@@ -7948,16 +7974,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E195" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I195" s="6">
         <v>2</v>
@@ -7965,16 +7991,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E196" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I196" s="6">
         <v>8</v>
@@ -7982,16 +8008,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E197" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I197" s="6">
         <v>8</v>
@@ -7999,16 +8025,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E198" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I198" s="6">
         <v>2</v>
@@ -8024,6 +8050,9 @@
       <c r="C199" s="6">
         <v>1</v>
       </c>
+      <c r="D199" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E199" s="7" t="s">
         <v>60</v>
       </c>
@@ -8035,6 +8064,9 @@
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D200" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E200" s="7" t="s">
         <v>61</v>
       </c>
@@ -8047,16 +8079,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E201" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I201" s="6">
         <v>4</v>
@@ -8064,16 +8096,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E202" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I202" s="6">
         <v>5</v>
@@ -8081,16 +8113,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E203" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -8098,16 +8130,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E204" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -8126,13 +8158,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E206" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -8140,16 +8172,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E207" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I207" s="6">
         <v>2</v>
@@ -8165,6 +8197,9 @@
       <c r="C208" s="6">
         <v>1</v>
       </c>
+      <c r="D208" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E208" s="7" t="s">
         <v>75</v>
       </c>
@@ -8177,16 +8212,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E209" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -8194,13 +8229,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E210" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -8208,13 +8243,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E211" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -8222,13 +8257,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E212" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I212" s="6">
         <v>1</v>
@@ -8244,8 +8279,11 @@
       <c r="C213" s="6">
         <v>1</v>
       </c>
+      <c r="D213" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E213" s="7" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>38</v>
@@ -8255,65 +8293,65 @@
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D214" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E214" s="7" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I214" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D215" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E215" s="7" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G215" s="6">
-        <v>3010</v>
-      </c>
-      <c r="H215" s="6" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="I215" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E216" s="7" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="G216" s="6">
+        <v>3010</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I216" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E217" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="I217" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -8327,13 +8365,13 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I218" s="6">
         <v>1</v>
@@ -8351,6 +8389,9 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D220" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E220" s="7" t="s">
         <v>76</v>
       </c>
@@ -8374,7 +8415,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E222" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>37</v>
@@ -8383,7 +8424,7 @@
         <v>3010</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I222" s="6">
         <v>1</v>
@@ -8391,7 +8432,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E223" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F223" s="6" t="s">
         <v>37</v>
@@ -8402,24 +8443,24 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E224" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I224" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E225" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>37</v>
@@ -8428,57 +8469,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E226" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I226" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E227" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E228" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D229" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E229" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F229" s="6" t="s">
         <v>38</v>
@@ -8487,9 +8531,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D230" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="E230" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F230" s="6" t="s">
         <v>38</v>
@@ -8498,41 +8545,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E231" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I231" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="5:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E232" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I232" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="5:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E233" s="7" t="s">
         <v>249</v>
       </c>
@@ -8540,187 +8587,181 @@
         <v>39</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H233" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I233" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E234" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H234" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I233" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E234" s="7" t="s">
+      <c r="I234" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E235" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I235" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E236" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F234" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H234" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I234" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E235" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F235" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H235" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I235" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E236" s="7" t="s">
-        <v>180</v>
-      </c>
       <c r="F236" s="6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
+      </c>
+      <c r="H236" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I236" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E237" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I237" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="5:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E238" s="7" t="s">
-        <v>250</v>
+        <v>82</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G238" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H238" s="6" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="I238" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E239" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F239" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I239" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="5:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" s="6">
+        <v>27</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C240" s="6">
+        <v>1</v>
+      </c>
       <c r="E240" s="7" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I240" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E241" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I241" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D242" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I242" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E243" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I243" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A241" s="6">
-        <v>27</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C241" s="6">
-        <v>1</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F241" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I241" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E242" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F242" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I242" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E243" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F243" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G243" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="H243" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I243" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E244" s="7" t="s">
-        <v>251</v>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E244" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="I244" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E245" s="7" t="s">
-        <v>249</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E245" s="5" t="s">
+        <v>247</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>39</v>
@@ -8729,13 +8770,13 @@
         <v>152</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="I245" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E246" s="7" t="s">
         <v>249</v>
       </c>
@@ -8743,131 +8784,145 @@
         <v>39</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="I246" s="6">
+        <v>1</v>
+      </c>
+      <c r="M246" s="7"/>
+      <c r="N246" s="6"/>
+      <c r="O246" s="6"/>
+      <c r="P246" s="6"/>
+      <c r="Q246" s="6"/>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A247" s="6">
+        <v>28</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C247" s="6">
+        <v>1</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I247" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E248" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I248" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E249" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I249" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E250" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G250" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H250" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I250" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E251" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I251" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E252" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H252" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I252" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E247" s="7" t="s">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E253" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F247" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G247" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I247" s="6">
+      <c r="F253" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I253" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
-        <v>28</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C248" s="6">
-        <v>1</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I248" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E249" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F249" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I249" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E250" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I250" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E251" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F251" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G251" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I251" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E252" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F252" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G252" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H252" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I252" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E253" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F253" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H253" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I253" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>29</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C254" s="6">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F254" s="6" t="s">
         <v>38</v>
@@ -8876,9 +8931,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E255" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F255" s="6" t="s">
         <v>38</v>
@@ -8887,66 +8942,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E256" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F256" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I256" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E257" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F257" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G257" s="6">
-        <v>3010</v>
-      </c>
-      <c r="H257" s="6" t="s">
-        <v>229</v>
+      <c r="G257" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="I257" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E258" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="I258" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E259" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F259" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I259" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
@@ -8954,13 +9006,13 @@
         <v>30</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C260" s="6">
         <v>1</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F260" s="6" t="s">
         <v>38</v>
@@ -8971,13 +9023,10 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E261" s="7" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G261" s="6" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -8985,13 +9034,10 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E262" s="7" t="s">
-        <v>197</v>
+        <v>94</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G262" s="6" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -8999,16 +9045,16 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E263" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F263" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G263" s="6" t="s">
-        <v>191</v>
+      <c r="G263" s="6">
+        <v>3010</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -9016,32 +9062,53 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E264" s="7" t="s">
-        <v>93</v>
+        <v>247</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G264" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H264" s="6" t="s">
+        <v>239</v>
       </c>
       <c r="I264" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E265" s="7" t="s">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G265" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H265" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="I265" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A266" s="6">
+        <v>31</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C266" s="6">
+        <v>1</v>
+      </c>
       <c r="E266" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -9049,27 +9116,27 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E267" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="I267" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E268" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="I268" s="6">
         <v>1</v>
@@ -9077,168 +9144,162 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E269" s="7" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="I269" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E270" s="7" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G270" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H270" s="6" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="I270" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E271" s="7" t="s">
-        <v>249</v>
+        <v>98</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G271" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H271" s="6" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="I271" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E272" s="7" t="s">
-        <v>249</v>
+        <v>87</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G272" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H272" s="6" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="I272" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E273" s="7" t="s">
-        <v>249</v>
+        <v>198</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H273" s="6" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="I273" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E274" s="7" t="s">
-        <v>40</v>
+        <v>174</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="G274" s="6" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="I274" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A275" s="6">
-        <v>31</v>
-      </c>
-      <c r="B275" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C275" s="6">
-        <v>1</v>
-      </c>
       <c r="E275" s="7" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G275" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H275" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="I275" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E276" s="7" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="I276" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E277" s="7" t="s">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I277" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E278" s="7" t="s">
-        <v>105</v>
+        <v>247</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="G278" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H278" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="I278" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E279" s="7" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="H279" s="6" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="I279" s="6">
         <v>1</v>
@@ -9246,33 +9307,33 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E280" s="7" t="s">
-        <v>251</v>
+        <v>40</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H280" s="6" t="s">
-        <v>216</v>
+        <v>150</v>
       </c>
       <c r="I280" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A281" s="6">
+        <v>32</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C281" s="6">
+        <v>1</v>
+      </c>
       <c r="E281" s="7" t="s">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G281" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H281" s="6" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I281" s="6">
         <v>1</v>
@@ -9280,33 +9341,18 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E282" s="7" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G282" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="H282" s="6" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="I282" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A283" s="6">
-        <v>32</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C283" s="6">
-        <v>1</v>
-      </c>
       <c r="E283" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>38</v>
@@ -9317,10 +9363,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E284" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I284" s="6">
         <v>1</v>
@@ -9328,10 +9374,16 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E285" s="7" t="s">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G285" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H285" s="6" t="s">
+        <v>262</v>
       </c>
       <c r="I285" s="6">
         <v>1</v>
@@ -9339,21 +9391,33 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E286" s="7" t="s">
-        <v>110</v>
+        <v>249</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G286" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H286" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="I286" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E287" s="7" t="s">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G287" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H287" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -9361,58 +9425,58 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E288" s="7" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="I288" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>33</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C289" s="6">
+        <v>1</v>
+      </c>
       <c r="E289" s="7" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G289" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H289" s="6" t="s">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="I289" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E290" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G290" s="6" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I290" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E291" s="7" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G291" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="H291" s="6" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -9420,13 +9484,10 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E292" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G292" s="6" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -9434,33 +9495,21 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E293" s="7" t="s">
-        <v>249</v>
+        <v>109</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G293" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H293" s="6" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="I293" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E294" s="7" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G294" s="6">
-        <v>2020</v>
-      </c>
-      <c r="H294" s="6" t="s">
-        <v>231</v>
+        <v>38</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -9468,70 +9517,61 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E295" s="7" t="s">
-        <v>145</v>
+        <v>249</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G295" s="6">
-        <v>2020</v>
+        <v>39</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H295" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="I295" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E296" s="7" t="s">
-        <v>249</v>
+        <v>159</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G296" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H296" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="I296" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E297" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H297" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I297" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E298" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F298" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F297" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G297" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I297" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A298" s="6">
-        <v>33</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C298" s="6">
-        <v>1</v>
-      </c>
-      <c r="E298" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F298" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="G298" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H298" s="6" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="I298" s="6">
         <v>1</v>
@@ -9539,78 +9579,81 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E299" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I299" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E300" s="7" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G300" s="6" t="s">
-        <v>152</v>
+        <v>144</v>
+      </c>
+      <c r="G300" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H300" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="I300" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E301" s="7" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G301" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H301" s="6" t="s">
-        <v>215</v>
+        <v>144</v>
+      </c>
+      <c r="G301" s="6">
+        <v>2020</v>
       </c>
       <c r="I301" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E302" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F302" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G302" s="6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I302" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E303" s="7" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="I303" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
@@ -9618,22 +9661,22 @@
         <v>34</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C304" s="6">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F304" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I304" s="6">
         <v>1</v>
@@ -9641,19 +9684,19 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E305" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F305" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G305" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H305" s="6" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="I305" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
@@ -9661,119 +9704,143 @@
         <v>40</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I306" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A307" s="6">
-        <v>35</v>
-      </c>
-      <c r="B307" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C307" s="6">
-        <v>1</v>
-      </c>
       <c r="E307" s="7" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G307" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H307" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="I307" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E308" s="7" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G308" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H308" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="I308" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E309" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F309" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I309" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A310" s="6">
+        <v>35</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C310" s="6">
+        <v>1</v>
+      </c>
       <c r="E310" s="7" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G310" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H310" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="I310" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E311" s="7" t="s">
-        <v>122</v>
+        <v>247</v>
       </c>
       <c r="F311" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G311" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H311" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="I311" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E312" s="7" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="I312" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A313" s="6">
+        <v>36</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C313" s="6">
+        <v>1</v>
+      </c>
       <c r="E313" s="7" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G313" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H313" s="6" t="s">
-        <v>235</v>
+        <v>38</v>
       </c>
       <c r="I313" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E314" s="7" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G314" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H314" s="6" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="I314" s="6">
         <v>1</v>
@@ -9781,33 +9848,21 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E315" s="7" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="F315" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G315" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H315" s="6" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="I315" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E316" s="7" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="F316" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G316" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="H316" s="6" t="s">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I316" s="6">
         <v>2</v>
@@ -9815,27 +9870,21 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E317" s="7" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F317" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G317" s="6" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I317" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E318" s="7" t="s">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="F318" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G318" s="6" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I318" s="6">
         <v>1</v>
@@ -9843,18 +9892,114 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E319" s="7" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="F319" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G319" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H319" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I319" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E320" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F320" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G320" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H320" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I320" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E321" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F321" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G321" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H321" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I321" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E322" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F322" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G322" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H322" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I322" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E323" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F323" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G323" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I323" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E324" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F324" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G319" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="H319" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="I319" s="6">
+      <c r="G324" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I324" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E325" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H325" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I325" s="6">
         <v>1</v>
       </c>
     </row>
@@ -9869,12 +10014,12 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -9920,10 +10065,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1">
         <v>145.28</v>
@@ -9937,10 +10082,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1">
         <v>79.34</v>
@@ -9950,9 +10095,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="1">
+        <v>112.93</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.4700000000000006</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="part list" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="274">
   <si>
     <t>part name</t>
   </si>
@@ -842,6 +842,12 @@
   </si>
   <si>
     <t>10h5m</t>
+  </si>
+  <si>
+    <t>17HS1070-C5X</t>
+  </si>
+  <si>
+    <t>42BYGHM809</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1207,8 @@
   </sheetPr>
   <dimension ref="A1:W191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1857,6 +1863,9 @@
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D31" s="6" t="s">
+        <v>272</v>
+      </c>
       <c r="E31" s="6" t="s">
         <v>234</v>
       </c>
@@ -1876,6 +1885,9 @@
       </c>
       <c r="C32" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>230</v>
@@ -4507,8 +4519,8 @@
   </sheetPr>
   <dimension ref="A1:Q325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L213" sqref="L213"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="K101" sqref="K101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6482,6 +6494,9 @@
       <c r="F106" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="G106" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="H106" s="6" t="s">
         <v>230</v>
       </c>
@@ -6690,6 +6705,9 @@
       <c r="F117" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="G117" s="6" t="s">
+        <v>273</v>
+      </c>
       <c r="H117" s="6" t="s">
         <v>230</v>
       </c>
@@ -8369,6 +8387,9 @@
       </c>
       <c r="F218" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>234</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="part list" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="336">
   <si>
     <t>part name</t>
   </si>
@@ -820,9 +820,6 @@
     <t>fitting</t>
   </si>
   <si>
-    <t>fan_mount_v9.STL</t>
-  </si>
-  <si>
     <t>fan_cover_front.STL</t>
   </si>
   <si>
@@ -848,6 +845,195 @@
   </si>
   <si>
     <t>42BYGHM809</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m8x80-gniazdo-imbus-5szt-i6596358554.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m5x25-gniazdo-imbus-10szt-i5045808605.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m5x20-gniazdo-imbus-10szt-i7140410516.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m5x10-gniazdo-imbus-10szt-i5044828525.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m5x8-gniazdo-imbus-10szt-i5045808558.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m5x6-gniazdo-imbus-10szt-i5045808600.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x45-gniazdo-imbus-5szt-i5039141859.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x40-gniazdo-imbus-5szt-i5063374831.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x35-gniazdo-imbus-10szt-i5176356584.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x25-gniazdo-imbus-10szt-i5415086316.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x25-gniazdo-imbus-10szt-i5214620250.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x20-gniazdo-imbus-10szt-i5214620056.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x20-gniazdo-imbus-10szt-i5057841873.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x16-gniazdo-imbus-10szt-i5184033908.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x16-gniazdo-imbus-10szt-i5214620038.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x14-gniazdo-imbus-10szt-i5046183466.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-dociskowa-czarna-m3x12-gniazdo-imbus-10szt-i5088078247.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x12-gniazdo-imbus-10szt-i5142905904.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x10-gniazdo-imbus-10szt-i5006971342.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x10-gniazdo-imbus-10szt-i5089594834.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x8-gniazdo-imbus-10szt-i5315915867.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x8-gniazdo-imbus-10szt-i5113065217.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-dociskowa-czarna-m3x6-gniazdo-imbus-10szt-i5088078246.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x6-gniazdo-imbus-10szt-i5717390190.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-kulista-czarna-m3x6-gniazdo-imbus-10szt-i6789930676.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/sruba-imbusowa-czarna-m2-5x12-gniazdo-imbus-10szt-i5214620364.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/podkladka-czarna-m3-komplet-20szt-oksyda-i5080289361.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/nakretka-samohamowna-czarna-oksyda-m8-10szt-i6842846781.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/nakretki-nakretka-m3-czarna-10szt-komplet-oksyda-i5080287746.html</t>
+  </si>
+  <si>
+    <t>pcs/pack</t>
+  </si>
+  <si>
+    <t>price per pack(PLN)</t>
+  </si>
+  <si>
+    <t>total (PLN)</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/silentstepstick-tmc2208-watterott-p-1271.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/mks-smoother-filtr-diodowy-p-1057.html</t>
+  </si>
+  <si>
+    <t>shop link</t>
+  </si>
+  <si>
+    <t>local glass shop</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/lozyska-liniowe-fi8-8mm-lm8uu-reprap-drukarka-3d-i6099245510.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/608-zz-lozysko-kulkowe-8x22x7-mm-cnc-fv-23-i6754089162.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/f623-zz-lozysko-z-kolnierzem-flansza-3x10x4-reprap-i6487218476.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/625-zz-lozysko-kulkowe-5x16x5-mm-cnc-fv-23-i6487158324.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/623-zz-lozysko-kulkowe-3x10x4-mm-cnc-fv-23-i6487155806.html</t>
+  </si>
+  <si>
+    <t>623zz</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/zebatka-reprap-gt2-20-zebow-5mm-3d-cnc-i6099125153.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/zebatka-gt2-20-zebow-otwor-fi-8-pasek-6-mm-p-158.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/szyna-liniowa-mgnr-12-dlugosc-10-cm-p-768.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/wozek-hiwin-mgn12h-p-765.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/pasek-zebaty-petla-130-mm-gt2-szer-6mm-reprap-cnc-i7169467426.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/pasek-zebaty-gt2-6mm-100cm-reprap-drukarka-3d-i7270779540.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/pasek-zebaty-petla-752-mm-gt2-szer-6mm-reprap-cnc-i7169534315.html</t>
+  </si>
+  <si>
+    <t>http://allegro.pl/zasilacz-led-modulowy-montazowy-12v-300w-25a-i7308720266.html</t>
+  </si>
+  <si>
+    <t>https://sklep.bergmen.pl/storm-150w-24vdc-6-25a-ip68,3,2472,1605</t>
+  </si>
+  <si>
+    <t>http://electropark.pl/radelka/4433-kolo-zebate-ekstrudera-mk7-radelko.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/sruba-trapezowa-t8-z-nakretka-fi-8mm-skok-1mm-dl-400-mm-p-710.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/nakretka-bezluzowa-sruba-t8-skok-8-mm-p-1149.html</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/blok-grzejny-e3d-volcano-p-988.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blackfrog.pl/glowica-e3d-v6-175-12v-direct-full-kit-p-245.html </t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/dysza-volcano-e3d-stal-utwardzana-175-04-p-982.html</t>
+  </si>
+  <si>
+    <t>e3d volcano block</t>
+  </si>
+  <si>
+    <t>e3d v6 direct full kit</t>
+  </si>
+  <si>
+    <t>volcano 0.4mm hartened steel nozzle</t>
+  </si>
+  <si>
+    <t>https://blackfrog.pl/termistor-semitec-104gt-2-w-obudowie-p-783.html</t>
+  </si>
+  <si>
+    <t>e3d heater cartige 104GT-2</t>
+  </si>
+  <si>
+    <t>fan_mount_v11.STL</t>
   </si>
 </sst>
 </file>
@@ -901,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,6 +1108,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1205,10 +1392,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W191"/>
+  <dimension ref="A1:V175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1216,22 +1403,21 @@
     <col min="1" max="1" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="5"/>
-    <col min="17" max="17" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="5"/>
+    <col min="8" max="8" width="16.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="75" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
@@ -1250,8 +1436,23 @@
       <c r="F1" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1270,8 +1471,12 @@
       <c r="F2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J46" si="0">H2*I2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1290,8 +1495,12 @@
       <c r="F3" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1310,8 +1519,12 @@
       <c r="F4" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1330,8 +1543,12 @@
       <c r="F5" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1350,8 +1567,12 @@
       <c r="F6" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1367,8 +1588,12 @@
       <c r="F7" s="6">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1384,9 +1609,13 @@
       <c r="F8" s="6">
         <v>8</v>
       </c>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1402,9 +1631,13 @@
       <c r="F9" s="6">
         <v>10</v>
       </c>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1420,13 +1653,17 @@
       <c r="F10" s="6">
         <v>112</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1445,8 +1682,24 @@
       <c r="F11" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>40</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1462,13 +1715,17 @@
       <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="Q12" s="7"/>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1481,8 +1738,12 @@
       <c r="F13" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1498,8 +1759,24 @@
       <c r="F14" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>25</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1512,8 +1789,12 @@
       <c r="F15" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1532,16 +1813,29 @@
       <c r="F16" s="6">
         <v>1</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="R16" s="7"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>195</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1561,15 +1855,17 @@
         <v>1</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="Q17" s="7"/>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1589,15 +1885,17 @@
         <v>1</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -1605,706 +1903,852 @@
       <c r="F19" s="6">
         <v>1</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>95</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>261</v>
+        <v>331</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
+        <v>280</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>174</v>
+        <v>332</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>95</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>122</v>
+        <v>334</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <v>31</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>180</v>
+        <v>227</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="F25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F26" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F27" s="6">
         <v>2</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
       </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D29" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="F29" s="6">
         <v>4</v>
       </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>218</v>
+      </c>
       <c r="F30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="F31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="F32" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="F33" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J34" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>164</v>
+        <v>272</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="F35" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J35" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="6">
-        <v>3010</v>
-      </c>
       <c r="E36" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F36" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J36" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>83</v>
+        <v>251</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D37" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="F37" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J37" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="F38" s="6">
-        <v>4</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
+        <v>7.99</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="0"/>
+        <v>7.99</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>194</v>
+      <c r="D39" s="6">
+        <v>3010</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J39" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J40" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F41" s="6">
-        <v>1</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
+        <v>16</v>
+      </c>
+      <c r="I41" s="6">
+        <v>4</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J42" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
       </c>
       <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J43" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="F44" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J44" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J45" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
       </c>
       <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J46" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="6">
+        <v>4</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>46</v>
+      </c>
+      <c r="I47" s="6">
+        <v>4</v>
+      </c>
+      <c r="J47" s="6">
+        <f t="shared" ref="J47:J63" si="1">H47*I47</f>
+        <v>184</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>44</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="J48" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>45</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>1</v>
+      </c>
+      <c r="H49" s="6">
+        <v>120</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>46</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E50" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F47" s="6">
-        <v>1</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>1</v>
+      </c>
+      <c r="H50" s="6">
+        <v>240.9</v>
+      </c>
+      <c r="I50" s="6">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="1"/>
+        <v>240.9</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="6">
-        <v>4</v>
-      </c>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="6">
-        <v>4</v>
-      </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F51" s="6">
-        <v>10</v>
-      </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2.75</v>
+      </c>
+      <c r="I51" s="6">
+        <v>4</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>158</v>
@@ -2313,331 +2757,506 @@
         <v>41</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="F52" s="6">
+        <v>4</v>
+      </c>
+      <c r="G52" s="6">
+        <v>1</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1</v>
+      </c>
+      <c r="I52" s="6">
+        <v>4</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>49</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>50</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="6">
+        <v>10</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>10</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>51</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F55" s="6">
         <v>17</v>
       </c>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6">
+        <v>1</v>
+      </c>
+      <c r="I55" s="6">
+        <v>17</v>
+      </c>
+      <c r="J55" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6"/>
+      <c r="J56" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F54" s="6">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="6">
-        <v>2</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>56</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
+        <v>10</v>
+      </c>
+      <c r="I57" s="6">
+        <v>2</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>22</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>55</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="6">
+        <v>6.9</v>
+      </c>
+      <c r="I59" s="6">
+        <v>2</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>56</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E60" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2</v>
+      </c>
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>13</v>
+      </c>
+      <c r="I60" s="6">
+        <v>2</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>57</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F61" s="6">
         <v>7</v>
       </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>8.49</v>
+      </c>
+      <c r="I61" s="6">
+        <v>7</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="1"/>
+        <v>59.43</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F62" s="6">
         <v>3</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="G62" s="6">
+        <v>100</v>
+      </c>
+      <c r="H62" s="6">
+        <v>70</v>
+      </c>
+      <c r="I62" s="6">
+        <v>4</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F63" s="6">
         <v>3</v>
       </c>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
+        <v>165</v>
+      </c>
+      <c r="I63" s="6">
+        <v>2</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="D64" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="6">
         <v>60</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="G64" s="6">
+        <v>10</v>
+      </c>
+      <c r="H64" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I64" s="6">
+        <v>6</v>
+      </c>
+      <c r="J64" s="6">
+        <f t="shared" ref="J64:J65" si="2">H64*I64</f>
+        <v>9</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6">
+        <v>10</v>
+      </c>
+      <c r="H65" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="I65" s="6">
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C66" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="6">
-        <v>1</v>
-      </c>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="F66" s="6">
+        <v>1</v>
+      </c>
+      <c r="G66" s="6">
+        <v>5</v>
+      </c>
+      <c r="H66" s="6">
+        <v>5</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1</v>
+      </c>
+      <c r="J66" s="6">
+        <f>H66*I66</f>
+        <v>5</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
         <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F64" s="6">
-        <v>4</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>64</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="6">
-        <v>16</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>65</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>247</v>
@@ -2649,18 +3268,31 @@
         <v>150</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="F67" s="6">
-        <v>5</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="G67" s="6">
+        <v>10</v>
+      </c>
+      <c r="H67" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="I67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" ref="J67:J89" si="3">H67*I67</f>
+        <v>3.2</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>247</v>
@@ -2672,21 +3304,34 @@
         <v>150</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="F68" s="6">
-        <v>77</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G68" s="6">
+        <v>10</v>
+      </c>
+      <c r="H68" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="I68" s="6">
+        <v>2</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" si="3"/>
+        <v>5.8</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>39</v>
@@ -2695,21 +3340,31 @@
         <v>150</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="F69" s="6">
-        <v>16</v>
-      </c>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
+        <v>1</v>
+      </c>
+      <c r="I69" s="6">
+        <v>1</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>39</v>
@@ -2718,41 +3373,67 @@
         <v>150</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F70" s="6">
-        <v>2</v>
-      </c>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G70" s="6">
+        <v>10</v>
+      </c>
+      <c r="H70" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I70" s="6">
+        <v>1</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="F71" s="6">
-        <v>32</v>
-      </c>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="G71" s="6">
+        <v>10</v>
+      </c>
+      <c r="H71" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="I71" s="6">
+        <v>8</v>
+      </c>
+      <c r="J71" s="6">
+        <f t="shared" si="3"/>
+        <v>20.8</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>247</v>
@@ -2761,44 +3442,59 @@
         <v>39</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F72" s="6">
-        <v>23</v>
-      </c>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="G72" s="6">
+        <v>10</v>
+      </c>
+      <c r="H72" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I72" s="6">
+        <v>2</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F73" s="6">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>247</v>
@@ -2810,18 +3506,31 @@
         <v>152</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F74" s="6">
-        <v>15</v>
-      </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="G74" s="6">
+        <v>5</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="I74" s="6">
+        <v>5</v>
+      </c>
+      <c r="J74" s="6">
+        <f t="shared" si="3"/>
+        <v>14.5</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>247</v>
@@ -2833,133 +3542,211 @@
         <v>152</v>
       </c>
       <c r="E75" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" s="6">
+        <v>8</v>
+      </c>
+      <c r="G75" s="6">
+        <v>5</v>
+      </c>
+      <c r="H75" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I75" s="6">
+        <v>2</v>
+      </c>
+      <c r="J75" s="6">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>72</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F76" s="6">
+        <v>15</v>
+      </c>
+      <c r="G76" s="6">
+        <v>10</v>
+      </c>
+      <c r="H76" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="I76" s="6">
+        <v>2</v>
+      </c>
+      <c r="J76" s="6">
+        <f t="shared" si="3"/>
+        <v>6.6</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>73</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F77" s="6">
         <v>10</v>
       </c>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="G77" s="6">
+        <v>10</v>
+      </c>
+      <c r="H77" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I77" s="6">
+        <v>1</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>74</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="6">
+        <v>8</v>
+      </c>
+      <c r="G78" s="6">
+        <v>10</v>
+      </c>
+      <c r="H78" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I78" s="6">
+        <v>1</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B79" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F76" s="6">
-        <v>8</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="C79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F79" s="6">
+        <v>22</v>
+      </c>
+      <c r="G79" s="6">
+        <v>10</v>
+      </c>
+      <c r="H79" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I79" s="6">
+        <v>3</v>
+      </c>
+      <c r="J79" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="B80" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F77" s="6">
-        <v>22</v>
-      </c>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="F80" s="6">
+        <v>39</v>
+      </c>
+      <c r="G80" s="6">
+        <v>10</v>
+      </c>
+      <c r="H80" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I80" s="6">
+        <v>4</v>
+      </c>
+      <c r="J80" s="6">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
         <v>77</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F78" s="6">
-        <v>39</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>78</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F79" s="6">
-        <v>10</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>79</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F80" s="6">
-        <v>14</v>
-      </c>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>247</v>
@@ -2971,87 +3758,139 @@
         <v>152</v>
       </c>
       <c r="E81" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="6">
+        <v>10</v>
+      </c>
+      <c r="G81" s="6">
+        <v>10</v>
+      </c>
+      <c r="H81" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I81" s="6">
+        <v>1</v>
+      </c>
+      <c r="J81" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>78</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F82" s="6">
+        <v>14</v>
+      </c>
+      <c r="G82" s="6">
+        <v>10</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="I82" s="6">
+        <v>2</v>
+      </c>
+      <c r="J82" s="6">
+        <f t="shared" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>79</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F83" s="6">
         <v>4</v>
       </c>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="G83" s="6">
+        <v>10</v>
+      </c>
+      <c r="H83" s="6">
+        <v>2</v>
+      </c>
+      <c r="I83" s="6">
+        <v>1</v>
+      </c>
+      <c r="J83" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>80</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F84" s="6">
+        <v>16</v>
+      </c>
+      <c r="G84" s="6">
+        <v>10</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I84" s="6">
+        <v>2</v>
+      </c>
+      <c r="J84" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K84" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>81</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F82" s="6">
-        <v>16</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>82</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F83" s="6">
-        <v>8</v>
-      </c>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>83</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F84" s="6">
-        <v>12</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>249</v>
@@ -3063,87 +3902,139 @@
         <v>152</v>
       </c>
       <c r="E85" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F85" s="6">
+        <v>8</v>
+      </c>
+      <c r="G85" s="6">
+        <v>10</v>
+      </c>
+      <c r="H85" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I85" s="6">
+        <v>1</v>
+      </c>
+      <c r="J85" s="6">
+        <f t="shared" si="3"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>82</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F86" s="6">
+        <v>12</v>
+      </c>
+      <c r="G86" s="6">
+        <v>10</v>
+      </c>
+      <c r="H86" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="I86" s="6">
+        <v>2</v>
+      </c>
+      <c r="J86" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4</v>
+      </c>
+      <c r="K86" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>83</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="6">
         <v>18</v>
       </c>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="G87" s="6">
+        <v>10</v>
+      </c>
+      <c r="H87" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I87" s="6">
+        <v>2</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>84</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="6">
+        <v>25</v>
+      </c>
+      <c r="G88" s="6">
+        <v>10</v>
+      </c>
+      <c r="H88" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I88" s="6">
+        <v>3</v>
+      </c>
+      <c r="J88" s="6">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>85</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="6">
-        <v>25</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>86</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F87" s="6">
-        <v>5</v>
-      </c>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>87</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" s="6">
-        <v>37</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>247</v>
@@ -3155,21 +4046,34 @@
         <v>152</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="F89" s="6">
-        <v>6</v>
-      </c>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="G89" s="6">
+        <v>10</v>
+      </c>
+      <c r="H89" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6">
+        <f t="shared" si="3"/>
+        <v>1.9</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>39</v>
@@ -3181,15 +4085,28 @@
         <v>210</v>
       </c>
       <c r="F90" s="6">
-        <v>11</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="G90" s="6">
+        <v>10</v>
+      </c>
+      <c r="H90" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="I90" s="6">
+        <v>4</v>
+      </c>
+      <c r="J90" s="6">
+        <f>H90*I90</f>
+        <v>5.6</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>247</v>
@@ -3198,1313 +4115,1628 @@
         <v>39</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F91" s="6">
+        <v>6</v>
+      </c>
+      <c r="G91" s="6">
+        <v>10</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I91" s="6">
+        <v>1</v>
+      </c>
+      <c r="J91" s="6">
+        <f>H91*I91</f>
+        <v>1.9</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>88</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F92" s="6">
+        <v>11</v>
+      </c>
+      <c r="G92" s="6">
+        <v>10</v>
+      </c>
+      <c r="H92" s="6">
+        <v>1</v>
+      </c>
+      <c r="I92" s="6">
+        <v>2</v>
+      </c>
+      <c r="J92" s="6">
+        <f>H92*I92</f>
+        <v>2</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>89</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F93" s="6">
         <v>5</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="G93" s="6">
+        <v>10</v>
+      </c>
+      <c r="H93" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I93" s="6">
+        <v>1</v>
+      </c>
+      <c r="J93" s="6">
+        <f>H93*I93</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>90</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="6">
+        <v>8</v>
+      </c>
+      <c r="G94" s="6">
+        <v>20</v>
+      </c>
+      <c r="H94" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="I94" s="6">
+        <v>1</v>
+      </c>
+      <c r="J94" s="6">
+        <f>H94*I94</f>
+        <v>1.2</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F92" s="6">
+      <c r="B95" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F95" s="6">
+        <v>1</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="J95" s="6">
+        <f t="shared" ref="J95:J158" si="4">H95*I95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
+        <v>92</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" s="6">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="J96" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>93</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" s="6">
+        <v>3</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="J97" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>94</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F98" s="6">
+        <v>2</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="J98" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>95</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="J99" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
+        <v>96</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" s="6">
+        <v>1</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="J100" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
+        <v>97</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="6">
+        <v>1</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="J101" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>98</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="J102" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>99</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
+        <v>100</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" s="6">
+        <v>1</v>
+      </c>
+      <c r="G104" s="6"/>
+      <c r="J104" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
+        <v>101</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" s="6">
+        <v>1</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="J105" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
+        <v>102</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+      <c r="G106" s="6"/>
+      <c r="J106" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
+        <v>103</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="J107" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="6">
+        <v>104</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="J108" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="6">
+        <v>105</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="J109" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="6">
+        <v>106</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" s="6">
+        <v>2</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="J110" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="6">
+        <v>107</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="J111" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="6">
+        <v>108</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" s="6">
+        <v>1</v>
+      </c>
+      <c r="G112" s="6"/>
+      <c r="J112" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="6">
+        <v>109</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" s="6">
+        <v>1</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="J113" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="6">
+        <v>110</v>
+      </c>
+      <c r="B114" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="C114" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="6">
+        <v>1</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="J114" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>111</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F115" s="6">
+        <v>1</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="J115" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>112</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="6">
+        <v>1</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="J116" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>113</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="J117" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>114</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="6">
+        <v>2</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="J118" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>115</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" s="6">
+        <v>2</v>
+      </c>
+      <c r="G119" s="6"/>
+      <c r="J119" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>116</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F120" s="6">
+        <v>1</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="J120" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>117</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="6">
+        <v>1</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="J121" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>118</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="6">
+        <v>1</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="J122" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>119</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="J123" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>120</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="6">
+        <v>2</v>
+      </c>
+      <c r="G124" s="6"/>
+      <c r="J124" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>121</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" s="6">
+        <v>4</v>
+      </c>
+      <c r="J125" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>122</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" s="6">
+        <v>2</v>
+      </c>
+      <c r="J126" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>123</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="6">
+        <v>6</v>
+      </c>
+      <c r="G127" s="6"/>
+      <c r="J127" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>124</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="6">
+        <v>2</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="J128" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>125</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="6">
+        <v>1</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="J129" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>126</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="6">
+        <v>1</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="J130" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>127</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="J131" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>128</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="J132" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>129</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="J133" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>130</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="J134" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>131</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" s="6">
+        <v>1</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="J135" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>132</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="6">
+        <v>1</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="J136" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>133</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="J137" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>134</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" s="6">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="J138" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>135</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="J139" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>136</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" s="6">
+        <v>1</v>
+      </c>
+      <c r="G140" s="6"/>
+      <c r="J140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>137</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" s="6">
+        <v>1</v>
+      </c>
+      <c r="G141" s="6"/>
+      <c r="J141" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>138</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" s="6">
+        <v>1</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="J142" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>139</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" s="6">
+        <v>1</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="J143" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>140</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" s="6">
+        <v>1</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="J144" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>141</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" s="6">
+        <v>1</v>
+      </c>
+      <c r="J145" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>142</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" s="6">
+        <v>1</v>
+      </c>
+      <c r="J146" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>143</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" s="6">
+        <v>1</v>
+      </c>
+      <c r="J147" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" s="6">
+        <v>144</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" s="6">
+        <v>1</v>
+      </c>
+      <c r="J148" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" s="6">
+        <v>145</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" s="6">
+        <v>1</v>
+      </c>
+      <c r="J149" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" s="6">
+        <v>146</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" s="6">
+        <v>1</v>
+      </c>
+      <c r="J150" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" s="6">
+        <v>147</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" s="6">
+        <v>1</v>
+      </c>
+      <c r="J151" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" s="6">
+        <v>148</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" s="6">
+        <v>4</v>
+      </c>
+      <c r="J152" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" s="6">
+        <v>149</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="I93" s="6"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="C153" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" s="6">
+        <v>1</v>
+      </c>
+      <c r="J153" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>150</v>
+      </c>
+      <c r="B154" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="6">
-        <v>3</v>
-      </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="C154" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" s="6">
+        <v>1</v>
+      </c>
+      <c r="J154" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155" s="6">
+        <v>151</v>
+      </c>
+      <c r="B155" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F95" s="6">
-        <v>3</v>
-      </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
-        <v>95</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F96" s="6">
-        <v>2</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="C155" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" s="6">
+        <v>1</v>
+      </c>
+      <c r="J155" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" s="6">
+        <v>152</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="6">
-        <v>1</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>97</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="6">
-        <v>1</v>
-      </c>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="C156" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" s="6">
+        <v>1</v>
+      </c>
+      <c r="J156" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>153</v>
+      </c>
+      <c r="B157" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F99" s="6">
-        <v>1</v>
-      </c>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
-        <v>99</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F100" s="6">
-        <v>1</v>
-      </c>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="C157" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F157" s="6">
+        <v>1</v>
+      </c>
+      <c r="J157" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" s="6">
+        <v>154</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="C158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
+      </c>
+      <c r="J158" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" s="6">
+        <v>155</v>
+      </c>
+      <c r="B159" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F102" s="6">
-        <v>1</v>
-      </c>
-      <c r="G102" s="6"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="C159" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+      <c r="J159" s="6">
+        <f t="shared" ref="J159:J174" si="5">H159*I159</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>156</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F103" s="6">
-        <v>1</v>
-      </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="6"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
-        <v>103</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F104" s="6">
-        <v>1</v>
-      </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="C160" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1</v>
+      </c>
+      <c r="J160" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="6">
+        <v>157</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="6">
-        <v>1</v>
-      </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="6"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F106" s="6">
-        <v>1</v>
-      </c>
-      <c r="G106" s="6"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="6"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="C161" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F161" s="6">
+        <v>1</v>
+      </c>
+      <c r="J161" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162" s="6">
+        <v>158</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F107" s="6">
-        <v>1</v>
-      </c>
-      <c r="G107" s="6"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="6"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="C162" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" s="6">
+        <v>1</v>
+      </c>
+      <c r="J162" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>159</v>
+      </c>
+      <c r="B163" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="C163" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" s="6">
+        <v>1</v>
+      </c>
+      <c r="J163" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" s="6">
+        <v>160</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="6">
-        <v>1</v>
-      </c>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="C164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1</v>
+      </c>
+      <c r="J164" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" s="6">
+        <v>161</v>
+      </c>
+      <c r="B165" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F110" s="6">
-        <v>1</v>
-      </c>
-      <c r="G110" s="6"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="6"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="C165" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" s="6">
+        <v>1</v>
+      </c>
+      <c r="J165" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>162</v>
+      </c>
+      <c r="B166" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F111" s="6">
-        <v>1</v>
-      </c>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
-        <v>111</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="6"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="C166" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F166" s="6">
+        <v>1</v>
+      </c>
+      <c r="J166" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" s="6">
+        <v>163</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" s="6">
+        <v>1</v>
+      </c>
+      <c r="J167" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" s="6">
+        <v>164</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" s="6">
+        <v>1</v>
+      </c>
+      <c r="J168" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>165</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" s="6">
+        <v>2</v>
+      </c>
+      <c r="J169" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" s="6">
+        <v>166</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" s="6">
+        <v>2</v>
+      </c>
+      <c r="J170" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171" s="6">
+        <v>167</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" s="6">
+        <v>1</v>
+      </c>
+      <c r="J171" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>168</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" s="6">
+        <v>1</v>
+      </c>
+      <c r="J172" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
+        <v>169</v>
+      </c>
+      <c r="B173" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F113" s="6">
-        <v>1</v>
-      </c>
-      <c r="G113" s="6"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
-        <v>113</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="6">
-        <v>1</v>
-      </c>
-      <c r="G114" s="6"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="6"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
-        <v>114</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F115" s="6">
-        <v>1</v>
-      </c>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="6"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
-        <v>115</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F116" s="6">
-        <v>2</v>
-      </c>
-      <c r="G116" s="6"/>
-      <c r="H116" s="6"/>
-      <c r="I116" s="6"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
-        <v>116</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F117" s="6">
-        <v>2</v>
-      </c>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="6"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
-        <v>117</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F118" s="6">
-        <v>1</v>
-      </c>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
-        <v>118</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" s="6">
-        <v>1</v>
-      </c>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
-        <v>119</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="6">
-        <v>1</v>
-      </c>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
-        <v>120</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="6">
-        <v>1</v>
-      </c>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="6"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
-        <v>121</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="6">
-        <v>2</v>
-      </c>
-      <c r="G122" s="6"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="6"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
-        <v>122</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
-        <v>123</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
-        <v>124</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="6">
-        <v>6</v>
-      </c>
-      <c r="G125" s="6"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="6"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
-        <v>125</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F126" s="6">
-        <v>2</v>
-      </c>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
-        <v>126</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="6">
-        <v>1</v>
-      </c>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
-        <v>127</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F128" s="6">
-        <v>1</v>
-      </c>
-      <c r="G128" s="6"/>
-      <c r="H128" s="6"/>
-      <c r="I128" s="6"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
-        <v>128</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F129" s="6">
-        <v>1</v>
-      </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="6"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
-        <v>129</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" s="6">
-        <v>1</v>
-      </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="6"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
-        <v>130</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="6">
-        <v>1</v>
-      </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="6"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
-        <v>131</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F132" s="6">
-        <v>1</v>
-      </c>
-      <c r="G132" s="6"/>
-      <c r="H132" s="6"/>
-      <c r="I132" s="6"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
-        <v>132</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F133" s="6">
-        <v>1</v>
-      </c>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
-        <v>133</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F134" s="6">
-        <v>1</v>
-      </c>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
-        <v>134</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="6">
-        <v>1</v>
-      </c>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
-        <v>135</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" s="6">
-        <v>1</v>
-      </c>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
-        <v>136</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F137" s="6">
-        <v>1</v>
-      </c>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
-        <v>137</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138" s="6">
-        <v>1</v>
-      </c>
-      <c r="G138" s="6"/>
-      <c r="H138" s="6"/>
-      <c r="I138" s="6"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
-        <v>138</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F139" s="6">
-        <v>1</v>
-      </c>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-      <c r="I139" s="6"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
-        <v>139</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F140" s="6">
-        <v>1</v>
-      </c>
-      <c r="G140" s="6"/>
-      <c r="H140" s="6"/>
-      <c r="I140" s="6"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
-        <v>140</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F141" s="6">
-        <v>1</v>
-      </c>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
-        <v>141</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F142" s="6">
-        <v>1</v>
-      </c>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
-        <v>142</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F143" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
-        <v>143</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C144" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F144" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
-        <v>144</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F145" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
-        <v>145</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
-        <v>146</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F147" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
-        <v>147</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
-        <v>148</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F149" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
-        <v>149</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C150" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F150" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
-        <v>150</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F151" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
-        <v>151</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C152" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F152" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
-        <v>152</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F153" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
-        <v>153</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
-        <v>154</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
-        <v>155</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F156" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
-        <v>156</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
-        <v>157</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
-        <v>158</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F159" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
-        <v>159</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
-        <v>160</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F161" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
-        <v>161</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
-        <v>162</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F163" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
-        <v>163</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F164" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
-        <v>164</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F165" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
-        <v>165</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F166" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
-        <v>166</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F167" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
-        <v>167</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F168" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
-        <v>168</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F169" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
-        <v>169</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F170" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="C173" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+      <c r="J173" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
         <v>170</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
-        <v>171</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G187" s="6"/>
-    </row>
-    <row r="188" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G188" s="6"/>
-    </row>
-    <row r="189" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G189" s="6"/>
-    </row>
-    <row r="190" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G190" s="6"/>
-    </row>
-    <row r="191" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G191" s="6"/>
+      <c r="B174" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" s="6">
+        <v>1</v>
+      </c>
+      <c r="J174" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J175" s="6">
+        <f>SUM(J2:J174)</f>
+        <v>2387.1200000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4519,8 +5751,8 @@
   </sheetPr>
   <dimension ref="A1:Q325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="K101" sqref="K101"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="E214" sqref="E214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6495,7 +7727,7 @@
         <v>37</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>230</v>
@@ -6706,7 +7938,7 @@
         <v>37</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>230</v>
@@ -7670,7 +8902,7 @@
         <v>39</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H173" s="6" t="s">
         <v>210</v>
@@ -8069,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>60</v>
@@ -8083,7 +9315,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D200" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>61</v>
@@ -8216,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>75</v>
@@ -8298,10 +9530,10 @@
         <v>1</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>264</v>
+        <v>335</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>38</v>
@@ -8312,10 +9544,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D214" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>38</v>
@@ -8326,10 +9558,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D215" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>38</v>
@@ -8389,7 +9621,7 @@
         <v>37</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H218" s="6" t="s">
         <v>234</v>
@@ -8411,7 +9643,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D220" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>76</v>
@@ -8540,7 +9772,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D229" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>79</v>
@@ -8554,7 +9786,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D230" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>80</v>
@@ -8709,7 +9941,7 @@
         <v>27</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C240" s="6">
         <v>1</v>
@@ -8726,7 +9958,7 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E241" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>42</v>
@@ -8737,10 +9969,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D242" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>38</v>
@@ -10120,10 +11352,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D5" s="1">
         <v>112.93</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="340">
   <si>
     <t>part name</t>
   </si>
@@ -1034,6 +1034,18 @@
   </si>
   <si>
     <t>fan_mount_v11.STL</t>
+  </si>
+  <si>
+    <t>y_axis_parts_plate.STL</t>
+  </si>
+  <si>
+    <t>27h55m</t>
+  </si>
+  <si>
+    <t>magnetic_bottom.STL</t>
+  </si>
+  <si>
+    <t>magnetic_top.STL</t>
   </si>
 </sst>
 </file>
@@ -1392,10 +1404,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V175"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3166,7 +3178,7 @@
         <v>152</v>
       </c>
       <c r="F64" s="6">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G64" s="6">
         <v>10</v>
@@ -3175,11 +3187,11 @@
         <v>1.5</v>
       </c>
       <c r="I64" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" ref="J64:J65" si="2">H64*I64</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>301</v>
@@ -4013,7 +4025,7 @@
         <v>155</v>
       </c>
       <c r="F88" s="6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G88" s="6">
         <v>10</v>
@@ -5733,9 +5745,43 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>171</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" s="6">
+        <v>1</v>
+      </c>
       <c r="J175" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
+        <v>172</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" s="6">
+        <v>1</v>
+      </c>
+      <c r="J176" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J177" s="6">
         <f>SUM(J2:J174)</f>
-        <v>2387.1200000000003</v>
+        <v>2388.6200000000003</v>
       </c>
     </row>
   </sheetData>
@@ -5749,10 +5795,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q325"/>
+  <dimension ref="A1:Q327"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="E214" sqref="E214"/>
+    <sheetView topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="E295" sqref="E295:I296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8236,6 +8282,9 @@
       <c r="C133" s="6">
         <v>4</v>
       </c>
+      <c r="D133" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E133" s="7" t="s">
         <v>46</v>
       </c>
@@ -8330,6 +8379,9 @@
       <c r="L137" s="6"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D138" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E138" s="7" t="s">
         <v>48</v>
       </c>
@@ -8458,6 +8510,9 @@
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D145" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E145" s="7" t="s">
         <v>48</v>
       </c>
@@ -8526,6 +8581,9 @@
       <c r="C149" s="6">
         <v>6</v>
       </c>
+      <c r="D149" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E149" s="7" t="s">
         <v>51</v>
       </c>
@@ -8560,6 +8618,9 @@
       <c r="C151" s="6">
         <v>2</v>
       </c>
+      <c r="D151" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E151" s="7" t="s">
         <v>70</v>
       </c>
@@ -8625,6 +8686,9 @@
       <c r="C155" s="6">
         <v>1</v>
       </c>
+      <c r="D155" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E155" s="7" t="s">
         <v>50</v>
       </c>
@@ -8721,6 +8785,9 @@
       <c r="C161" s="6">
         <v>1</v>
       </c>
+      <c r="D161" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E161" s="7" t="s">
         <v>56</v>
       </c>
@@ -8856,6 +8923,9 @@
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D170" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E170" s="7" t="s">
         <v>53</v>
       </c>
@@ -8867,6 +8937,9 @@
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D171" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E171" s="7" t="s">
         <v>54</v>
       </c>
@@ -8974,6 +9047,9 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D178" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E178" s="7" t="s">
         <v>57</v>
       </c>
@@ -8985,6 +9061,9 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D179" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E179" s="7" t="s">
         <v>58</v>
       </c>
@@ -9081,6 +9160,9 @@
       <c r="C185" s="6">
         <v>1</v>
       </c>
+      <c r="D185" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E185" s="7" t="s">
         <v>66</v>
       </c>
@@ -9092,6 +9174,9 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D186" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E186" s="7" t="s">
         <v>65</v>
       </c>
@@ -9103,6 +9188,9 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D187" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E187" s="7" t="s">
         <v>63</v>
       </c>
@@ -9115,6 +9203,9 @@
       <c r="J187" s="6"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D188" s="7" t="s">
+        <v>336</v>
+      </c>
       <c r="E188" s="7" t="s">
         <v>64</v>
       </c>
@@ -10770,64 +10861,55 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E295" s="7" t="s">
-        <v>249</v>
+        <v>338</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G295" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H295" s="6" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="I295" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E296" s="7" t="s">
-        <v>159</v>
+        <v>339</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G296" s="6" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="I296" s="6">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E297" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F297" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="I297" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E298" s="7" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F298" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="I298" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
@@ -10838,27 +10920,24 @@
         <v>39</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="I299" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E300" s="7" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G300" s="6">
-        <v>2020</v>
-      </c>
-      <c r="H300" s="6" t="s">
-        <v>229</v>
+        <v>40</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="I300" s="6">
         <v>1</v>
@@ -10866,13 +10945,16 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E301" s="7" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G301" s="6">
-        <v>2020</v>
+        <v>39</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H301" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="I301" s="6">
         <v>2</v>
@@ -10880,90 +10962,90 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E302" s="7" t="s">
-        <v>247</v>
+        <v>142</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G302" s="6" t="s">
-        <v>150</v>
+        <v>144</v>
+      </c>
+      <c r="G302" s="6">
+        <v>2020</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="I302" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E303" s="7" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="F303" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G303" s="6" t="s">
+      <c r="G303" s="6">
+        <v>2020</v>
+      </c>
+      <c r="I303" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E304" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G304" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="I303" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A304" s="6">
-        <v>34</v>
-      </c>
-      <c r="B304" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C304" s="6">
-        <v>1</v>
-      </c>
-      <c r="E304" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F304" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G304" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="H304" s="6" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="I304" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E305" s="7" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="G305" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H305" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="I305" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A306" s="6">
+        <v>34</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C306" s="6">
+        <v>1</v>
+      </c>
       <c r="E306" s="7" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>150</v>
+        <v>243</v>
+      </c>
+      <c r="H306" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="I306" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
@@ -10974,10 +11056,10 @@
         <v>39</v>
       </c>
       <c r="G307" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H307" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I307" s="6">
         <v>3</v>
@@ -10985,193 +11067,190 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E308" s="7" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H308" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I308" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E309" s="7" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G309" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H309" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="I309" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A310" s="6">
-        <v>35</v>
-      </c>
-      <c r="B310" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C310" s="6">
-        <v>1</v>
-      </c>
       <c r="E310" s="7" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G310" s="6" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="H310" s="6" t="s">
-        <v>242</v>
+        <v>155</v>
       </c>
       <c r="I310" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E311" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F311" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I311" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A312" s="6">
+        <v>35</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C312" s="6">
+        <v>1</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F312" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G312" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H312" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I312" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E313" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F311" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G311" s="6" t="s">
+      <c r="F313" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G313" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="H311" s="6" t="s">
+      <c r="H313" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I311" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E312" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F312" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G312" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I312" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A313" s="6">
-        <v>36</v>
-      </c>
-      <c r="B313" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C313" s="6">
-        <v>1</v>
-      </c>
-      <c r="E313" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F313" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="I313" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E314" s="7" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
+      </c>
+      <c r="G314" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="I314" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A315" s="6">
+        <v>36</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C315" s="6">
+        <v>1</v>
+      </c>
       <c r="E315" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F315" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I315" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E316" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F316" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I316" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E317" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F317" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I317" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E318" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F318" s="6" t="s">
         <v>38</v>
       </c>
       <c r="I318" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E319" s="7" t="s">
-        <v>249</v>
+        <v>120</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G319" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H319" s="6" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="I319" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E320" s="7" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H320" s="6" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="I320" s="6">
         <v>1</v>
@@ -11179,7 +11258,7 @@
     </row>
     <row r="321" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E321" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F321" s="6" t="s">
         <v>39</v>
@@ -11188,7 +11267,7 @@
         <v>152</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="I321" s="6">
         <v>4</v>
@@ -11205,54 +11284,88 @@
         <v>152</v>
       </c>
       <c r="H322" s="6" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I322" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E323" s="7" t="s">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="G323" s="6" t="s">
         <v>152</v>
       </c>
+      <c r="H323" s="6" t="s">
+        <v>214</v>
+      </c>
       <c r="I323" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E324" s="7" t="s">
-        <v>200</v>
+        <v>247</v>
       </c>
       <c r="F324" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="H324" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="I324" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E325" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F325" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G325" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I325" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E326" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F326" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G326" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I326" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E327" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F325" s="6" t="s">
+      <c r="F327" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G325" s="6" t="s">
+      <c r="G327" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H325" s="6" t="s">
+      <c r="H327" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I325" s="6">
+      <c r="I327" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11267,7 +11380,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11365,9 +11478,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="1">
+        <v>330.06</v>
+      </c>
+      <c r="E6" s="1">
+        <v>24.75</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -1406,8 +1406,8 @@
   </sheetPr>
   <dimension ref="A1:V177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J177" sqref="J177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1641,7 +1641,7 @@
         <v>152</v>
       </c>
       <c r="F9" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
@@ -1663,7 +1663,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
@@ -3424,7 +3424,7 @@
         <v>155</v>
       </c>
       <c r="F71" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="6">
         <v>10</v>
@@ -4061,7 +4061,7 @@
         <v>155</v>
       </c>
       <c r="F89" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G89" s="6">
         <v>10</v>
@@ -5797,8 +5797,8 @@
   </sheetPr>
   <dimension ref="A1:Q327"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295:I296"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10221,7 +10221,7 @@
         <v>155</v>
       </c>
       <c r="I251" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
@@ -10252,7 +10252,7 @@
         <v>150</v>
       </c>
       <c r="I253" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
@@ -11158,7 +11158,7 @@
         <v>39</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H313" s="6" t="s">
         <v>155</v>
@@ -11175,7 +11175,7 @@
         <v>144</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I314" s="6">
         <v>3</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="332">
   <si>
     <t>part name</t>
   </si>
@@ -298,21 +298,6 @@
     <t>mks_4x_smoother_mount_spacer.STL</t>
   </si>
   <si>
-    <t>mks_smoother_mount_cover.STL</t>
-  </si>
-  <si>
-    <t>tmc2208_vent.SLDASM</t>
-  </si>
-  <si>
-    <t>board_vent.STL</t>
-  </si>
-  <si>
-    <t>cover_small.STL</t>
-  </si>
-  <si>
-    <t>cover_vent.STL</t>
-  </si>
-  <si>
     <t>printer_controller_assembled.SLDASM</t>
   </si>
   <si>
@@ -322,9 +307,6 @@
     <t>private part</t>
   </si>
   <si>
-    <t>vent_board_back.STL</t>
-  </si>
-  <si>
     <t>filament_sensor_spool.SLDASM</t>
   </si>
   <si>
@@ -391,9 +373,6 @@
     <t>reset_button.STL</t>
   </si>
   <si>
-    <t>control_panel_stand.STL</t>
-  </si>
-  <si>
     <t>e3d Semitec thermistor cartige</t>
   </si>
   <si>
@@ -745,9 +724,6 @@
     <t>power socket</t>
   </si>
   <si>
-    <t>14mm</t>
-  </si>
-  <si>
     <t>80mm</t>
   </si>
   <si>
@@ -892,12 +868,6 @@
     <t>http://allegro.pl/sruba-kulista-czarna-m3x16-gniazdo-imbus-10szt-i5214620038.html</t>
   </si>
   <si>
-    <t>http://allegro.pl/sruba-imbusowa-czarna-m3x14-gniazdo-imbus-10szt-i5046183466.html</t>
-  </si>
-  <si>
-    <t>http://allegro.pl/sruba-dociskowa-czarna-m3x12-gniazdo-imbus-10szt-i5088078247.html</t>
-  </si>
-  <si>
     <t>http://allegro.pl/sruba-kulista-czarna-m3x12-gniazdo-imbus-10szt-i5142905904.html</t>
   </si>
   <si>
@@ -1046,6 +1016,12 @@
   </si>
   <si>
     <t>magnetic_top.STL</t>
+  </si>
+  <si>
+    <t>vent_board_back_V2.STL</t>
+  </si>
+  <si>
+    <t>vent_board_back_v2.STL</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1380,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1440,28 +1416,28 @@
         <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -1469,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -1493,16 +1469,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6">
         <v>1515</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1517,16 +1493,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D4" s="6">
         <v>2020</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F4" s="6">
         <v>15</v>
@@ -1541,16 +1517,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6">
         <v>2020</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -1565,16 +1541,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6">
         <v>2020</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F6" s="6">
         <v>1</v>
@@ -1589,10 +1565,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D7" s="6">
         <v>2020</v>
@@ -1610,10 +1586,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D8" s="6">
         <v>2020</v>
@@ -1635,13 +1611,13 @@
         <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F9" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
@@ -1657,13 +1633,13 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F10" s="6">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="0"/>
@@ -1680,16 +1656,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -1708,7 +1684,7 @@
         <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -1716,13 +1692,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F12" s="6">
         <v>3</v>
@@ -1760,13 +1736,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F14" s="6">
         <v>2</v>
@@ -1785,7 +1761,7 @@
         <v>50</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1793,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>37</v>
@@ -1811,16 +1787,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
@@ -1839,7 +1815,7 @@
         <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="Q16" s="7"/>
       <c r="R16" s="6"/>
@@ -1852,16 +1828,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
@@ -1882,16 +1858,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F18" s="6">
         <v>1</v>
@@ -1907,7 +1883,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>37</v>
@@ -1929,12 +1905,12 @@
         <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>37</v>
@@ -1953,12 +1929,12 @@
         <v>280</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>37</v>
@@ -1977,12 +1953,12 @@
         <v>95</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>37</v>
@@ -2001,7 +1977,7 @@
         <v>31</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -2009,16 +1985,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -2039,13 +2015,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F24" s="6">
         <v>2</v>
@@ -2066,7 +2042,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>37</v>
@@ -2087,16 +2063,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F26" s="6">
         <v>1</v>
@@ -2112,16 +2088,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F27" s="6">
         <v>2</v>
@@ -2137,16 +2113,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F28" s="6">
         <v>2</v>
@@ -2162,16 +2138,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F29" s="6">
         <v>4</v>
@@ -2187,16 +2163,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F30" s="6">
         <v>2</v>
@@ -2212,16 +2188,16 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F31" s="6">
         <v>2</v>
@@ -2256,7 +2232,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>37</v>
@@ -2275,16 +2251,16 @@
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
@@ -2300,16 +2276,16 @@
         <v>31</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F35" s="6">
         <v>3</v>
@@ -2325,13 +2301,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F36" s="6">
         <v>3</v>
@@ -2347,16 +2323,16 @@
         <v>33</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -2372,13 +2348,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
@@ -2397,7 +2373,7 @@
         <v>7.99</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2405,7 +2381,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>37</v>
@@ -2414,10 +2390,10 @@
         <v>3010</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F39" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="6"/>
       <c r="J39" s="6">
@@ -2449,13 +2425,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F41" s="6">
         <v>4</v>
@@ -2474,7 +2450,7 @@
         <v>64</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2482,13 +2458,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F42" s="6">
         <v>1</v>
@@ -2504,13 +2480,13 @@
         <v>39</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -2526,13 +2502,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
@@ -2548,16 +2524,16 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
@@ -2573,16 +2549,16 @@
         <v>42</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F46" s="6">
         <v>1</v>
@@ -2598,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F47" s="6">
         <v>4</v>
@@ -2623,7 +2599,7 @@
         <v>184</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2631,16 +2607,16 @@
         <v>44</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F48" s="6">
         <v>1</v>
@@ -2656,16 +2632,16 @@
         <v>45</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
@@ -2684,7 +2660,7 @@
         <v>120</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2692,16 +2668,16 @@
         <v>46</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -2720,7 +2696,7 @@
         <v>240.9</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2728,13 +2704,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F51" s="6">
         <v>4</v>
@@ -2753,7 +2729,7 @@
         <v>11</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -2763,13 +2739,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F52" s="6">
         <v>4</v>
@@ -2788,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2796,13 +2772,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F53" s="6">
         <v>4</v>
@@ -2821,7 +2797,7 @@
         <v>11.2</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2829,13 +2805,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F54" s="6">
         <v>10</v>
@@ -2854,7 +2830,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -2862,13 +2838,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F55" s="6">
         <v>17</v>
@@ -2887,7 +2863,7 @@
         <v>17</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -2895,16 +2871,16 @@
         <v>52</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F56" s="6">
         <v>1</v>
@@ -2920,16 +2896,16 @@
         <v>53</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D57" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F57" s="6">
         <v>2</v>
@@ -2948,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -2956,16 +2932,16 @@
         <v>54</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F58" s="6">
         <v>1</v>
@@ -2984,7 +2960,7 @@
         <v>22</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -2992,16 +2968,16 @@
         <v>55</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D59" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F59" s="6">
         <v>2</v>
@@ -3020,7 +2996,7 @@
         <v>13.8</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3031,13 +3007,13 @@
         <v>43</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="F60" s="6">
         <v>2</v>
@@ -3056,7 +3032,7 @@
         <v>26</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3067,13 +3043,13 @@
         <v>43</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F61" s="6">
         <v>7</v>
@@ -3092,7 +3068,7 @@
         <v>59.43</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3100,16 +3076,16 @@
         <v>58</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F62" s="6">
         <v>3</v>
@@ -3128,7 +3104,7 @@
         <v>280</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3136,13 +3112,13 @@
         <v>59</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F63" s="6">
         <v>3</v>
@@ -3161,7 +3137,7 @@
         <v>330</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3169,13 +3145,13 @@
         <v>60</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F64" s="6">
         <v>64</v>
@@ -3194,7 +3170,7 @@
         <v>10.5</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
@@ -3202,13 +3178,13 @@
         <v>61</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F65" s="6">
         <v>1</v>
@@ -3227,7 +3203,7 @@
         <v>4.8</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
@@ -3235,16 +3211,16 @@
         <v>62</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F66" s="6">
         <v>1</v>
@@ -3263,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
@@ -3271,16 +3247,16 @@
         <v>63</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F67" s="6">
         <v>4</v>
@@ -3295,11 +3271,11 @@
         <v>1</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" ref="J67:J89" si="3">H67*I67</f>
+        <f t="shared" ref="J67:J87" si="3">H67*I67</f>
         <v>3.2</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
@@ -3307,16 +3283,16 @@
         <v>64</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F68" s="6">
         <v>16</v>
@@ -3335,7 +3311,7 @@
         <v>5.8</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -3343,16 +3319,16 @@
         <v>65</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -3376,16 +3352,16 @@
         <v>66</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F70" s="6">
         <v>5</v>
@@ -3404,7 +3380,7 @@
         <v>2.5</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -3412,16 +3388,16 @@
         <v>67</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F71" s="6">
         <v>76</v>
@@ -3440,7 +3416,7 @@
         <v>20.8</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
@@ -3448,19 +3424,19 @@
         <v>68</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F72" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G72" s="6">
         <v>10</v>
@@ -3476,7 +3452,7 @@
         <v>5.6</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3484,16 +3460,16 @@
         <v>69</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F73" s="6">
         <v>32</v>
@@ -3509,16 +3485,16 @@
         <v>70</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F74" s="6">
         <v>23</v>
@@ -3537,7 +3513,7 @@
         <v>14.5</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
@@ -3545,16 +3521,16 @@
         <v>71</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F75" s="6">
         <v>8</v>
@@ -3573,7 +3549,7 @@
         <v>4.8</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
@@ -3581,19 +3557,19 @@
         <v>72</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F76" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" s="6">
         <v>10</v>
@@ -3609,7 +3585,7 @@
         <v>6.6</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -3617,16 +3593,16 @@
         <v>73</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F77" s="6">
         <v>10</v>
@@ -3645,7 +3621,7 @@
         <v>2.8</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
@@ -3653,16 +3629,16 @@
         <v>74</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F78" s="6">
         <v>8</v>
@@ -3681,7 +3657,7 @@
         <v>1.6</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3689,16 +3665,16 @@
         <v>75</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F79" s="6">
         <v>22</v>
@@ -3717,7 +3693,7 @@
         <v>4.5</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
@@ -3725,19 +3701,19 @@
         <v>76</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F80" s="6">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G80" s="6">
         <v>10</v>
@@ -3753,7 +3729,7 @@
         <v>10</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -3761,16 +3737,16 @@
         <v>77</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F81" s="6">
         <v>10</v>
@@ -3789,7 +3765,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3797,16 +3773,16 @@
         <v>78</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F82" s="6">
         <v>14</v>
@@ -3825,7 +3801,7 @@
         <v>2.6</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -3833,35 +3809,35 @@
         <v>79</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="F83" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G83" s="6">
         <v>10</v>
       </c>
       <c r="H83" s="6">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I83" s="6">
         <v>1</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -3869,35 +3845,35 @@
         <v>80</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F84" s="6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G84" s="6">
         <v>10</v>
       </c>
       <c r="H84" s="6">
-        <v>2.2000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="I84" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="3"/>
-        <v>4.4000000000000004</v>
+        <v>1.7</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -3905,19 +3881,19 @@
         <v>81</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F85" s="6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G85" s="6">
         <v>10</v>
@@ -3926,14 +3902,14 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="I85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="3"/>
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -3941,35 +3917,35 @@
         <v>82</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="F86" s="6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G86" s="6">
         <v>10</v>
       </c>
       <c r="H86" s="6">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="I86" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" s="6">
         <f t="shared" si="3"/>
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -3977,35 +3953,35 @@
         <v>83</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>214</v>
+        <v>148</v>
       </c>
       <c r="F87" s="6">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G87" s="6">
         <v>10</v>
       </c>
       <c r="H87" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="I87" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" si="3"/>
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -4013,35 +3989,35 @@
         <v>84</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F88" s="6">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G88" s="6">
         <v>10</v>
       </c>
       <c r="H88" s="6">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="I88" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J88" s="6">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
+        <f>H88*I88</f>
+        <v>5.6</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -4049,19 +4025,19 @@
         <v>85</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="F89" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G89" s="6">
         <v>10</v>
@@ -4073,11 +4049,11 @@
         <v>1</v>
       </c>
       <c r="J89" s="6">
-        <f t="shared" si="3"/>
+        <f>H89*I89</f>
         <v>1.9</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -4085,35 +4061,35 @@
         <v>86</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F90" s="6">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G90" s="6">
         <v>10</v>
       </c>
       <c r="H90" s="6">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I90" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J90" s="6">
         <f>H90*I90</f>
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -4121,35 +4097,35 @@
         <v>87</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F91" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G91" s="6">
         <v>10</v>
       </c>
       <c r="H91" s="6">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I91" s="6">
         <v>1</v>
       </c>
       <c r="J91" s="6">
         <f>H91*I91</f>
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
@@ -4157,35 +4133,32 @@
         <v>88</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="F92" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G92" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H92" s="6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I92" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" s="6">
         <f>H92*I92</f>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -4193,35 +4166,18 @@
         <v>89</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>247</v>
+        <v>82</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="F93" s="6">
-        <v>5</v>
-      </c>
-      <c r="G93" s="6">
-        <v>10</v>
-      </c>
-      <c r="H93" s="6">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I93" s="6">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G93" s="6"/>
       <c r="J93" s="6">
-        <f>H93*I93</f>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>298</v>
+        <f t="shared" ref="J93:J152" si="4">H93*I93</f>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
@@ -4229,32 +4185,18 @@
         <v>90</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="F94" s="6">
-        <v>8</v>
-      </c>
-      <c r="G94" s="6">
-        <v>20</v>
-      </c>
-      <c r="H94" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I94" s="6">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="G94" s="6"/>
       <c r="J94" s="6">
-        <f>H94*I94</f>
-        <v>1.2</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>299</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
@@ -4262,17 +4204,17 @@
         <v>91</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G95" s="6"/>
       <c r="J95" s="6">
-        <f t="shared" ref="J95:J158" si="4">H95*I95</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4281,13 +4223,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F96" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96" s="6"/>
       <c r="J96" s="6">
@@ -4300,13 +4242,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F97" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G97" s="6"/>
       <c r="J97" s="6">
@@ -4319,13 +4261,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F98" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="6"/>
       <c r="J98" s="6">
@@ -4338,7 +4280,7 @@
         <v>95</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>38</v>
@@ -4357,7 +4299,7 @@
         <v>96</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>38</v>
@@ -4376,7 +4318,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>38</v>
@@ -4384,7 +4326,6 @@
       <c r="F101" s="6">
         <v>1</v>
       </c>
-      <c r="G101" s="6"/>
       <c r="J101" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4395,7 +4336,7 @@
         <v>98</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>38</v>
@@ -4414,7 +4355,7 @@
         <v>99</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>38</v>
@@ -4422,6 +4363,7 @@
       <c r="F103" s="6">
         <v>1</v>
       </c>
+      <c r="G103" s="6"/>
       <c r="J103" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4432,7 +4374,7 @@
         <v>100</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>38</v>
@@ -4451,7 +4393,7 @@
         <v>101</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>38</v>
@@ -4470,7 +4412,7 @@
         <v>102</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>38</v>
@@ -4489,7 +4431,7 @@
         <v>103</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>38</v>
@@ -4508,13 +4450,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F108" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108" s="6"/>
       <c r="J108" s="6">
@@ -4527,7 +4469,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>38</v>
@@ -4546,13 +4488,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F110" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" s="6"/>
       <c r="J110" s="6">
@@ -4565,7 +4507,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>130</v>
+        <v>6</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>38</v>
@@ -4584,7 +4526,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>38</v>
@@ -4603,7 +4545,7 @@
         <v>109</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>38</v>
@@ -4622,7 +4564,7 @@
         <v>110</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>38</v>
@@ -4641,7 +4583,7 @@
         <v>111</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>38</v>
@@ -4660,13 +4602,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F116" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="6"/>
       <c r="J116" s="6">
@@ -4679,13 +4621,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F117" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="6"/>
       <c r="J117" s="6">
@@ -4698,13 +4640,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F118" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" s="6"/>
       <c r="J118" s="6">
@@ -4717,13 +4659,13 @@
         <v>115</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F119" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="6"/>
       <c r="J119" s="6">
@@ -4736,7 +4678,7 @@
         <v>116</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>38</v>
@@ -4755,7 +4697,7 @@
         <v>117</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>38</v>
@@ -4774,13 +4716,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="6"/>
       <c r="J122" s="6">
@@ -4793,15 +4735,14 @@
         <v>119</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F123" s="6">
-        <v>1</v>
-      </c>
-      <c r="G123" s="6"/>
+        <v>4</v>
+      </c>
       <c r="J123" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4812,7 +4753,7 @@
         <v>120</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>38</v>
@@ -4820,7 +4761,6 @@
       <c r="F124" s="6">
         <v>2</v>
       </c>
-      <c r="G124" s="6"/>
       <c r="J124" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4831,14 +4771,15 @@
         <v>121</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F125" s="6">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G125" s="6"/>
       <c r="J125" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4849,7 +4790,7 @@
         <v>122</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>38</v>
@@ -4857,6 +4798,7 @@
       <c r="F126" s="6">
         <v>2</v>
       </c>
+      <c r="G126" s="6"/>
       <c r="J126" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4867,13 +4809,13 @@
         <v>123</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F127" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G127" s="6"/>
       <c r="J127" s="6">
@@ -4886,13 +4828,13 @@
         <v>124</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F128" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" s="6"/>
       <c r="J128" s="6">
@@ -4905,7 +4847,7 @@
         <v>125</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>38</v>
@@ -4924,7 +4866,7 @@
         <v>126</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>38</v>
@@ -4943,7 +4885,7 @@
         <v>127</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>38</v>
@@ -4962,7 +4904,7 @@
         <v>128</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>38</v>
@@ -4981,7 +4923,7 @@
         <v>129</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>38</v>
@@ -5000,7 +4942,7 @@
         <v>130</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>38</v>
@@ -5019,7 +4961,7 @@
         <v>131</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>38</v>
@@ -5038,7 +4980,7 @@
         <v>132</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>38</v>
@@ -5057,7 +4999,7 @@
         <v>133</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>38</v>
@@ -5076,7 +5018,7 @@
         <v>134</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>38</v>
@@ -5095,7 +5037,7 @@
         <v>135</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>38</v>
@@ -5114,7 +5056,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>61</v>
+        <v>325</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>38</v>
@@ -5132,8 +5074,8 @@
       <c r="A141" s="6">
         <v>137</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>75</v>
+      <c r="B141" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>38</v>
@@ -5151,8 +5093,8 @@
       <c r="A142" s="6">
         <v>138</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>335</v>
+      <c r="B142" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>38</v>
@@ -5170,8 +5112,8 @@
       <c r="A143" s="6">
         <v>139</v>
       </c>
-      <c r="B143" s="5" t="s">
-        <v>264</v>
+      <c r="B143" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>38</v>
@@ -5179,7 +5121,6 @@
       <c r="F143" s="6">
         <v>1</v>
       </c>
-      <c r="G143" s="6"/>
       <c r="J143" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5189,8 +5130,8 @@
       <c r="A144" s="6">
         <v>140</v>
       </c>
-      <c r="B144" s="5" t="s">
-        <v>265</v>
+      <c r="B144" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>38</v>
@@ -5198,7 +5139,6 @@
       <c r="F144" s="6">
         <v>1</v>
       </c>
-      <c r="G144" s="6"/>
       <c r="J144" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5209,7 +5149,7 @@
         <v>141</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>38</v>
@@ -5227,7 +5167,7 @@
         <v>142</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>38</v>
@@ -5245,7 +5185,7 @@
         <v>143</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>38</v>
@@ -5263,7 +5203,7 @@
         <v>144</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>38</v>
@@ -5281,7 +5221,7 @@
         <v>145</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>38</v>
@@ -5299,7 +5239,7 @@
         <v>146</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>38</v>
@@ -5317,7 +5257,7 @@
         <v>147</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>89</v>
+        <v>331</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>38</v>
@@ -5335,13 +5275,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F152" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J152" s="6">
         <f t="shared" si="4"/>
@@ -5353,7 +5293,7 @@
         <v>149</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>38</v>
@@ -5362,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="J153" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J153:J167" si="5">H153*I153</f>
         <v>0</v>
       </c>
     </row>
@@ -5371,7 +5311,7 @@
         <v>150</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>38</v>
@@ -5380,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="J154" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5389,7 +5329,7 @@
         <v>151</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>38</v>
@@ -5398,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5407,7 +5347,7 @@
         <v>152</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>38</v>
@@ -5416,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5425,7 +5365,7 @@
         <v>153</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>38</v>
@@ -5434,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="J157" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +5383,7 @@
         <v>154</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>38</v>
@@ -5452,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="J158" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5461,7 +5401,7 @@
         <v>155</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>38</v>
@@ -5470,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="6">
-        <f t="shared" ref="J159:J174" si="5">H159*I159</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5479,7 +5419,7 @@
         <v>156</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>38</v>
@@ -5497,7 +5437,7 @@
         <v>157</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>38</v>
@@ -5515,7 +5455,7 @@
         <v>158</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>38</v>
@@ -5533,13 +5473,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F163" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163" s="6">
         <f t="shared" si="5"/>
@@ -5551,13 +5491,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F164" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" s="6">
         <f t="shared" si="5"/>
@@ -5569,7 +5509,7 @@
         <v>161</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>38</v>
@@ -5587,7 +5527,7 @@
         <v>162</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>38</v>
@@ -5605,7 +5545,7 @@
         <v>163</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>38</v>
@@ -5623,7 +5563,7 @@
         <v>164</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>117</v>
+        <v>328</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>38</v>
@@ -5632,7 +5572,6 @@
         <v>1</v>
       </c>
       <c r="J168" s="6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5641,147 +5580,22 @@
         <v>165</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F169" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" s="6">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
-        <v>166</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F170" s="6">
-        <v>2</v>
-      </c>
       <c r="J170" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
-        <v>167</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F171" s="6">
-        <v>1</v>
-      </c>
-      <c r="J171" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
-        <v>168</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F172" s="6">
-        <v>1</v>
-      </c>
-      <c r="J172" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
-        <v>169</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" s="6">
-        <v>1</v>
-      </c>
-      <c r="J173" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
-        <v>170</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F174" s="6">
-        <v>1</v>
-      </c>
-      <c r="J174" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
-        <v>171</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F175" s="6">
-        <v>1</v>
-      </c>
-      <c r="J175" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
-        <v>172</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F176" s="6">
-        <v>1</v>
-      </c>
-      <c r="J176" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J177" s="6">
-        <f>SUM(J2:J174)</f>
-        <v>2388.6200000000003</v>
+        <f>SUM(J2:J167)</f>
+        <v>2381.52</v>
       </c>
     </row>
   </sheetData>
@@ -5795,10 +5609,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q327"/>
+  <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="I254" sqref="I254"/>
+    <sheetView topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313:XFD313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5826,7 +5640,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
@@ -5838,13 +5652,13 @@
         <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -5852,16 +5666,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="I2" s="6">
         <v>2</v>
@@ -5869,16 +5683,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -5886,16 +5700,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
@@ -5906,22 +5720,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G5" s="6">
         <v>2020</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I5" s="6">
         <v>15</v>
@@ -5929,16 +5743,16 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E6" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G6" s="6">
         <v>2020</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I6" s="6">
         <v>4</v>
@@ -5946,10 +5760,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G7" s="6">
         <v>2020</v>
@@ -5960,16 +5774,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I8" s="6">
         <v>64</v>
@@ -5980,10 +5794,10 @@
         <v>40</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6">
         <v>56</v>
@@ -5991,10 +5805,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G10" s="6">
         <v>2020</v>
@@ -6005,16 +5819,16 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I11" s="6">
         <v>32</v>
@@ -6056,16 +5870,16 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E14" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -6076,16 +5890,16 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E15" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I15" s="6">
         <v>1</v>
@@ -6122,16 +5936,16 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I17" s="6">
         <v>1</v>
@@ -6142,16 +5956,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E18" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I18" s="6">
         <v>2</v>
@@ -6162,16 +5976,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E19" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I19" s="6">
         <v>2</v>
@@ -6182,16 +5996,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I20" s="6">
         <v>2</v>
@@ -6202,16 +6016,16 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I21" s="6">
         <v>4</v>
@@ -6222,13 +6036,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I22" s="6">
         <v>6</v>
@@ -6242,10 +6056,10 @@
         <v>40</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I23" s="6">
         <v>4</v>
@@ -6256,13 +6070,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -6316,13 +6130,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -6333,16 +6147,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E28" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I28" s="6">
         <v>2</v>
@@ -6353,16 +6167,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E29" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
@@ -6373,16 +6187,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
@@ -6393,16 +6207,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I31" s="6">
         <v>2</v>
@@ -6413,16 +6227,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E32" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I32" s="6">
         <v>4</v>
@@ -6433,13 +6247,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E33" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I33" s="6">
         <v>1</v>
@@ -6450,16 +6264,16 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E34" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I34" s="6">
         <v>2</v>
@@ -6470,16 +6284,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E35" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -6490,13 +6304,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E36" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I36" s="6">
         <v>9</v>
@@ -6507,16 +6321,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E37" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I37" s="6">
         <v>4</v>
@@ -6527,16 +6341,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I38" s="6">
         <v>6</v>
@@ -6547,13 +6361,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E39" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I39" s="6">
         <v>2</v>
@@ -6564,16 +6378,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E40" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G40" s="6">
         <v>1515</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I40" s="6">
         <v>1</v>
@@ -6694,13 +6508,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E48" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="I48" s="6">
         <v>2</v>
@@ -6711,16 +6525,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E49" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I49" s="6">
         <v>2</v>
@@ -6731,16 +6545,16 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E50" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I50" s="6">
         <v>4</v>
@@ -6751,16 +6565,16 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E51" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I51" s="6">
         <v>4</v>
@@ -6771,13 +6585,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E52" s="7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -6802,13 +6616,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E54" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I54" s="6">
         <v>1</v>
@@ -6836,13 +6650,13 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>38</v>
@@ -6856,10 +6670,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D57" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>38</v>
@@ -6873,10 +6687,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D58" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>38</v>
@@ -6890,10 +6704,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D59" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>38</v>
@@ -6907,10 +6721,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D60" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>38</v>
@@ -6924,10 +6738,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D61" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>38</v>
@@ -6941,16 +6755,16 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E62" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I62" s="6">
         <v>2</v>
@@ -6961,7 +6775,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E63" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>37</v>
@@ -6989,16 +6803,16 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E65" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I65" s="6">
         <v>1</v>
@@ -7009,16 +6823,16 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E66" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I66" s="6">
         <v>14</v>
@@ -7029,16 +6843,16 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E67" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I67" s="6">
         <v>4</v>
@@ -7049,16 +6863,16 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E68" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I68" s="6">
         <v>2</v>
@@ -7069,16 +6883,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E69" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I69" s="6">
         <v>2</v>
@@ -7089,16 +6903,16 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E70" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I70" s="6">
         <v>8</v>
@@ -7109,16 +6923,16 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E71" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I71" s="6">
         <v>1</v>
@@ -7166,16 +6980,16 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E74" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I74" s="6">
         <v>1</v>
@@ -7186,16 +7000,16 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E75" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -7206,16 +7020,16 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E76" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="I76" s="6">
         <v>1</v>
@@ -7226,13 +7040,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E77" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I77" s="6">
         <v>1</v>
@@ -7243,7 +7057,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E78" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>42</v>
@@ -7283,16 +7097,16 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E80" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I80" s="6">
         <v>5</v>
@@ -7303,16 +7117,16 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E81" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I81" s="6">
         <v>4</v>
@@ -7323,16 +7137,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E82" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I82" s="6">
         <v>2</v>
@@ -7343,16 +7157,16 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E83" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I83" s="6">
         <v>4</v>
@@ -7363,16 +7177,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E84" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I84" s="6">
         <v>2</v>
@@ -7383,13 +7197,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E85" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I85" s="6">
         <v>1</v>
@@ -7403,13 +7217,13 @@
         <v>43</v>
       </c>
       <c r="F86" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="I86" s="6">
         <v>1</v>
@@ -7423,10 +7237,10 @@
         <v>40</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I87" s="6">
         <v>4</v>
@@ -7471,13 +7285,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E90" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I90" s="6">
         <v>11</v>
@@ -7514,16 +7328,16 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E92" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I92" s="6">
         <v>5</v>
@@ -7534,16 +7348,16 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E93" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I93" s="6">
         <v>4</v>
@@ -7554,16 +7368,16 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E94" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I94" s="6">
         <v>2</v>
@@ -7574,16 +7388,16 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E95" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I95" s="6">
         <v>4</v>
@@ -7594,16 +7408,16 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E96" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I96" s="6">
         <v>2</v>
@@ -7614,13 +7428,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E97" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="I97" s="6">
         <v>1</v>
@@ -7634,13 +7448,13 @@
         <v>43</v>
       </c>
       <c r="F98" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="I98" s="6">
         <v>1</v>
@@ -7668,10 +7482,10 @@
         <v>40</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I100" s="6">
         <v>4</v>
@@ -7713,13 +7527,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E103" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I103" s="6">
         <v>11</v>
@@ -7767,16 +7581,16 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E106" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I106" s="6">
         <v>1</v>
@@ -7787,13 +7601,13 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E107" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I107" s="6">
         <v>1</v>
@@ -7807,13 +7621,13 @@
         <v>43</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I108" s="6">
         <v>1</v>
@@ -7824,16 +7638,16 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E109" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I109" s="6">
         <v>4</v>
@@ -7844,16 +7658,16 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E110" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I110" s="6">
         <v>4</v>
@@ -7867,10 +7681,10 @@
         <v>40</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I111" s="6">
         <v>4</v>
@@ -7881,16 +7695,16 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E112" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I112" s="6">
         <v>4</v>
@@ -7904,16 +7718,16 @@
         <v>11</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C113" s="6">
         <v>1</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>38</v>
@@ -7927,10 +7741,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D114" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>38</v>
@@ -7944,10 +7758,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D115" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>38</v>
@@ -7961,10 +7775,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D116" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>38</v>
@@ -7978,16 +7792,16 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E117" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="I117" s="6">
         <v>1</v>
@@ -7998,13 +7812,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E118" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I118" s="6">
         <v>1</v>
@@ -8018,13 +7832,13 @@
         <v>43</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I119" s="6">
         <v>1</v>
@@ -8035,16 +7849,16 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E120" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -8055,16 +7869,16 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E121" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -8075,16 +7889,16 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E122" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I122" s="6">
         <v>5</v>
@@ -8095,13 +7909,13 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E123" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I123" s="6">
         <v>4</v>
@@ -8112,13 +7926,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E124" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>81</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I124" s="6">
         <v>5</v>
@@ -8126,13 +7940,13 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E125" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I125" s="6">
         <v>3</v>
@@ -8140,7 +7954,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D126" s="7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E126" s="7" t="s">
         <v>44</v>
@@ -8157,16 +7971,16 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E127" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I127" s="6">
         <v>4</v>
@@ -8180,10 +7994,10 @@
         <v>40</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I128" s="6">
         <v>4</v>
@@ -8194,16 +8008,16 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E129" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I129" s="6">
         <v>4</v>
@@ -8214,16 +8028,16 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E130" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I130" s="6">
         <v>2</v>
@@ -8234,16 +8048,16 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E131" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I131" s="6">
         <v>2</v>
@@ -8254,16 +8068,16 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E132" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I132" s="6">
         <v>1</v>
@@ -8283,7 +8097,7 @@
         <v>4</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E133" s="7" t="s">
         <v>46</v>
@@ -8300,13 +8114,13 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E134" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I134" s="6">
         <v>2</v>
@@ -8340,16 +8154,16 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E136" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F136" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -8363,13 +8177,13 @@
         <v>43</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I137" s="6">
         <v>2</v>
@@ -8380,7 +8194,7 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D138" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E138" s="7" t="s">
         <v>48</v>
@@ -8397,16 +8211,16 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E139" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I139" s="6">
         <v>6</v>
@@ -8417,16 +8231,16 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E140" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I140" s="6">
         <v>4</v>
@@ -8440,10 +8254,10 @@
         <v>40</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I141" s="6">
         <v>4</v>
@@ -8477,16 +8291,16 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E143" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -8497,13 +8311,13 @@
         <v>43</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="I144" s="6">
         <v>2</v>
@@ -8511,7 +8325,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D145" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>48</v>
@@ -8525,16 +8339,16 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E146" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I146" s="6">
         <v>6</v>
@@ -8542,16 +8356,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E147" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I147" s="6">
         <v>4</v>
@@ -8562,10 +8376,10 @@
         <v>40</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I148" s="6">
         <v>4</v>
@@ -8582,7 +8396,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>51</v>
@@ -8596,13 +8410,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E150" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I150" s="6">
         <v>2</v>
@@ -8619,7 +8433,7 @@
         <v>2</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>70</v>
@@ -8633,13 +8447,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E152" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F152" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I152" s="6">
         <v>2</v>
@@ -8687,7 +8501,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E155" s="7" t="s">
         <v>50</v>
@@ -8701,16 +8515,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E156" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I156" s="6">
         <v>2</v>
@@ -8721,10 +8535,10 @@
         <v>40</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I157" s="6">
         <v>2</v>
@@ -8732,16 +8546,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E158" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I158" s="6">
         <v>1</v>
@@ -8749,16 +8563,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E159" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F159" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I159" s="6">
         <v>1</v>
@@ -8786,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>56</v>
@@ -8800,16 +8614,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E162" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F162" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I162" s="6">
         <v>2</v>
@@ -8820,10 +8634,10 @@
         <v>40</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I163" s="6">
         <v>2</v>
@@ -8831,16 +8645,16 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E164" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F164" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G164" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I164" s="6">
         <v>1</v>
@@ -8848,16 +8662,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E165" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F165" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G165" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I165" s="6">
         <v>1</v>
@@ -8896,16 +8710,16 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E168" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I168" s="6">
         <v>1</v>
@@ -8924,7 +8738,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D170" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>53</v>
@@ -8938,7 +8752,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D171" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>54</v>
@@ -8952,16 +8766,16 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E172" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I172" s="6">
         <v>4</v>
@@ -8969,16 +8783,16 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E173" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F173" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I173" s="6">
         <v>2</v>
@@ -8989,10 +8803,10 @@
         <v>40</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I174" s="6">
         <v>4</v>
@@ -9020,16 +8834,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E176" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I176" s="6">
         <v>1</v>
@@ -9048,7 +8862,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D178" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>57</v>
@@ -9062,7 +8876,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D179" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>58</v>
@@ -9076,16 +8890,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E180" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F180" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I180" s="6">
         <v>4</v>
@@ -9093,16 +8907,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E181" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F181" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I181" s="6">
         <v>2</v>
@@ -9110,16 +8924,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E182" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F182" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I182" s="6">
         <v>1</v>
@@ -9141,10 +8955,10 @@
         <v>40</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G184" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I184" s="6">
         <v>4</v>
@@ -9161,7 +8975,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>66</v>
@@ -9175,7 +8989,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D186" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>65</v>
@@ -9189,7 +9003,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D187" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>63</v>
@@ -9204,7 +9018,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D188" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>64</v>
@@ -9219,16 +9033,16 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E189" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I189" s="6">
         <v>1</v>
@@ -9237,13 +9051,13 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E190" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I190" s="6">
         <v>2</v>
@@ -9252,16 +9066,16 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E191" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F191" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I191" s="6">
         <v>2</v>
@@ -9281,16 +9095,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E193" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F193" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I193" s="6">
         <v>2</v>
@@ -9298,16 +9112,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E194" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F194" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I194" s="6">
         <v>2</v>
@@ -9315,16 +9129,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E195" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I195" s="6">
         <v>2</v>
@@ -9332,16 +9146,16 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E196" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F196" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I196" s="6">
         <v>8</v>
@@ -9349,16 +9163,16 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E197" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F197" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="I197" s="6">
         <v>8</v>
@@ -9366,16 +9180,16 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E198" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F198" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G198" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I198" s="6">
         <v>2</v>
@@ -9392,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>60</v>
@@ -9406,7 +9220,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D200" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>61</v>
@@ -9420,16 +9234,16 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E201" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F201" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I201" s="6">
         <v>4</v>
@@ -9437,16 +9251,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E202" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F202" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I202" s="6">
         <v>5</v>
@@ -9454,16 +9268,16 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E203" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I203" s="6">
         <v>1</v>
@@ -9471,16 +9285,16 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E204" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F204" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I204" s="6">
         <v>1</v>
@@ -9499,13 +9313,13 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E206" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I206" s="6">
         <v>1</v>
@@ -9513,16 +9327,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E207" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F207" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I207" s="6">
         <v>2</v>
@@ -9539,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>75</v>
@@ -9553,16 +9367,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E209" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F209" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I209" s="6">
         <v>1</v>
@@ -9570,13 +9384,13 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E210" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F210" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I210" s="6">
         <v>1</v>
@@ -9584,13 +9398,13 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E211" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F211" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I211" s="6">
         <v>1</v>
@@ -9598,13 +9412,13 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E212" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F212" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I212" s="6">
         <v>1</v>
@@ -9621,10 +9435,10 @@
         <v>1</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F213" s="6" t="s">
         <v>38</v>
@@ -9635,10 +9449,10 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D214" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F214" s="6" t="s">
         <v>38</v>
@@ -9649,10 +9463,10 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D215" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F215" s="6" t="s">
         <v>38</v>
@@ -9663,7 +9477,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E216" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F216" s="6" t="s">
         <v>37</v>
@@ -9672,7 +9486,7 @@
         <v>3010</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I216" s="6">
         <v>2</v>
@@ -9680,16 +9494,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E217" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F217" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H217" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I217" s="6">
         <v>4</v>
@@ -9706,16 +9520,16 @@
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F218" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H218" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I218" s="6">
         <v>1</v>
@@ -9734,7 +9548,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D220" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>76</v>
@@ -9759,7 +9573,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E222" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F222" s="6" t="s">
         <v>37</v>
@@ -9768,7 +9582,7 @@
         <v>3010</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="I222" s="6">
         <v>1</v>
@@ -9787,16 +9601,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E224" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I224" s="6">
         <v>1</v>
@@ -9804,7 +9618,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E225" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>37</v>
@@ -9815,16 +9629,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E226" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F226" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I226" s="6">
         <v>1</v>
@@ -9832,13 +9646,13 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E227" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F227" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I227" s="6">
         <v>1</v>
@@ -9846,16 +9660,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E228" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F228" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="I228" s="6">
         <v>1</v>
@@ -9863,7 +9677,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D229" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>79</v>
@@ -9877,7 +9691,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D230" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>80</v>
@@ -9891,16 +9705,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E231" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F231" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I231" s="6">
         <v>4</v>
@@ -9908,16 +9722,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E232" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F232" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H232" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I232" s="6">
         <v>1</v>
@@ -9925,16 +9739,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E233" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F233" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H233" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I233" s="6">
         <v>1</v>
@@ -9942,16 +9756,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E234" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F234" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H234" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I234" s="6">
         <v>2</v>
@@ -9959,13 +9773,13 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E235" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F235" s="6" t="s">
         <v>81</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I235" s="6">
         <v>3</v>
@@ -9973,16 +9787,16 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E236" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G236" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I236" s="6">
         <v>3</v>
@@ -9990,16 +9804,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E237" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F237" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I237" s="6">
         <v>1</v>
@@ -10032,7 +9846,7 @@
         <v>27</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C240" s="6">
         <v>1</v>
@@ -10049,7 +9863,7 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E241" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F241" s="6" t="s">
         <v>42</v>
@@ -10060,10 +9874,10 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D242" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F242" s="6" t="s">
         <v>38</v>
@@ -10074,13 +9888,13 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E243" s="7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F243" s="6" t="s">
         <v>40</v>
       </c>
       <c r="G243" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I243" s="6">
         <v>2</v>
@@ -10088,16 +9902,16 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E244" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F244" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I244" s="6">
         <v>1</v>
@@ -10105,16 +9919,16 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E245" s="5" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F245" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I245" s="6">
         <v>1</v>
@@ -10122,16 +9936,16 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E246" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F246" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H246" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I246" s="6">
         <v>1</v>
@@ -10175,16 +9989,16 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E249" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F249" s="6" t="s">
         <v>37</v>
       </c>
       <c r="G249" s="6" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="I249" s="6">
         <v>1</v>
@@ -10192,16 +10006,16 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E250" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F250" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G250" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I250" s="6">
         <v>2</v>
@@ -10209,16 +10023,16 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E251" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F251" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I251" s="6">
         <v>4</v>
@@ -10226,16 +10040,16 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E252" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F252" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I252" s="6">
         <v>4</v>
@@ -10246,10 +10060,10 @@
         <v>40</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G253" s="6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I253" s="6">
         <v>4</v>
@@ -10288,10 +10102,13 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E256" s="7" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G256" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="I256" s="6">
         <v>4</v>
@@ -10299,67 +10116,67 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E257" s="7" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G257" s="6" t="s">
-        <v>192</v>
+        <v>145</v>
+      </c>
+      <c r="H257" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="I257" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E258" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F258" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G258" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H258" s="6" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="I258" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" s="6">
+        <v>30</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" s="6">
+        <v>1</v>
+      </c>
       <c r="E259" s="7" t="s">
-        <v>248</v>
+        <v>91</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G259" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H259" s="6" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="I259" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A260" s="6">
-        <v>30</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C260" s="6">
-        <v>1</v>
-      </c>
       <c r="E260" s="7" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G260" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="I260" s="6">
         <v>1</v>
@@ -10367,10 +10184,13 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E261" s="7" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>38</v>
+        <v>92</v>
+      </c>
+      <c r="G261" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="I261" s="6">
         <v>1</v>
@@ -10378,10 +10198,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E262" s="7" t="s">
-        <v>94</v>
+        <v>190</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G262" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H262" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="I262" s="6">
         <v>1</v>
@@ -10389,16 +10215,10 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E263" s="7" t="s">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G263" s="6">
-        <v>3010</v>
-      </c>
-      <c r="H263" s="6" t="s">
-        <v>227</v>
+        <v>38</v>
       </c>
       <c r="I263" s="6">
         <v>1</v>
@@ -10406,53 +10226,38 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E264" s="7" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G264" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H264" s="6" t="s">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="I264" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E265" s="7" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H265" s="6" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="I265" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A266" s="6">
-        <v>31</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C266" s="6">
-        <v>1</v>
-      </c>
       <c r="E266" s="7" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G266" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="I266" s="6">
         <v>1</v>
@@ -10460,66 +10265,84 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E267" s="7" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G267" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
+      </c>
+      <c r="H267" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="I267" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E268" s="7" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G268" s="6" t="s">
-        <v>194</v>
+        <v>145</v>
+      </c>
+      <c r="H268" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="I268" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E269" s="7" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G269" s="6" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="H269" s="6" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="I269" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E270" s="7" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="G270" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H270" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="I270" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E271" s="7" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G271" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H271" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="I271" s="6">
         <v>1</v>
@@ -10527,38 +10350,44 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E272" s="7" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
+      </c>
+      <c r="G272" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="I272" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A273" s="6">
+        <v>31</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C273" s="6">
+        <v>1</v>
+      </c>
       <c r="E273" s="7" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G273" s="6" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I273" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E274" s="7" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G274" s="6" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="I274" s="6">
         <v>1</v>
@@ -10566,67 +10395,55 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E275" s="7" t="s">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G275" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H275" s="6" t="s">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="I275" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E276" s="7" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G276" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H276" s="6" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I276" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E277" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F277" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="I277" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E278" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F278" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H278" s="6" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="I278" s="6">
         <v>2</v>
@@ -10634,16 +10451,16 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E279" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F279" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G279" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H279" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I279" s="6">
         <v>1</v>
@@ -10651,16 +10468,19 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E280" s="7" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>144</v>
+        <v>39</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="H280" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="I280" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
@@ -10674,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F281" s="6" t="s">
         <v>38</v>
@@ -10685,7 +10505,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E282" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F282" s="6" t="s">
         <v>38</v>
@@ -10696,7 +10516,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E283" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F283" s="6" t="s">
         <v>38</v>
@@ -10707,10 +10527,10 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E284" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I284" s="6">
         <v>1</v>
@@ -10718,16 +10538,10 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E285" s="7" t="s">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G285" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="H285" s="6" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="I285" s="6">
         <v>1</v>
@@ -10735,33 +10549,21 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E286" s="7" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G286" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H286" s="6" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I286" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E287" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G287" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H287" s="6" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="I287" s="6">
         <v>1</v>
@@ -10769,58 +10571,58 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E288" s="7" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G288" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H288" s="6" t="s">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="I288" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A289" s="6">
-        <v>33</v>
-      </c>
-      <c r="B289" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C289" s="6">
-        <v>1</v>
-      </c>
       <c r="E289" s="7" t="s">
-        <v>104</v>
+        <v>241</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I289" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E290" s="7" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="I290" s="6">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E291" s="7" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G291" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H291" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="I291" s="6">
         <v>1</v>
@@ -10828,10 +10630,13 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E292" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="G292" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="I292" s="6">
         <v>1</v>
@@ -10839,21 +10644,33 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E293" s="7" t="s">
-        <v>109</v>
+        <v>239</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G293" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H293" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="I293" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E294" s="7" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>38</v>
+        <v>137</v>
+      </c>
+      <c r="G294" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H294" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="I294" s="6">
         <v>1</v>
@@ -10861,253 +10678,256 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E295" s="7" t="s">
-        <v>338</v>
+        <v>136</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>38</v>
+        <v>137</v>
+      </c>
+      <c r="G295" s="6">
+        <v>2020</v>
       </c>
       <c r="I295" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E296" s="7" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H296" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="I296" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E297" s="7" t="s">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H297" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I297" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
+        <v>33</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C298" s="6">
+        <v>1</v>
+      </c>
       <c r="E298" s="7" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>152</v>
+        <v>235</v>
+      </c>
+      <c r="H298" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="I298" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E299" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F299" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G299" s="6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H299" s="6" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="I299" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E300" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="G300" s="6" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="I300" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E301" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F301" s="6" t="s">
         <v>39</v>
       </c>
       <c r="G301" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H301" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I301" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E302" s="7" t="s">
-        <v>142</v>
+        <v>239</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G302" s="6">
-        <v>2020</v>
+        <v>39</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="H302" s="6" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="I302" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E303" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G303" s="6">
-        <v>2020</v>
+        <v>38</v>
       </c>
       <c r="I303" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A304" s="6">
+        <v>34</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C304" s="6">
+        <v>1</v>
+      </c>
       <c r="E304" s="7" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G304" s="6" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="H304" s="6" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="I304" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E305" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F305" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G305" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H305" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I305" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E306" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F305" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I305" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A306" s="6">
-        <v>34</v>
-      </c>
-      <c r="B306" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C306" s="6">
-        <v>1</v>
-      </c>
-      <c r="E306" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="F306" s="6" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="G306" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="H306" s="6" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="I306" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A307" s="6">
+        <v>35</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C307" s="6">
+        <v>1</v>
+      </c>
       <c r="E307" s="7" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G307" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="H307" s="6" t="s">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I307" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E308" s="7" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F308" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G308" s="6" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="I308" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E309" s="7" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="F309" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G309" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H309" s="6" t="s">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="I309" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E310" s="7" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="F310" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G310" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H310" s="6" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="I310" s="6">
         <v>2</v>
@@ -11115,7 +10935,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E311" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F311" s="6" t="s">
         <v>38</v>
@@ -11125,247 +10945,50 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A312" s="6">
-        <v>35</v>
-      </c>
-      <c r="B312" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C312" s="6">
-        <v>1</v>
-      </c>
       <c r="E312" s="7" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="F312" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>246</v>
+        <v>145</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="I312" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E313" s="7" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="F313" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H313" s="6" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="I313" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E314" s="7" t="s">
-        <v>40</v>
+        <v>190</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="G314" s="6" t="s">
-        <v>152</v>
+        <v>194</v>
+      </c>
+      <c r="H314" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="I314" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A315" s="6">
-        <v>36</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C315" s="6">
-        <v>1</v>
-      </c>
-      <c r="E315" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F315" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I315" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E316" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F316" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I316" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E317" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F317" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I317" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E318" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F318" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I318" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E319" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F319" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I319" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E320" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F320" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I320" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E321" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F321" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G321" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H321" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="I321" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E322" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F322" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G322" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H322" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I322" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E323" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F323" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G323" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H323" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I323" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E324" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F324" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G324" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H324" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I324" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E325" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F325" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G325" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I325" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E326" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F326" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G326" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I326" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E327" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F327" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G327" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H327" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I327" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11431,10 +11054,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" s="1">
         <v>145.28</v>
@@ -11448,10 +11071,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1">
         <v>79.34</v>
@@ -11465,10 +11088,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D5" s="1">
         <v>112.93</v>
@@ -11482,10 +11105,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D6" s="1">
         <v>330.06</v>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="part list" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="371">
   <si>
     <t>part name</t>
   </si>
@@ -1127,6 +1127,18 @@
   </si>
   <si>
     <t>half-nut</t>
+  </si>
+  <si>
+    <t>x_axis_bondtech_carriage_plate.STL</t>
+  </si>
+  <si>
+    <t>11h15m</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>PET-G</t>
   </si>
 </sst>
 </file>
@@ -1180,7 +1192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1214,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1487,7 +1502,7 @@
   </sheetPr>
   <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
@@ -12296,272 +12311,314 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>276.73</v>
       </c>
-      <c r="E2" s="1">
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>E2*0.074976</f>
+        <v>20.748108480000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>145.28</v>
       </c>
-      <c r="E3" s="1">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F7" si="0">E3*0.074976</f>
+        <v>10.892513280000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>79.34</v>
       </c>
-      <c r="E4" s="1">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9485958400000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>112.93</v>
       </c>
-      <c r="E5" s="1">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>8.467039680000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="1">
+        <v>114.17</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.5600099200000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>330.06</v>
       </c>
-      <c r="E6" s="1">
-        <v>24.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.74657856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="part list" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="376">
   <si>
     <t>part name</t>
   </si>
@@ -1139,6 +1139,21 @@
   </si>
   <si>
     <t>PET-G</t>
+  </si>
+  <si>
+    <t>nozzle_wiper_assembled.SLDASM</t>
+  </si>
+  <si>
+    <t>wiper_v2.STL</t>
+  </si>
+  <si>
+    <t>2020_servo_holder.STL</t>
+  </si>
+  <si>
+    <t>nozzle cleaner rubber</t>
+  </si>
+  <si>
+    <t>tower pro sg90 hobby servo (full kit)</t>
   </si>
 </sst>
 </file>
@@ -1500,10 +1515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V197"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1580,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J50" si="0">H2*I2</f>
+        <f t="shared" ref="J2:J52" si="0">H2*I2</f>
         <v>0</v>
       </c>
     </row>
@@ -1737,7 +1752,7 @@
         <v>145</v>
       </c>
       <c r="F9" s="6">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="0"/>
@@ -2051,6 +2066,9 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
       <c r="B21" s="7" t="s">
         <v>321</v>
       </c>
@@ -2075,6 +2093,9 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
       <c r="B22" s="7" t="s">
         <v>322</v>
       </c>
@@ -2099,6 +2120,9 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
       <c r="B23" s="7" t="s">
         <v>324</v>
       </c>
@@ -2124,7 +2148,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>253</v>
@@ -2154,7 +2178,7 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>167</v>
@@ -2181,7 +2205,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>115</v>
@@ -2202,7 +2226,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>363</v>
@@ -2229,7 +2253,7 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>249</v>
@@ -2254,7 +2278,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>249</v>
@@ -2279,7 +2303,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>139</v>
@@ -2304,7 +2328,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>139</v>
@@ -2329,7 +2353,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>139</v>
@@ -2354,7 +2378,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>255</v>
@@ -2379,7 +2403,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>30</v>
@@ -2398,7 +2422,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>97</v>
@@ -2417,7 +2441,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>228</v>
@@ -2442,7 +2466,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>224</v>
@@ -2467,7 +2491,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>169</v>
@@ -2489,7 +2513,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>243</v>
@@ -2514,7 +2538,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>184</v>
@@ -2547,7 +2571,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>179</v>
@@ -2572,7 +2596,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>83</v>
@@ -2591,7 +2615,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>186</v>
@@ -2624,7 +2648,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>193</v>
@@ -2646,7 +2670,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>189</v>
@@ -2668,7 +2692,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>347</v>
@@ -2687,7 +2711,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>342</v>
@@ -2706,16 +2730,13 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="F48" s="6">
         <v>1</v>
@@ -2728,19 +2749,13 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>237</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
@@ -2753,19 +2768,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -2778,716 +2790,694 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="F51" s="6">
-        <v>4</v>
-      </c>
-      <c r="G51" s="6">
-        <v>1</v>
-      </c>
-      <c r="H51" s="6">
-        <v>46</v>
-      </c>
-      <c r="I51" s="6">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G51" s="6"/>
       <c r="J51" s="6">
-        <f t="shared" ref="J51:J67" si="1">H51*I51</f>
-        <v>184</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>295</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F52" s="6">
         <v>1</v>
       </c>
       <c r="G52" s="6"/>
       <c r="J52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="6">
+        <v>4</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+      <c r="H53" s="6">
+        <v>46</v>
+      </c>
+      <c r="I53" s="6">
+        <v>4</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" ref="J53:J69" si="1">H53*I53</f>
+        <v>184</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6"/>
+      <c r="J54" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E55" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F53" s="6">
-        <v>1</v>
-      </c>
-      <c r="G53" s="6">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6">
         <v>120</v>
       </c>
-      <c r="I53" s="6">
-        <v>1</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+      <c r="J55" s="6">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K55" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
-        <v>50</v>
-      </c>
-      <c r="B54" s="7" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E56" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
-        <v>1</v>
-      </c>
-      <c r="H54" s="6">
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6">
         <v>240.9</v>
       </c>
-      <c r="I54" s="6">
-        <v>1</v>
-      </c>
-      <c r="J54" s="6">
+      <c r="I56" s="6">
+        <v>1</v>
+      </c>
+      <c r="J56" s="6">
         <f t="shared" si="1"/>
         <v>240.9</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K56" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
-        <v>51</v>
-      </c>
-      <c r="B55" s="7" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F57" s="6">
         <v>4</v>
       </c>
-      <c r="G55" s="6">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6">
+      <c r="G57" s="6">
+        <v>1</v>
+      </c>
+      <c r="H57" s="6">
         <v>2.75</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I57" s="6">
         <v>4</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J57" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K57" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
-        <v>52</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F58" s="6">
         <v>4</v>
       </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6">
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
         <v>4</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J58" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K58" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
-        <v>53</v>
-      </c>
-      <c r="B57" s="7" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F59" s="6">
         <v>4</v>
       </c>
-      <c r="G57" s="6">
-        <v>1</v>
-      </c>
-      <c r="H57" s="6">
+      <c r="G59" s="6">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6">
         <v>2.8</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I59" s="6">
         <v>4</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J59" s="6">
         <f t="shared" si="1"/>
         <v>11.2</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K59" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
-        <v>54</v>
-      </c>
-      <c r="B58" s="7" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F60" s="6">
         <v>10</v>
       </c>
-      <c r="G58" s="6">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
-      <c r="I58" s="6">
+      <c r="G60" s="6">
+        <v>1</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6">
         <v>10</v>
       </c>
-      <c r="J58" s="6">
+      <c r="J60" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
-        <v>55</v>
-      </c>
-      <c r="B59" s="7" t="s">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F61" s="6">
         <v>17</v>
       </c>
-      <c r="G59" s="6">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6">
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
         <v>17</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J61" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="K61" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
-        <v>56</v>
-      </c>
-      <c r="B60" s="7" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E62" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="6">
-        <v>1</v>
-      </c>
-      <c r="G60" s="6"/>
-      <c r="J60" s="6">
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="J62" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
-        <v>57</v>
-      </c>
-      <c r="B61" s="7" t="s">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E63" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F63" s="6">
         <v>2</v>
       </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6">
+      <c r="G63" s="6">
+        <v>1</v>
+      </c>
+      <c r="H63" s="6">
         <v>10</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I63" s="6">
         <v>2</v>
       </c>
-      <c r="J61" s="6">
+      <c r="J63" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K63" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
-        <v>58</v>
-      </c>
-      <c r="B62" s="7" t="s">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>1</v>
-      </c>
-      <c r="H62" s="6">
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>1</v>
+      </c>
+      <c r="H64" s="6">
         <v>22</v>
       </c>
-      <c r="I62" s="6">
-        <v>1</v>
-      </c>
-      <c r="J62" s="6">
+      <c r="I64" s="6">
+        <v>1</v>
+      </c>
+      <c r="J64" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K64" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
-        <v>59</v>
-      </c>
-      <c r="B63" s="7" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F65" s="6">
         <v>2</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G65" s="6">
         <v>1000</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H65" s="6">
         <v>6.9</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I65" s="6">
         <v>2</v>
       </c>
-      <c r="J63" s="6">
+      <c r="J65" s="6">
         <f t="shared" si="1"/>
         <v>13.8</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K65" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
-        <v>60</v>
-      </c>
-      <c r="B64" s="7" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E66" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F66" s="6">
         <v>2</v>
       </c>
-      <c r="G64" s="6">
-        <v>1</v>
-      </c>
-      <c r="H64" s="6">
+      <c r="G66" s="6">
+        <v>1</v>
+      </c>
+      <c r="H66" s="6">
         <v>13</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I66" s="6">
         <v>2</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J66" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K66" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
-        <v>61</v>
-      </c>
-      <c r="B65" s="7" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E67" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F67" s="6">
         <v>7</v>
       </c>
-      <c r="G65" s="6">
-        <v>1</v>
-      </c>
-      <c r="H65" s="6">
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="H67" s="6">
         <v>8.49</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I67" s="6">
         <v>7</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J67" s="6">
         <f t="shared" si="1"/>
         <v>59.43</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K67" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
-        <v>62</v>
-      </c>
-      <c r="B66" s="7" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E68" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F68" s="6">
         <v>3</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G68" s="6">
         <v>100</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H68" s="6">
         <v>70</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I68" s="6">
         <v>4</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J68" s="6">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K68" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
-        <v>63</v>
-      </c>
-      <c r="B67" s="7" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F69" s="6">
         <v>3</v>
       </c>
-      <c r="G67" s="6">
-        <v>1</v>
-      </c>
-      <c r="H67" s="6">
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="6">
         <v>165</v>
       </c>
-      <c r="I67" s="6">
+      <c r="I69" s="6">
         <v>2</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J69" s="6">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K69" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
-        <v>64</v>
-      </c>
-      <c r="B68" s="7" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" s="6">
+      <c r="D70" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" s="6">
         <v>74</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G70" s="6">
         <v>10</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H70" s="6">
         <v>1.5</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I70" s="6">
         <v>8</v>
       </c>
-      <c r="J68" s="6">
-        <f t="shared" ref="J68:J69" si="2">H68*I68</f>
+      <c r="J70" s="6">
+        <f t="shared" ref="J70:J71" si="2">H70*I70</f>
         <v>12</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K70" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
-        <v>65</v>
-      </c>
-      <c r="B69" s="7" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F69" s="6">
-        <v>1</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6">
         <v>10</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H71" s="6">
         <v>4.8</v>
       </c>
-      <c r="I69" s="6">
-        <v>1</v>
-      </c>
-      <c r="J69" s="6">
+      <c r="I71" s="6">
+        <v>1</v>
+      </c>
+      <c r="J71" s="6">
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K71" s="7" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
-        <v>66</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F70" s="6">
-        <v>1</v>
-      </c>
-      <c r="G70" s="6">
-        <v>5</v>
-      </c>
-      <c r="H70" s="6">
-        <v>5</v>
-      </c>
-      <c r="I70" s="6">
-        <v>1</v>
-      </c>
-      <c r="J70" s="6">
-        <f>H70*I70</f>
-        <v>5</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
-        <v>67</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F71" s="6">
-        <v>4</v>
-      </c>
-      <c r="G71" s="6">
-        <v>10</v>
-      </c>
-      <c r="H71" s="6">
-        <v>3.2</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" ref="J71:J91" si="3">H71*I71</f>
-        <v>3.2</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="6">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>239</v>
@@ -3496,779 +3486,779 @@
         <v>39</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6">
+        <v>5</v>
+      </c>
+      <c r="H72" s="6">
+        <v>5</v>
+      </c>
+      <c r="I72" s="6">
+        <v>1</v>
+      </c>
+      <c r="J72" s="6">
+        <f>H72*I72</f>
+        <v>5</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E73" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="6">
+        <v>4</v>
+      </c>
+      <c r="G73" s="6">
+        <v>10</v>
+      </c>
+      <c r="H73" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="I73" s="6">
+        <v>1</v>
+      </c>
+      <c r="J73" s="6">
+        <f t="shared" ref="J73:J93" si="3">H73*I73</f>
+        <v>3.2</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F74" s="6">
         <v>16</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G74" s="6">
         <v>10</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H74" s="6">
         <v>2.9</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I74" s="6">
         <v>2</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J74" s="6">
         <f t="shared" si="3"/>
         <v>5.8</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K74" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
-        <v>69</v>
-      </c>
-      <c r="B73" s="7" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C75" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E75" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6">
-        <v>1</v>
-      </c>
-      <c r="I73" s="6">
-        <v>1</v>
-      </c>
-      <c r="J73" s="6">
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
-        <v>70</v>
-      </c>
-      <c r="B74" s="7" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="C76" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E76" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F76" s="6">
         <v>5</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G76" s="6">
         <v>10</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H76" s="6">
         <v>2.5</v>
       </c>
-      <c r="I74" s="6">
-        <v>1</v>
-      </c>
-      <c r="J74" s="6">
+      <c r="I76" s="6">
+        <v>1</v>
+      </c>
+      <c r="J76" s="6">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K76" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
-        <v>71</v>
-      </c>
-      <c r="B75" s="7" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E77" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F77" s="6">
         <v>76</v>
       </c>
-      <c r="G75" s="6">
+      <c r="G77" s="6">
         <v>10</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H77" s="6">
         <v>2.6</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I77" s="6">
         <v>8</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J77" s="6">
         <f t="shared" si="3"/>
         <v>20.8</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K77" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
-        <v>72</v>
-      </c>
-      <c r="B76" s="7" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E78" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F78" s="6">
         <v>14</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G78" s="6">
         <v>10</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H78" s="6">
         <v>2.8</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I78" s="6">
         <v>2</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J78" s="6">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K78" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
-        <v>73</v>
-      </c>
-      <c r="B77" s="7" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C79" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E79" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F79" s="6">
         <v>32</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="J77" s="6">
+      <c r="G79" s="6"/>
+      <c r="J79" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
-        <v>74</v>
-      </c>
-      <c r="B78" s="7" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="C80" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F80" s="6">
         <v>23</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G80" s="6">
         <v>5</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H80" s="6">
         <v>2.9</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I80" s="6">
         <v>5</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J80" s="6">
         <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K80" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
-        <v>75</v>
-      </c>
-      <c r="B79" s="7" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E79" s="6" t="s">
+      <c r="C81" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F81" s="6">
         <v>12</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G81" s="6">
         <v>5</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H81" s="6">
         <v>2.4</v>
       </c>
-      <c r="I79" s="6">
+      <c r="I81" s="6">
         <v>3</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J81" s="6">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K81" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
-        <v>76</v>
-      </c>
-      <c r="B80" s="7" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F82" s="6">
         <v>14</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G82" s="6">
         <v>10</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H82" s="6">
         <v>3.3</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I82" s="6">
         <v>2</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J82" s="6">
         <f t="shared" si="3"/>
         <v>6.6</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K82" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
-        <v>77</v>
-      </c>
-      <c r="B81" s="7" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="C83" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F83" s="6">
         <v>12</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G83" s="6">
         <v>10</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H83" s="6">
         <v>2.8</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I83" s="6">
         <v>2</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J83" s="6">
         <f t="shared" si="3"/>
         <v>5.6</v>
       </c>
-      <c r="K81" s="7" t="s">
+      <c r="K83" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
-        <v>78</v>
-      </c>
-      <c r="B82" s="7" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="C84" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F84" s="6">
         <v>8</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G84" s="6">
         <v>10</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H84" s="6">
         <v>1.6</v>
       </c>
-      <c r="I82" s="6">
-        <v>1</v>
-      </c>
-      <c r="J82" s="6">
+      <c r="I84" s="6">
+        <v>1</v>
+      </c>
+      <c r="J84" s="6">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K84" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
-        <v>79</v>
-      </c>
-      <c r="B83" s="7" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="C85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F85" s="6">
         <v>22</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G85" s="6">
         <v>10</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H85" s="6">
         <v>1.5</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I85" s="6">
         <v>3</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J85" s="6">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K85" s="7" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
-        <v>80</v>
-      </c>
-      <c r="B84" s="7" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="C86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F86" s="6">
         <v>37</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G86" s="6">
         <v>10</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H86" s="6">
         <v>2.5</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I86" s="6">
         <v>4</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J86" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K86" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
-        <v>81</v>
-      </c>
-      <c r="B85" s="7" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="C87" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F87" s="6">
         <v>10</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G87" s="6">
         <v>10</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H87" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I85" s="6">
-        <v>1</v>
-      </c>
-      <c r="J85" s="6">
+      <c r="I87" s="6">
+        <v>1</v>
+      </c>
+      <c r="J87" s="6">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K87" s="7" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
-        <v>82</v>
-      </c>
-      <c r="B86" s="7" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="C88" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F88" s="6">
         <v>16</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G88" s="6">
         <v>10</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H88" s="6">
         <v>1.3</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I88" s="6">
         <v>2</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J88" s="6">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K88" s="7" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
-        <v>83</v>
-      </c>
-      <c r="B87" s="7" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="C89" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F89" s="6">
         <v>6</v>
       </c>
-      <c r="G87" s="6">
+      <c r="G89" s="6">
         <v>10</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H89" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I87" s="6">
-        <v>1</v>
-      </c>
-      <c r="J87" s="6">
+      <c r="I89" s="6">
+        <v>1</v>
+      </c>
+      <c r="J89" s="6">
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K89" s="7" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
-        <v>84</v>
-      </c>
-      <c r="B88" s="7" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="C90" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F90" s="6">
         <v>10</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G90" s="6">
         <v>10</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H90" s="6">
         <v>1.7</v>
       </c>
-      <c r="I88" s="6">
-        <v>1</v>
-      </c>
-      <c r="J88" s="6">
+      <c r="I90" s="6">
+        <v>1</v>
+      </c>
+      <c r="J90" s="6">
         <f t="shared" si="3"/>
         <v>1.7</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K90" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
-        <v>85</v>
-      </c>
-      <c r="B89" s="7" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="C91" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F91" s="6">
         <v>34</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G91" s="6">
         <v>10</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H91" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I89" s="6">
+      <c r="I91" s="6">
         <v>4</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J91" s="6">
         <f t="shared" si="3"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K91" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
-        <v>86</v>
-      </c>
-      <c r="B90" s="7" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="C92" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F92" s="6">
         <v>29</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G92" s="6">
         <v>10</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H92" s="6">
         <v>1.5</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I92" s="6">
         <v>3</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J92" s="6">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K92" s="7" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
-        <v>87</v>
-      </c>
-      <c r="B91" s="7" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="6" t="s">
+      <c r="C93" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F91" s="6">
-        <v>67</v>
-      </c>
-      <c r="G91" s="6">
+      <c r="F93" s="6">
+        <v>69</v>
+      </c>
+      <c r="G93" s="6">
         <v>10</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H93" s="6">
         <v>1.9</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I93" s="6">
         <v>7</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J93" s="6">
         <f t="shared" si="3"/>
         <v>13.299999999999999</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K93" s="7" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
-        <v>88</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F92" s="6">
-        <v>39</v>
-      </c>
-      <c r="G92" s="6">
-        <v>10</v>
-      </c>
-      <c r="H92" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I92" s="6">
-        <v>4</v>
-      </c>
-      <c r="J92" s="6">
-        <f>H92*I92</f>
-        <v>5.6</v>
-      </c>
-      <c r="K92" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
-        <v>89</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F93" s="6">
-        <v>6</v>
-      </c>
-      <c r="G93" s="6">
-        <v>10</v>
-      </c>
-      <c r="H93" s="6">
-        <v>1.9</v>
-      </c>
-      <c r="I93" s="6">
-        <v>1</v>
-      </c>
-      <c r="J93" s="6">
-        <f>H93*I93</f>
-        <v>1.9</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>39</v>
@@ -4280,28 +4270,28 @@
         <v>203</v>
       </c>
       <c r="F94" s="6">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G94" s="6">
         <v>10</v>
       </c>
       <c r="H94" s="6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="I94" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J94" s="6">
         <f>H94*I94</f>
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="K94" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="6">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>239</v>
@@ -4310,133 +4300,167 @@
         <v>39</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F95" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95" s="6">
         <v>10</v>
       </c>
       <c r="H95" s="6">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="I95" s="6">
         <v>1</v>
       </c>
       <c r="J95" s="6">
         <f>H95*I95</f>
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="6">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>145</v>
       </c>
+      <c r="E96" s="6" t="s">
+        <v>203</v>
+      </c>
       <c r="F96" s="6">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G96" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H96" s="6">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" s="6">
         <f>H96*I96</f>
+        <v>3</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5</v>
+      </c>
+      <c r="G97" s="6">
+        <v>10</v>
+      </c>
+      <c r="H97" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I97" s="6">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6">
+        <f>H97*I97</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F98" s="6">
+        <v>8</v>
+      </c>
+      <c r="G98" s="6">
+        <v>20</v>
+      </c>
+      <c r="H98" s="6">
         <v>1.2</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="I98" s="6">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <f>H98*I98</f>
+        <v>1.2</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
-        <v>93</v>
-      </c>
-      <c r="B97" s="7" t="s">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C99" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F97" s="6">
-        <v>1</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="J97" s="6">
-        <f t="shared" ref="J97:J156" si="4">H97*I97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
-        <v>94</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="6">
-        <v>3</v>
-      </c>
-      <c r="G98" s="6"/>
-      <c r="J98" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
-        <v>95</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="F99" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G99" s="6"/>
       <c r="J99" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J99:J158" si="4">H99*I99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F100" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" s="6"/>
       <c r="J100" s="6">
@@ -4444,18 +4468,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="6">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" s="6">
         <v>3</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="6">
-        <v>1</v>
       </c>
       <c r="G101" s="6"/>
       <c r="J101" s="6">
@@ -4463,18 +4487,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="6">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F102" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G102" s="6"/>
       <c r="J102" s="6">
@@ -4482,12 +4506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="6">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>38</v>
@@ -4501,12 +4525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="6">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>38</v>
@@ -4520,12 +4544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="6">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>38</v>
@@ -4533,17 +4557,18 @@
       <c r="F105" s="6">
         <v>1</v>
       </c>
+      <c r="G105" s="6"/>
       <c r="J105" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="6">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>38</v>
@@ -4557,12 +4582,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="6">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>38</v>
@@ -4570,18 +4595,17 @@
       <c r="F107" s="6">
         <v>1</v>
       </c>
-      <c r="G107" s="6"/>
       <c r="J107" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="6">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>38</v>
@@ -4595,12 +4619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="6">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>38</v>
@@ -4614,12 +4638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="6">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>38</v>
@@ -4633,12 +4657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>38</v>
@@ -4652,18 +4676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F112" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" s="6"/>
       <c r="J112" s="6">
@@ -4673,10 +4697,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>38</v>
@@ -4692,16 +4716,16 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>5</v>
+        <v>122</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F114" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G114" s="6"/>
       <c r="J114" s="6">
@@ -4711,10 +4735,10 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>38</v>
@@ -4730,10 +4754,10 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>38</v>
@@ -4749,10 +4773,10 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>38</v>
@@ -4768,10 +4792,10 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>38</v>
@@ -4787,10 +4811,10 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>38</v>
@@ -4806,16 +4830,16 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F120" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" s="6"/>
       <c r="J120" s="6">
@@ -4825,16 +4849,16 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F121" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" s="6"/>
       <c r="J121" s="6">
@@ -4844,16 +4868,16 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="6">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F122" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G122" s="6"/>
       <c r="J122" s="6">
@@ -4863,16 +4887,16 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="6">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F123" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="6"/>
       <c r="J123" s="6">
@@ -4882,10 +4906,10 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>38</v>
@@ -4901,10 +4925,10 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>38</v>
@@ -4920,16 +4944,16 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="6">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F126" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" s="6"/>
       <c r="J126" s="6">
@@ -4939,17 +4963,18 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="6">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F127" s="6">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G127" s="6"/>
       <c r="J127" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4957,10 +4982,10 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>38</v>
@@ -4968,6 +4993,7 @@
       <c r="F128" s="6">
         <v>2</v>
       </c>
+      <c r="G128" s="6"/>
       <c r="J128" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4975,18 +5001,17 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F129" s="6">
-        <v>6</v>
-      </c>
-      <c r="G129" s="6"/>
+        <v>4</v>
+      </c>
       <c r="J129" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4994,10 +5019,10 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="6">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>38</v>
@@ -5005,7 +5030,6 @@
       <c r="F130" s="6">
         <v>2</v>
       </c>
-      <c r="G130" s="6"/>
       <c r="J130" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5013,16 +5037,16 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F131" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G131" s="6"/>
       <c r="J131" s="6">
@@ -5032,16 +5056,16 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F132" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132" s="6"/>
       <c r="J132" s="6">
@@ -5051,10 +5075,10 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="6">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>38</v>
@@ -5070,10 +5094,10 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="6">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>38</v>
@@ -5089,10 +5113,10 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>38</v>
@@ -5108,10 +5132,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="6">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>38</v>
@@ -5127,10 +5151,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="6">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>38</v>
@@ -5146,10 +5170,10 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>38</v>
@@ -5165,10 +5189,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="6">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>38</v>
@@ -5184,10 +5208,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>38</v>
@@ -5203,10 +5227,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="6">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>38</v>
@@ -5222,10 +5246,10 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="6">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>38</v>
@@ -5241,10 +5265,10 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="6">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>38</v>
@@ -5260,10 +5284,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="6">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>38</v>
@@ -5279,10 +5303,10 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <v>141</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>256</v>
+        <v>144</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>38</v>
@@ -5298,10 +5322,10 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
-        <v>142</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>257</v>
+        <v>145</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>38</v>
@@ -5317,10 +5341,10 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="6">
-        <v>143</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>79</v>
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>38</v>
@@ -5328,6 +5352,7 @@
       <c r="F147" s="6">
         <v>1</v>
       </c>
+      <c r="G147" s="6"/>
       <c r="J147" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5335,10 +5360,10 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="6">
-        <v>144</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>80</v>
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>38</v>
@@ -5346,6 +5371,7 @@
       <c r="F148" s="6">
         <v>1</v>
       </c>
+      <c r="G148" s="6"/>
       <c r="J148" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -5353,10 +5379,10 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="6">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>38</v>
@@ -5371,10 +5397,10 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="6">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>38</v>
@@ -5389,10 +5415,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="6">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>38</v>
@@ -5407,10 +5433,10 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="6">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>38</v>
@@ -5425,10 +5451,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>38</v>
@@ -5443,10 +5469,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="6">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>38</v>
@@ -5461,10 +5487,10 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="6">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>330</v>
+        <v>89</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>38</v>
@@ -5479,10 +5505,10 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="6">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>38</v>
@@ -5497,10 +5523,10 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="6">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>95</v>
+        <v>330</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>38</v>
@@ -5509,16 +5535,16 @@
         <v>1</v>
       </c>
       <c r="J157" s="6">
-        <f t="shared" ref="J157:J196" si="5">H157*I157</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>38</v>
@@ -5527,16 +5553,16 @@
         <v>1</v>
       </c>
       <c r="J158" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="6">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>38</v>
@@ -5545,16 +5571,16 @@
         <v>1</v>
       </c>
       <c r="J159" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J159:J198" si="5">H159*I159</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="6">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>38</v>
@@ -5569,10 +5595,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>38</v>
@@ -5587,10 +5613,10 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="6">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>38</v>
@@ -5605,10 +5631,10 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="6">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>38</v>
@@ -5623,10 +5649,10 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="6">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>38</v>
@@ -5641,10 +5667,10 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" s="6">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>38</v>
@@ -5659,10 +5685,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" s="6">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>38</v>
@@ -5677,16 +5703,16 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="6">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F167" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" s="6">
         <f t="shared" si="5"/>
@@ -5695,16 +5721,16 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="6">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F168" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" s="6">
         <f t="shared" si="5"/>
@@ -5713,16 +5739,16 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" s="6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F169" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J169" s="6">
         <f t="shared" si="5"/>
@@ -5731,16 +5757,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" s="6">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F170" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" s="6">
         <f t="shared" si="5"/>
@@ -5749,10 +5775,10 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="6">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>260</v>
+        <v>114</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>38</v>
@@ -5767,10 +5793,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="6">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>38</v>
@@ -5785,10 +5811,10 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="6">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>38</v>
@@ -5803,10 +5829,10 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="6">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>38</v>
@@ -5821,16 +5847,16 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F175" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J175" s="6">
         <f t="shared" si="5"/>
@@ -5839,10 +5865,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>38</v>
@@ -5857,16 +5883,16 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F177" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" s="6">
         <f t="shared" si="5"/>
@@ -5875,16 +5901,16 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" s="6">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F178" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J178" s="6">
         <f t="shared" si="5"/>
@@ -5893,16 +5919,16 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F179" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" s="6">
         <f t="shared" si="5"/>
@@ -5911,16 +5937,16 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" s="6">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F180" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J180" s="6">
         <f t="shared" si="5"/>
@@ -5929,16 +5955,16 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" s="6">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F181" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J181" s="6">
         <f t="shared" si="5"/>
@@ -5947,16 +5973,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F182" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J182" s="6">
         <f t="shared" si="5"/>
@@ -5965,16 +5991,16 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" s="6">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F183" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J183" s="6">
         <f t="shared" si="5"/>
@@ -5983,10 +6009,10 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="6">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>38</v>
@@ -6001,16 +6027,16 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" s="6">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F185" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J185" s="6">
         <f t="shared" si="5"/>
@@ -6019,16 +6045,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="6">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F186" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J186" s="6">
         <f t="shared" si="5"/>
@@ -6037,16 +6063,16 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" s="6">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F187" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J187" s="6">
         <f t="shared" si="5"/>
@@ -6055,16 +6081,16 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" s="6">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F188" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J188" s="6">
         <f t="shared" si="5"/>
@@ -6073,16 +6099,16 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" s="6">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="F189" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" s="6">
         <f t="shared" si="5"/>
@@ -6091,16 +6117,16 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" s="6">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="F190" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J190" s="6">
         <f t="shared" si="5"/>
@@ -6109,17 +6135,19 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" s="6">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="F191" s="6">
         <v>1</v>
       </c>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
       <c r="J191" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6127,17 +6155,19 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" s="6">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>364</v>
+        <v>38</v>
       </c>
       <c r="F192" s="6">
         <v>1</v>
       </c>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
       <c r="J192" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6145,10 +6175,10 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" s="6">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>364</v>
@@ -6157,16 +6187,16 @@
         <v>1</v>
       </c>
       <c r="J193" s="6">
-        <f t="shared" si="5"/>
+        <f>H193*I193</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" s="6">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>364</v>
@@ -6175,16 +6205,16 @@
         <v>1</v>
       </c>
       <c r="J194" s="6">
-        <f t="shared" si="5"/>
+        <f>H194*I194</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" s="6">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>364</v>
@@ -6193,16 +6223,16 @@
         <v>1</v>
       </c>
       <c r="J195" s="6">
-        <f t="shared" si="5"/>
+        <f>H195*I195</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" s="6">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>364</v>
@@ -6211,13 +6241,85 @@
         <v>1</v>
       </c>
       <c r="J196" s="6">
-        <f t="shared" si="5"/>
+        <f>H196*I196</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="6">
+        <v>196</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F197" s="6">
+        <v>1</v>
+      </c>
       <c r="J197" s="6">
-        <f>SUM(J2:J171)</f>
+        <f>H197*I197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="6">
+        <v>197</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F198" s="6">
+        <v>1</v>
+      </c>
+      <c r="J198" s="6">
+        <f>H198*I198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>198</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F199" s="6">
+        <v>1</v>
+      </c>
+      <c r="J199" s="6">
+        <f>H199*I199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="6">
+        <v>199</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F200" s="6">
+        <v>1</v>
+      </c>
+      <c r="J200" s="6">
+        <f>H200*I200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J201" s="6">
+        <f>SUM(J2:J173)</f>
         <v>2401.8199999999997</v>
       </c>
     </row>
@@ -6232,10 +6334,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q364"/>
+  <dimension ref="A1:Q370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="E367" sqref="E367:I367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12106,23 +12208,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E352" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G352" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H352" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I352" s="6">
-        <v>2</v>
-      </c>
-    </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E353" s="7" t="s">
         <v>106</v>
@@ -12301,6 +12386,90 @@
       </c>
       <c r="I364" s="6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A365" s="6">
+        <v>43</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C365" s="6">
+        <v>1</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I365" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E366" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I366" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E367" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I367" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E368" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I368" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E369" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G369" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="I369" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E370" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G370" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H370" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I370" s="6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12313,7 +12482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
